--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业营业收入.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业营业收入.xlsx
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2484.9</v>
+        <v>2365.900000000001</v>
       </c>
       <c r="C4" t="n">
         <v>10642.9</v>
@@ -2454,7 +2454,7 @@
         <v>11.1</v>
       </c>
       <c r="H4" t="n">
-        <v>166.5</v>
+        <v>145.8</v>
       </c>
       <c r="I4" t="n">
         <v>633.7</v>
@@ -2463,7 +2463,7 @@
         <v>5.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.799999999999999</v>
+        <v>2.299999999999999</v>
       </c>
       <c r="L4" t="n">
         <v>12</v>
@@ -2526,7 +2526,7 @@
         <v>9.4</v>
       </c>
       <c r="AF4" t="n">
-        <v>649.0999999999999</v>
+        <v>629.5999999999999</v>
       </c>
       <c r="AG4" t="n">
         <v>2562.3</v>
@@ -2553,7 +2553,7 @@
         <v>7.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>100.8</v>
+        <v>67.89999999999998</v>
       </c>
       <c r="AP4" t="n">
         <v>452.8</v>
@@ -2589,7 +2589,7 @@
         <v>5.5</v>
       </c>
       <c r="BA4" t="n">
-        <v>862.3000000000002</v>
+        <v>833.6000000000008</v>
       </c>
       <c r="BB4" t="n">
         <v>3346.7</v>
@@ -2769,7 +2769,7 @@
         <v>4.8</v>
       </c>
       <c r="DI4" t="n">
-        <v>4.600000000000023</v>
+        <v>1.200000000000017</v>
       </c>
       <c r="DJ4" t="n">
         <v>314.8</v>
@@ -2778,7 +2778,7 @@
         <v>6.8</v>
       </c>
       <c r="DL4" t="n">
-        <v>2762.9</v>
+        <v>2351.100000000001</v>
       </c>
       <c r="DM4" t="n">
         <v>12116.4</v>
@@ -2796,7 +2796,7 @@
         <v>5.7</v>
       </c>
       <c r="DR4" t="n">
-        <v>229.2999999999988</v>
+        <v>180.7999999999974</v>
       </c>
       <c r="DS4" t="n">
         <v>16854.4</v>
@@ -3028,7 +3028,7 @@
         <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2941.999999999942</v>
+        <v>1056.699999999895</v>
       </c>
       <c r="R5" t="n">
         <v>391525.4</v>
@@ -3037,7 +3037,7 @@
         <v>10.3</v>
       </c>
       <c r="T5" t="n">
-        <v>5586.200000000001</v>
+        <v>5269.800000000002</v>
       </c>
       <c r="U5" t="n">
         <v>31802.9</v>
@@ -3055,7 +3055,7 @@
         <v>16.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>136.099999999999</v>
+        <v>71.39999999999804</v>
       </c>
       <c r="AA5" t="n">
         <v>10434</v>
@@ -3082,7 +3082,7 @@
         <v>6.9</v>
       </c>
       <c r="AI5" t="n">
-        <v>3355.099999999919</v>
+        <v>1605.899999999878</v>
       </c>
       <c r="AJ5" t="n">
         <v>439003.2</v>
@@ -3109,7 +3109,7 @@
         <v>5.4</v>
       </c>
       <c r="AR5" t="n">
-        <v>65.09999999999991</v>
+        <v>19.99999999999977</v>
       </c>
       <c r="AS5" t="n">
         <v>5773.6</v>
@@ -3154,7 +3154,7 @@
         <v>5.6</v>
       </c>
       <c r="BG5" t="n">
-        <v>18.5</v>
+        <v>14.1999999999999</v>
       </c>
       <c r="BH5" t="n">
         <v>992.2</v>
@@ -3163,7 +3163,7 @@
         <v>10.2</v>
       </c>
       <c r="BJ5" t="n">
-        <v>339.8000000000029</v>
+        <v>336.3000000000065</v>
       </c>
       <c r="BK5" t="n">
         <v>35161.3</v>
@@ -3172,7 +3172,7 @@
         <v>11.5</v>
       </c>
       <c r="BM5" t="n">
-        <v>772.3999999999996</v>
+        <v>670.5999999999999</v>
       </c>
       <c r="BN5" t="n">
         <v>4724.2</v>
@@ -3181,7 +3181,7 @@
         <v>13.8</v>
       </c>
       <c r="BP5" t="n">
-        <v>2082.5</v>
+        <v>1835.600000000001</v>
       </c>
       <c r="BQ5" t="n">
         <v>10375.3</v>
@@ -3217,7 +3217,7 @@
         <v>12.4</v>
       </c>
       <c r="CB5" t="n">
-        <v>783.6999999999971</v>
+        <v>731.2999999999975</v>
       </c>
       <c r="CC5" t="n">
         <v>26508.3</v>
@@ -3253,7 +3253,7 @@
         <v>15</v>
       </c>
       <c r="CN5" t="n">
-        <v>2675.4</v>
+        <v>2493.300000000002</v>
       </c>
       <c r="CO5" t="n">
         <v>13010.8</v>
@@ -3262,7 +3262,7 @@
         <v>1.5</v>
       </c>
       <c r="CQ5" t="n">
-        <v>1515.499999999999</v>
+        <v>1496.799999999999</v>
       </c>
       <c r="CR5" t="n">
         <v>7548.2</v>
@@ -3289,7 +3289,7 @@
         <v>10</v>
       </c>
       <c r="CZ5" t="n">
-        <v>31.10000000000014</v>
+        <v>6.60000000000014</v>
       </c>
       <c r="DA5" t="n">
         <v>6082</v>
@@ -3307,7 +3307,7 @@
         <v>10.8</v>
       </c>
       <c r="DF5" t="n">
-        <v>3722.100000000002</v>
+        <v>3599.000000000002</v>
       </c>
       <c r="DG5" t="n">
         <v>18869.8</v>
@@ -3316,7 +3316,7 @@
         <v>4.5</v>
       </c>
       <c r="DI5" t="n">
-        <v>89</v>
+        <v>84.39999999999998</v>
       </c>
       <c r="DJ5" t="n">
         <v>404.4</v>
@@ -3334,7 +3334,7 @@
         <v>9.4</v>
       </c>
       <c r="DO5" t="n">
-        <v>251.5</v>
+        <v>128.9000000000003</v>
       </c>
       <c r="DP5" t="n">
         <v>4739.3</v>
@@ -3343,7 +3343,7 @@
         <v>4.4</v>
       </c>
       <c r="DR5" t="n">
-        <v>4151.700000000001</v>
+        <v>3922.400000000002</v>
       </c>
       <c r="DS5" t="n">
         <v>21635.6</v>
@@ -3352,7 +3352,7 @@
         <v>14.3</v>
       </c>
       <c r="DU5" t="n">
-        <v>303.1000000000001</v>
+        <v>271.9000000000001</v>
       </c>
       <c r="DV5" t="n">
         <v>1476</v>
@@ -3370,7 +3370,7 @@
         <v>7.9</v>
       </c>
       <c r="EA5" t="n">
-        <v>4798.599999999999</v>
+        <v>3999.799999999999</v>
       </c>
       <c r="EB5" t="n">
         <v>26282.2</v>
@@ -3379,7 +3379,7 @@
         <v>14.8</v>
       </c>
       <c r="ED5" t="n">
-        <v>259.0999999999999</v>
+        <v>245.9</v>
       </c>
       <c r="EE5" t="n">
         <v>1389.7</v>
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2139.1</v>
+        <v>1914.799999999999</v>
       </c>
       <c r="C6" t="n">
         <v>16290.1</v>
@@ -3539,7 +3539,7 @@
         <v>12.9</v>
       </c>
       <c r="E6" t="n">
-        <v>575.5</v>
+        <v>553.1999999999998</v>
       </c>
       <c r="F6" t="n">
         <v>4002.1</v>
@@ -3557,7 +3557,7 @@
         <v>7.2</v>
       </c>
       <c r="K6" t="n">
-        <v>1.899999999999999</v>
+        <v>1.699999999999996</v>
       </c>
       <c r="L6" t="n">
         <v>18.8</v>
@@ -3566,7 +3566,7 @@
         <v>6.8</v>
       </c>
       <c r="N6" t="n">
-        <v>3549.5</v>
+        <v>3509.899999999998</v>
       </c>
       <c r="O6" t="n">
         <v>25210.3</v>
@@ -3575,7 +3575,7 @@
         <v>4.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>69187.5</v>
+        <v>66245.50000000006</v>
       </c>
       <c r="R6" t="n">
         <v>475272.1</v>
@@ -3593,7 +3593,7 @@
         <v>10.9</v>
       </c>
       <c r="W6" t="n">
-        <v>597.1999999999998</v>
+        <v>564.6999999999998</v>
       </c>
       <c r="X6" t="n">
         <v>4026.6</v>
@@ -3602,7 +3602,7 @@
         <v>17.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>1572.199999999999</v>
+        <v>1436.1</v>
       </c>
       <c r="AA6" t="n">
         <v>12700.1</v>
@@ -3611,7 +3611,7 @@
         <v>13.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>536.6999999999998</v>
+        <v>535.8999999999996</v>
       </c>
       <c r="AD6" t="n">
         <v>3466.2</v>
@@ -3620,7 +3620,7 @@
         <v>6.9</v>
       </c>
       <c r="AF6" t="n">
-        <v>577.9000000000001</v>
+        <v>562.3000000000002</v>
       </c>
       <c r="AG6" t="n">
         <v>3958.8</v>
@@ -3629,7 +3629,7 @@
         <v>7.1</v>
       </c>
       <c r="AI6" t="n">
-        <v>78468.40000000002</v>
+        <v>75113.3000000001</v>
       </c>
       <c r="AJ6" t="n">
         <v>532851.9</v>
@@ -3647,7 +3647,7 @@
         <v>18.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>122.7</v>
+        <v>84.8000000000001</v>
       </c>
       <c r="AP6" t="n">
         <v>718</v>
@@ -3656,7 +3656,7 @@
         <v>7.1</v>
       </c>
       <c r="AR6" t="n">
-        <v>1137.400000000001</v>
+        <v>1072.300000000001</v>
       </c>
       <c r="AS6" t="n">
         <v>7047.3</v>
@@ -3665,7 +3665,7 @@
         <v>6.7</v>
       </c>
       <c r="AU6" t="n">
-        <v>3980.800000000003</v>
+        <v>3643.800000000006</v>
       </c>
       <c r="AV6" t="n">
         <v>25636.5</v>
@@ -3674,7 +3674,7 @@
         <v>10.9</v>
       </c>
       <c r="AX6" t="n">
-        <v>311</v>
+        <v>282.5</v>
       </c>
       <c r="AY6" t="n">
         <v>2178.8</v>
@@ -3692,7 +3692,7 @@
         <v>3.7</v>
       </c>
       <c r="BD6" t="n">
-        <v>2002</v>
+        <v>1975</v>
       </c>
       <c r="BE6" t="n">
         <v>13553.8</v>
@@ -3701,7 +3701,7 @@
         <v>5.2</v>
       </c>
       <c r="BG6" t="n">
-        <v>205</v>
+        <v>186.5</v>
       </c>
       <c r="BH6" t="n">
         <v>1219.5</v>
@@ -3710,7 +3710,7 @@
         <v>10.2</v>
       </c>
       <c r="BJ6" t="n">
-        <v>6118.299999999996</v>
+        <v>5778.499999999993</v>
       </c>
       <c r="BK6" t="n">
         <v>42212.1</v>
@@ -3737,7 +3737,7 @@
         <v>4.3</v>
       </c>
       <c r="BS6" t="n">
-        <v>402</v>
+        <v>367.1999999999998</v>
       </c>
       <c r="BT6" t="n">
         <v>3482.2</v>
@@ -3746,7 +3746,7 @@
         <v>18.7</v>
       </c>
       <c r="BV6" t="n">
-        <v>474.9000000000015</v>
+        <v>5.000000000003695</v>
       </c>
       <c r="BW6" t="n">
         <v>34410.8</v>
@@ -3755,7 +3755,7 @@
         <v>12.5</v>
       </c>
       <c r="BY6" t="n">
-        <v>532.7999999999993</v>
+        <v>116.0999999999985</v>
       </c>
       <c r="BZ6" t="n">
         <v>29709.1</v>
@@ -3764,7 +3764,7 @@
         <v>11.9</v>
       </c>
       <c r="CB6" t="n">
-        <v>4950.000000000004</v>
+        <v>4166.300000000007</v>
       </c>
       <c r="CC6" t="n">
         <v>32592.7</v>
@@ -3773,7 +3773,7 @@
         <v>9.4</v>
       </c>
       <c r="CE6" t="n">
-        <v>975.3000000000002</v>
+        <v>944.0000000000002</v>
       </c>
       <c r="CF6" t="n">
         <v>6221.3</v>
@@ -3791,7 +3791,7 @@
         <v>19</v>
       </c>
       <c r="CK6" t="n">
-        <v>512.5</v>
+        <v>402.8000000000002</v>
       </c>
       <c r="CL6" t="n">
         <v>4045.2</v>
@@ -3818,7 +3818,7 @@
         <v>4.1</v>
       </c>
       <c r="CT6" t="n">
-        <v>7747.800000000003</v>
+        <v>6637.299999999999</v>
       </c>
       <c r="CU6" t="n">
         <v>48706</v>
@@ -3827,7 +3827,7 @@
         <v>8.5</v>
       </c>
       <c r="CW6" t="n">
-        <v>3028.900000000001</v>
+        <v>2924.000000000001</v>
       </c>
       <c r="CX6" t="n">
         <v>21006.5</v>
@@ -3836,7 +3836,7 @@
         <v>9.6</v>
       </c>
       <c r="CZ6" t="n">
-        <v>1038.8</v>
+        <v>1007.7</v>
       </c>
       <c r="DA6" t="n">
         <v>7333</v>
@@ -3845,7 +3845,7 @@
         <v>12.5</v>
       </c>
       <c r="DC6" t="n">
-        <v>1167.1</v>
+        <v>1067.6</v>
       </c>
       <c r="DD6" t="n">
         <v>8310.700000000001</v>
@@ -3872,7 +3872,7 @@
         <v>4.4</v>
       </c>
       <c r="DL6" t="n">
-        <v>2476.399999999998</v>
+        <v>2163.099999999997</v>
       </c>
       <c r="DM6" t="n">
         <v>18625.3</v>
@@ -3881,7 +3881,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="DO6" t="n">
-        <v>805.1999999999998</v>
+        <v>553.6999999999998</v>
       </c>
       <c r="DP6" t="n">
         <v>5952.4</v>
@@ -3908,7 +3908,7 @@
         <v>6.7</v>
       </c>
       <c r="DX6" t="n">
-        <v>1228.5</v>
+        <v>1142.200000000001</v>
       </c>
       <c r="DY6" t="n">
         <v>9812.9</v>
@@ -4185,7 +4185,7 @@
         <v>10</v>
       </c>
       <c r="AL7" t="n">
-        <v>264.3000000000002</v>
+        <v>218.1000000000002</v>
       </c>
       <c r="AM7" t="n">
         <v>2155.7</v>
@@ -4230,7 +4230,7 @@
         <v>5.6</v>
       </c>
       <c r="BA7" t="n">
-        <v>610.3999999999996</v>
+        <v>577.8999999999996</v>
       </c>
       <c r="BB7" t="n">
         <v>5904.8</v>
@@ -4266,7 +4266,7 @@
         <v>10.1</v>
       </c>
       <c r="BM7" t="n">
-        <v>790.8999999999996</v>
+        <v>740.5999999999985</v>
       </c>
       <c r="BN7" t="n">
         <v>6410.1</v>
@@ -4464,7 +4464,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="EA7" t="n">
-        <v>382.6999999999989</v>
+        <v>256.3999999999978</v>
       </c>
       <c r="EB7" t="n">
         <v>37832.2</v>
@@ -4633,7 +4633,7 @@
         <v>11.7</v>
       </c>
       <c r="E8" t="n">
-        <v>602</v>
+        <v>513.1000000000004</v>
       </c>
       <c r="F8" t="n">
         <v>5386.1</v>
@@ -4642,7 +4642,7 @@
         <v>10.1</v>
       </c>
       <c r="H8" t="n">
-        <v>66.69999999999982</v>
+        <v>34.69999999999982</v>
       </c>
       <c r="I8" t="n">
         <v>1183.6</v>
@@ -4651,7 +4651,7 @@
         <v>8.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.000000000000004</v>
+        <v>2.600000000000005</v>
       </c>
       <c r="L8" t="n">
         <v>20.6</v>
@@ -4660,7 +4660,7 @@
         <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>3623.900000000001</v>
+        <v>3383.600000000002</v>
       </c>
       <c r="O8" t="n">
         <v>32864.5</v>
@@ -4687,7 +4687,7 @@
         <v>11.5</v>
       </c>
       <c r="W8" t="n">
-        <v>621.1000000000004</v>
+        <v>478.6000000000004</v>
       </c>
       <c r="X8" t="n">
         <v>5593.1</v>
@@ -4696,7 +4696,7 @@
         <v>17.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>182.199999999998</v>
+        <v>128.9999999999959</v>
       </c>
       <c r="AA8" t="n">
         <v>16353.3</v>
@@ -4741,7 +4741,7 @@
         <v>20.3</v>
       </c>
       <c r="AO8" t="n">
-        <v>16.39999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="AP8" t="n">
         <v>986.2</v>
@@ -4750,7 +4750,7 @@
         <v>7.2</v>
       </c>
       <c r="AR8" t="n">
-        <v>1102.199999999999</v>
+        <v>1057</v>
       </c>
       <c r="AS8" t="n">
         <v>9459.799999999999</v>
@@ -4759,7 +4759,7 @@
         <v>6</v>
       </c>
       <c r="AU8" t="n">
-        <v>3957.199999999997</v>
+        <v>3719</v>
       </c>
       <c r="AV8" t="n">
         <v>34322.2</v>
@@ -4795,7 +4795,7 @@
         <v>5.3</v>
       </c>
       <c r="BG8" t="n">
-        <v>7.599999999999909</v>
+        <v>4.199999999999818</v>
       </c>
       <c r="BH8" t="n">
         <v>1661.3</v>
@@ -4804,7 +4804,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="BJ8" t="n">
-        <v>1108.799999999997</v>
+        <v>1105.79999999999</v>
       </c>
       <c r="BK8" t="n">
         <v>54834.3</v>
@@ -4822,7 +4822,7 @@
         <v>11.3</v>
       </c>
       <c r="BP8" t="n">
-        <v>138.6999999999998</v>
+        <v>66.3999999999987</v>
       </c>
       <c r="BQ8" t="n">
         <v>17055.8</v>
@@ -4831,7 +4831,7 @@
         <v>4.7</v>
       </c>
       <c r="BS8" t="n">
-        <v>455.7000000000003</v>
+        <v>349.4000000000005</v>
       </c>
       <c r="BT8" t="n">
         <v>4585.9</v>
@@ -4840,7 +4840,7 @@
         <v>19.3</v>
       </c>
       <c r="BV8" t="n">
-        <v>5591.699999999997</v>
+        <v>5392.099999999996</v>
       </c>
       <c r="BW8" t="n">
         <v>47342</v>
@@ -4849,7 +4849,7 @@
         <v>11.8</v>
       </c>
       <c r="BY8" t="n">
-        <v>4920</v>
+        <v>4830.100000000002</v>
       </c>
       <c r="BZ8" t="n">
         <v>41094.8</v>
@@ -4948,7 +4948,7 @@
         <v>9.1</v>
       </c>
       <c r="DF8" t="n">
-        <v>3503.900000000001</v>
+        <v>3446.699999999997</v>
       </c>
       <c r="DG8" t="n">
         <v>30861.5</v>
@@ -4975,7 +4975,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="DO8" t="n">
-        <v>143.6999999999989</v>
+        <v>94.99999999999818</v>
       </c>
       <c r="DP8" t="n">
         <v>7597.2</v>
@@ -5002,7 +5002,7 @@
         <v>6.7</v>
       </c>
       <c r="DX8" t="n">
-        <v>1327.800000000001</v>
+        <v>1187.200000000001</v>
       </c>
       <c r="DY8" t="n">
         <v>12615</v>
@@ -5011,7 +5011,7 @@
         <v>7.8</v>
       </c>
       <c r="EA8" t="n">
-        <v>5026.699999999997</v>
+        <v>4643.999999999998</v>
       </c>
       <c r="EB8" t="n">
         <v>43944.7</v>
@@ -5225,7 +5225,7 @@
         <v>9.5</v>
       </c>
       <c r="T9" t="n">
-        <v>362.6000000000049</v>
+        <v>292.400000000006</v>
       </c>
       <c r="U9" t="n">
         <v>56479.8</v>
@@ -5243,7 +5243,7 @@
         <v>15.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>1755.5</v>
+        <v>1573.300000000002</v>
       </c>
       <c r="AA9" t="n">
         <v>18393.8</v>
@@ -5252,7 +5252,7 @@
         <v>13.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>484.8000000000002</v>
+        <v>424.4000000000001</v>
       </c>
       <c r="AD9" t="n">
         <v>5103.7</v>
@@ -5279,7 +5279,7 @@
         <v>9.6</v>
       </c>
       <c r="AL9" t="n">
-        <v>292.8000000000002</v>
+        <v>184.2000000000008</v>
       </c>
       <c r="AM9" t="n">
         <v>2948.6</v>
@@ -5288,7 +5288,7 @@
         <v>20.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>66.90000000000009</v>
+        <v>50.5000000000001</v>
       </c>
       <c r="AP9" t="n">
         <v>1151.9</v>
@@ -5315,7 +5315,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AX9" t="n">
-        <v>60.20000000000029</v>
+        <v>14.60000000000038</v>
       </c>
       <c r="AY9" t="n">
         <v>2771</v>
@@ -5324,7 +5324,7 @@
         <v>3.1</v>
       </c>
       <c r="BA9" t="n">
-        <v>777.9000000000005</v>
+        <v>571.8000000000002</v>
       </c>
       <c r="BB9" t="n">
         <v>7469.1</v>
@@ -5342,7 +5342,7 @@
         <v>4.8</v>
       </c>
       <c r="BG9" t="n">
-        <v>201.3999999999999</v>
+        <v>193.8</v>
       </c>
       <c r="BH9" t="n">
         <v>1895.8</v>
@@ -5351,7 +5351,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="BJ9" t="n">
-        <v>7131.800000000003</v>
+        <v>6023.000000000005</v>
       </c>
       <c r="BK9" t="n">
         <v>61818.5</v>
@@ -5360,7 +5360,7 @@
         <v>7.5</v>
       </c>
       <c r="BM9" t="n">
-        <v>734.2000000000007</v>
+        <v>590.6000000000004</v>
       </c>
       <c r="BN9" t="n">
         <v>8238</v>
@@ -5369,7 +5369,7 @@
         <v>10.3</v>
       </c>
       <c r="BP9" t="n">
-        <v>2113.199999999997</v>
+        <v>1974.499999999997</v>
       </c>
       <c r="BQ9" t="n">
         <v>19371.7</v>
@@ -5423,7 +5423,7 @@
         <v>4.3</v>
       </c>
       <c r="CH9" t="n">
-        <v>3457.200000000001</v>
+        <v>2836.700000000001</v>
       </c>
       <c r="CI9" t="n">
         <v>35588.8</v>
@@ -5432,7 +5432,7 @@
         <v>21.7</v>
       </c>
       <c r="CK9" t="n">
-        <v>42.10000000000036</v>
+        <v>20.40000000000054</v>
       </c>
       <c r="CL9" t="n">
         <v>6241.5</v>
@@ -5441,7 +5441,7 @@
         <v>23.7</v>
       </c>
       <c r="CN9" t="n">
-        <v>164.5</v>
+        <v>40</v>
       </c>
       <c r="CO9" t="n">
         <v>22792.5</v>
@@ -5459,7 +5459,7 @@
         <v>3.7</v>
       </c>
       <c r="CT9" t="n">
-        <v>7426.100000000006</v>
+        <v>6862.300000000003</v>
       </c>
       <c r="CU9" t="n">
         <v>77151.5</v>
@@ -5468,7 +5468,7 @@
         <v>9.6</v>
       </c>
       <c r="CW9" t="n">
-        <v>201.2000000000039</v>
+        <v>190.0000000000068</v>
       </c>
       <c r="CX9" t="n">
         <v>30054.2</v>
@@ -5477,7 +5477,7 @@
         <v>8.5</v>
       </c>
       <c r="CZ9" t="n">
-        <v>1070.800000000001</v>
+        <v>1024.400000000001</v>
       </c>
       <c r="DA9" t="n">
         <v>10779.8</v>
@@ -5486,7 +5486,7 @@
         <v>10.3</v>
       </c>
       <c r="DC9" t="n">
-        <v>1063.5</v>
+        <v>816.899999999999</v>
       </c>
       <c r="DD9" t="n">
         <v>11982.3</v>
@@ -5504,7 +5504,7 @@
         <v>7.3</v>
       </c>
       <c r="DI9" t="n">
-        <v>89.20000000000005</v>
+        <v>69.10000000000002</v>
       </c>
       <c r="DJ9" t="n">
         <v>770.6</v>
@@ -5522,7 +5522,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="DO9" t="n">
-        <v>825.6000000000004</v>
+        <v>681.9000000000015</v>
       </c>
       <c r="DP9" t="n">
         <v>8575</v>
@@ -5736,7 +5736,7 @@
         <v>9</v>
       </c>
       <c r="H10" t="n">
-        <v>132.2</v>
+        <v>85.39999999999981</v>
       </c>
       <c r="I10" t="n">
         <v>1438.1</v>
@@ -5763,7 +5763,7 @@
         <v>4.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>2535.900000000023</v>
+        <v>2369.700000000069</v>
       </c>
       <c r="R10" t="n">
         <v>780449.2</v>
@@ -5772,7 +5772,7 @@
         <v>9.5</v>
       </c>
       <c r="T10" t="n">
-        <v>5104.599999999999</v>
+        <v>4741.999999999995</v>
       </c>
       <c r="U10" t="n">
         <v>62896.5</v>
@@ -5781,7 +5781,7 @@
         <v>10.8</v>
       </c>
       <c r="W10" t="n">
-        <v>656</v>
+        <v>614.9000000000005</v>
       </c>
       <c r="X10" t="n">
         <v>6945.1</v>
@@ -5817,7 +5817,7 @@
         <v>5.6</v>
       </c>
       <c r="AI10" t="n">
-        <v>3047.90000000014</v>
+        <v>2972.200000000187</v>
       </c>
       <c r="AJ10" t="n">
         <v>877963.3</v>
@@ -5835,7 +5835,7 @@
         <v>21.3</v>
       </c>
       <c r="AO10" t="n">
-        <v>86.2999999999997</v>
+        <v>19.39999999999961</v>
       </c>
       <c r="AP10" t="n">
         <v>1308.9</v>
@@ -5853,7 +5853,7 @@
         <v>4.7</v>
       </c>
       <c r="AU10" t="n">
-        <v>4160.600000000006</v>
+        <v>3878.700000000003</v>
       </c>
       <c r="AV10" t="n">
         <v>42748.6</v>
@@ -5862,7 +5862,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AX10" t="n">
-        <v>221.6999999999998</v>
+        <v>161.4999999999995</v>
       </c>
       <c r="AY10" t="n">
         <v>2894.8</v>
@@ -5880,7 +5880,7 @@
         <v>5.1</v>
       </c>
       <c r="BD10" t="n">
-        <v>1975</v>
+        <v>1601.900000000001</v>
       </c>
       <c r="BE10" t="n">
         <v>21459.1</v>
@@ -5925,7 +5925,7 @@
         <v>4.9</v>
       </c>
       <c r="BS10" t="n">
-        <v>133.9000000000006</v>
+        <v>129.7000000000013</v>
       </c>
       <c r="BT10" t="n">
         <v>5729.5</v>
@@ -5952,7 +5952,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="CB10" t="n">
-        <v>239.8000000000029</v>
+        <v>216.0000000000064</v>
       </c>
       <c r="CC10" t="n">
         <v>53353.2</v>
@@ -5961,7 +5961,7 @@
         <v>7.1</v>
       </c>
       <c r="CE10" t="n">
-        <v>90.90000000000146</v>
+        <v>78.00000000000182</v>
       </c>
       <c r="CF10" t="n">
         <v>9928.4</v>
@@ -5979,7 +5979,7 @@
         <v>23</v>
       </c>
       <c r="CK10" t="n">
-        <v>54.09999999999945</v>
+        <v>11.99999999999909</v>
       </c>
       <c r="CL10" t="n">
         <v>7054.9</v>
@@ -5988,7 +5988,7 @@
         <v>24.8</v>
       </c>
       <c r="CN10" t="n">
-        <v>2072.100000000002</v>
+        <v>1907.600000000002</v>
       </c>
       <c r="CO10" t="n">
         <v>25271.1</v>
@@ -6015,7 +6015,7 @@
         <v>10.6</v>
       </c>
       <c r="CW10" t="n">
-        <v>2730.099999999999</v>
+        <v>2528.899999999995</v>
       </c>
       <c r="CX10" t="n">
         <v>33168.5</v>
@@ -6078,7 +6078,7 @@
         <v>1.6</v>
       </c>
       <c r="DR10" t="n">
-        <v>559.199999999998</v>
+        <v>67.59999999999582</v>
       </c>
       <c r="DS10" t="n">
         <v>41396.1</v>
@@ -6096,7 +6096,7 @@
         <v>5.8</v>
       </c>
       <c r="DX10" t="n">
-        <v>1302.799999999999</v>
+        <v>1233.2</v>
       </c>
       <c r="DY10" t="n">
         <v>15523.6</v>
@@ -6105,7 +6105,7 @@
         <v>7.6</v>
       </c>
       <c r="EA10" t="n">
-        <v>4900.300000000003</v>
+        <v>4739.599999999999</v>
       </c>
       <c r="EB10" t="n">
         <v>55752.3</v>
@@ -6114,7 +6114,7 @@
         <v>15.8</v>
       </c>
       <c r="ED10" t="n">
-        <v>276.3000000000002</v>
+        <v>263.9000000000001</v>
       </c>
       <c r="EE10" t="n">
         <v>2784.9</v>
@@ -6274,7 +6274,7 @@
         <v>11</v>
       </c>
       <c r="E11" t="n">
-        <v>143.1999999999998</v>
+        <v>80.09999999999943</v>
       </c>
       <c r="F11" t="n">
         <v>7303.4</v>
@@ -6292,7 +6292,7 @@
         <v>6.7</v>
       </c>
       <c r="K11" t="n">
-        <v>2.599999999999998</v>
+        <v>2.299999999999997</v>
       </c>
       <c r="L11" t="n">
         <v>27.7</v>
@@ -6301,7 +6301,7 @@
         <v>-3.1</v>
       </c>
       <c r="N11" t="n">
-        <v>3116.800000000003</v>
+        <v>3101.500000000007</v>
       </c>
       <c r="O11" t="n">
         <v>44580.6</v>
@@ -6310,7 +6310,7 @@
         <v>3.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>70156.30000000005</v>
+        <v>67620.40000000002</v>
       </c>
       <c r="R11" t="n">
         <v>860002.5</v>
@@ -6337,7 +6337,7 @@
         <v>13.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>1682.700000000001</v>
+        <v>1500.400000000002</v>
       </c>
       <c r="AA11" t="n">
         <v>22457</v>
@@ -6346,7 +6346,7 @@
         <v>12.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="AD11" t="n">
         <v>6114.6</v>
@@ -6355,7 +6355,7 @@
         <v>5.2</v>
       </c>
       <c r="AF11" t="n">
-        <v>476</v>
+        <v>419.3000000000002</v>
       </c>
       <c r="AG11" t="n">
         <v>6668.5</v>
@@ -6364,7 +6364,7 @@
         <v>5.8</v>
       </c>
       <c r="AI11" t="n">
-        <v>79923.69999999995</v>
+        <v>76875.79999999981</v>
       </c>
       <c r="AJ11" t="n">
         <v>967800.3</v>
@@ -6382,7 +6382,7 @@
         <v>22.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>115.4000000000003</v>
+        <v>29.10000000000061</v>
       </c>
       <c r="AP11" t="n">
         <v>1489.2</v>
@@ -6418,7 +6418,7 @@
         <v>3.1</v>
       </c>
       <c r="BA11" t="n">
-        <v>310.6000000000004</v>
+        <v>285.7000000000008</v>
       </c>
       <c r="BB11" t="n">
         <v>9103.1</v>
@@ -6436,7 +6436,7 @@
         <v>3.9</v>
       </c>
       <c r="BG11" t="n">
-        <v>62.90000000000009</v>
+        <v>56.70000000000007</v>
       </c>
       <c r="BH11" t="n">
         <v>2370.6</v>
@@ -6472,7 +6472,7 @@
         <v>5.7</v>
       </c>
       <c r="BS11" t="n">
-        <v>258.6999999999998</v>
+        <v>124.7999999999992</v>
       </c>
       <c r="BT11" t="n">
         <v>6438.3</v>
@@ -6481,7 +6481,7 @@
         <v>20.3</v>
       </c>
       <c r="BV11" t="n">
-        <v>728.4999999999927</v>
+        <v>372.1999999999971</v>
       </c>
       <c r="BW11" t="n">
         <v>65118.8</v>
@@ -6490,7 +6490,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="BY11" t="n">
-        <v>407.0999999999995</v>
+        <v>191</v>
       </c>
       <c r="BZ11" t="n">
         <v>56309.9</v>
@@ -6499,7 +6499,7 @@
         <v>8.5</v>
       </c>
       <c r="CB11" t="n">
-        <v>5319.700000000004</v>
+        <v>5079.900000000001</v>
       </c>
       <c r="CC11" t="n">
         <v>59188.5</v>
@@ -6517,7 +6517,7 @@
         <v>4.5</v>
       </c>
       <c r="CH11" t="n">
-        <v>3230.900000000001</v>
+        <v>3039</v>
       </c>
       <c r="CI11" t="n">
         <v>44496.5</v>
@@ -6526,7 +6526,7 @@
         <v>22.5</v>
       </c>
       <c r="CK11" t="n">
-        <v>79.80000000000109</v>
+        <v>25.70000000000164</v>
       </c>
       <c r="CL11" t="n">
         <v>7856.4</v>
@@ -6544,7 +6544,7 @@
         <v>1.9</v>
       </c>
       <c r="CQ11" t="n">
-        <v>1322.300000000001</v>
+        <v>1229.799999999999</v>
       </c>
       <c r="CR11" t="n">
         <v>15976.1</v>
@@ -6589,7 +6589,7 @@
         <v>7.9</v>
       </c>
       <c r="DF11" t="n">
-        <v>3143.400000000001</v>
+        <v>2987.499999999993</v>
       </c>
       <c r="DG11" t="n">
         <v>42679</v>
@@ -6598,7 +6598,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="DI11" t="n">
-        <v>28.3</v>
+        <v>17.30000000000004</v>
       </c>
       <c r="DJ11" t="n">
         <v>978.1</v>
@@ -6607,7 +6607,7 @@
         <v>7.2</v>
       </c>
       <c r="DL11" t="n">
-        <v>1924.799999999999</v>
+        <v>1896.699999999997</v>
       </c>
       <c r="DM11" t="n">
         <v>32173.6</v>
@@ -6616,7 +6616,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="DO11" t="n">
-        <v>436.1000000000004</v>
+        <v>414.3000000000011</v>
       </c>
       <c r="DP11" t="n">
         <v>10363.2</v>
@@ -6625,7 +6625,7 @@
         <v>2.3</v>
       </c>
       <c r="DR11" t="n">
-        <v>2653.699999999997</v>
+        <v>2094.499999999999</v>
       </c>
       <c r="DS11" t="n">
         <v>45845.2</v>
@@ -6634,7 +6634,7 @@
         <v>15.2</v>
       </c>
       <c r="DU11" t="n">
-        <v>233.3999999999996</v>
+        <v>226.9999999999995</v>
       </c>
       <c r="DV11" t="n">
         <v>3174.4</v>
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1483.200000000001</v>
+        <v>1458.600000000003</v>
       </c>
       <c r="C12" t="n">
         <v>29920</v>
@@ -6848,7 +6848,7 @@
         <v>-1</v>
       </c>
       <c r="N12" t="n">
-        <v>3570.399999999997</v>
+        <v>453.599999999994</v>
       </c>
       <c r="O12" t="n">
         <v>47758.3</v>
@@ -6866,7 +6866,7 @@
         <v>8.6</v>
       </c>
       <c r="T12" t="n">
-        <v>5572.799999999994</v>
+        <v>1452.199999999988</v>
       </c>
       <c r="U12" t="n">
         <v>72065.89999999999</v>
@@ -6875,7 +6875,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="W12" t="n">
-        <v>338.1999999999994</v>
+        <v>264.7999999999989</v>
       </c>
       <c r="X12" t="n">
         <v>8394</v>
@@ -6884,7 +6884,7 @@
         <v>12.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>1836.599999999999</v>
+        <v>153.899999999998</v>
       </c>
       <c r="AA12" t="n">
         <v>24264.7</v>
@@ -6893,7 +6893,7 @@
         <v>12.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>522.6</v>
+        <v>185.6</v>
       </c>
       <c r="AD12" t="n">
         <v>6471.1</v>
@@ -6920,7 +6920,7 @@
         <v>8.6</v>
       </c>
       <c r="AL12" t="n">
-        <v>148.9000000000001</v>
+        <v>81.20000000000027</v>
       </c>
       <c r="AM12" t="n">
         <v>4086</v>
@@ -6929,7 +6929,7 @@
         <v>22.1</v>
       </c>
       <c r="AO12" t="n">
-        <v>253.2</v>
+        <v>137.7999999999997</v>
       </c>
       <c r="AP12" t="n">
         <v>1790.9</v>
@@ -6938,7 +6938,7 @@
         <v>15.4</v>
       </c>
       <c r="AR12" t="n">
-        <v>1176.800000000001</v>
+        <v>522.0000000000018</v>
       </c>
       <c r="AS12" t="n">
         <v>13408.8</v>
@@ -6947,7 +6947,7 @@
         <v>5</v>
       </c>
       <c r="AU12" t="n">
-        <v>2389.1</v>
+        <v>2214.100000000006</v>
       </c>
       <c r="AV12" t="n">
         <v>52215.3</v>
@@ -6956,7 +6956,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AX12" t="n">
-        <v>451.6</v>
+        <v>278.9000000000002</v>
       </c>
       <c r="AY12" t="n">
         <v>3729.1</v>
@@ -6965,7 +6965,7 @@
         <v>3</v>
       </c>
       <c r="BA12" t="n">
-        <v>859.7999999999997</v>
+        <v>549.1999999999994</v>
       </c>
       <c r="BB12" t="n">
         <v>9210.299999999999</v>
@@ -6974,7 +6974,7 @@
         <v>2.1</v>
       </c>
       <c r="BD12" t="n">
-        <v>1984.8</v>
+        <v>549.3</v>
       </c>
       <c r="BE12" t="n">
         <v>24845.2</v>
@@ -6983,7 +6983,7 @@
         <v>3.6</v>
       </c>
       <c r="BG12" t="n">
-        <v>105.2</v>
+        <v>42.29999999999991</v>
       </c>
       <c r="BH12" t="n">
         <v>2657.9</v>
@@ -6992,7 +6992,7 @@
         <v>10</v>
       </c>
       <c r="BJ12" t="n">
-        <v>4179.799999999988</v>
+        <v>3739.199999999968</v>
       </c>
       <c r="BK12" t="n">
         <v>83372.60000000001</v>
@@ -7001,7 +7001,7 @@
         <v>3.4</v>
       </c>
       <c r="BM12" t="n">
-        <v>1500.400000000001</v>
+        <v>1470.600000000002</v>
       </c>
       <c r="BN12" t="n">
         <v>10465.4</v>
@@ -7010,7 +7010,7 @@
         <v>6.1</v>
       </c>
       <c r="BP12" t="n">
-        <v>2214.5</v>
+        <v>1142.5</v>
       </c>
       <c r="BQ12" t="n">
         <v>24645.8</v>
@@ -7019,7 +7019,7 @@
         <v>4.3</v>
       </c>
       <c r="BS12" t="n">
-        <v>493.2</v>
+        <v>234.5000000000002</v>
       </c>
       <c r="BT12" t="n">
         <v>7484.8</v>
@@ -7028,7 +7028,7 @@
         <v>20.6</v>
       </c>
       <c r="BV12" t="n">
-        <v>5141.000000000007</v>
+        <v>4412.500000000015</v>
       </c>
       <c r="BW12" t="n">
         <v>72605.39999999999</v>
@@ -7037,7 +7037,7 @@
         <v>10</v>
       </c>
       <c r="BY12" t="n">
-        <v>4542.500000000001</v>
+        <v>4135.400000000001</v>
       </c>
       <c r="BZ12" t="n">
         <v>62462.6</v>
@@ -7055,7 +7055,7 @@
         <v>6.7</v>
       </c>
       <c r="CE12" t="n">
-        <v>527.200000000001</v>
+        <v>471.200000000003</v>
       </c>
       <c r="CF12" t="n">
         <v>12130.5</v>
@@ -7064,7 +7064,7 @@
         <v>4.8</v>
       </c>
       <c r="CH12" t="n">
-        <v>3899.199999999999</v>
+        <v>668.2999999999979</v>
       </c>
       <c r="CI12" t="n">
         <v>47910.8</v>
@@ -7073,7 +7073,7 @@
         <v>21.1</v>
       </c>
       <c r="CK12" t="n">
-        <v>469.5999999999992</v>
+        <v>389.7999999999981</v>
       </c>
       <c r="CL12" t="n">
         <v>8710.9</v>
@@ -7082,7 +7082,7 @@
         <v>23.4</v>
       </c>
       <c r="CN12" t="n">
-        <v>2752.3</v>
+        <v>1680.3</v>
       </c>
       <c r="CO12" t="n">
         <v>27863.1</v>
@@ -7100,7 +7100,7 @@
         <v>4.2</v>
       </c>
       <c r="CT12" t="n">
-        <v>2620.700000000001</v>
+        <v>1377.299999999996</v>
       </c>
       <c r="CU12" t="n">
         <v>107685.4</v>
@@ -7109,7 +7109,7 @@
         <v>9.1</v>
       </c>
       <c r="CW12" t="n">
-        <v>2776.300000000001</v>
+        <v>596.7000000000021</v>
       </c>
       <c r="CX12" t="n">
         <v>38308.9</v>
@@ -7127,7 +7127,7 @@
         <v>8.5</v>
       </c>
       <c r="DC12" t="n">
-        <v>1122.6</v>
+        <v>887</v>
       </c>
       <c r="DD12" t="n">
         <v>15534.9</v>
@@ -7154,7 +7154,7 @@
         <v>6</v>
       </c>
       <c r="DL12" t="n">
-        <v>2564.1</v>
+        <v>639.3000000000009</v>
       </c>
       <c r="DM12" t="n">
         <v>34375.1</v>
@@ -7172,7 +7172,7 @@
         <v>3.8</v>
       </c>
       <c r="DR12" t="n">
-        <v>3428.400000000003</v>
+        <v>774.7000000000057</v>
       </c>
       <c r="DS12" t="n">
         <v>48973.6</v>
@@ -7190,7 +7190,7 @@
         <v>5.9</v>
       </c>
       <c r="DX12" t="n">
-        <v>1014.5</v>
+        <v>636.1999999999991</v>
       </c>
       <c r="DY12" t="n">
         <v>18679.8</v>
@@ -7199,7 +7199,7 @@
         <v>7.3</v>
       </c>
       <c r="EA12" t="n">
-        <v>3715.500000000001</v>
+        <v>3256.700000000004</v>
       </c>
       <c r="EB12" t="n">
         <v>67255.60000000001</v>
@@ -7208,7 +7208,7 @@
         <v>15.2</v>
       </c>
       <c r="ED12" t="n">
-        <v>115.0000000000004</v>
+        <v>67.400000000001</v>
       </c>
       <c r="EE12" t="n">
         <v>3374.4</v>
@@ -7359,7 +7359,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2566.5</v>
+        <v>1083.299999999999</v>
       </c>
       <c r="C13" t="n">
         <v>3960.3</v>
@@ -7368,7 +7368,7 @@
         <v>8.6</v>
       </c>
       <c r="E13" t="n">
-        <v>613.8</v>
+        <v>542.9000000000001</v>
       </c>
       <c r="F13" t="n">
         <v>890.5</v>
@@ -7377,7 +7377,7 @@
         <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>133</v>
+        <v>45.69999999999999</v>
       </c>
       <c r="I13" t="n">
         <v>220.7</v>
@@ -7386,7 +7386,7 @@
         <v>1.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>1.799999999999998</v>
       </c>
       <c r="L13" t="n">
         <v>2.6</v>
@@ -7395,7 +7395,7 @@
         <v>-13.3</v>
       </c>
       <c r="N13" t="n">
-        <v>3818.8</v>
+        <v>248.4000000000033</v>
       </c>
       <c r="O13" t="n">
         <v>6980.4</v>
@@ -7404,7 +7404,7 @@
         <v>4.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>75476.20000000001</v>
+        <v>20330.50000000006</v>
       </c>
       <c r="R13" t="n">
         <v>129086.2</v>
@@ -7413,7 +7413,7 @@
         <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>5986.5</v>
+        <v>413.7000000000062</v>
       </c>
       <c r="U13" t="n">
         <v>9742.1</v>
@@ -7422,7 +7422,7 @@
         <v>0.5</v>
       </c>
       <c r="W13" t="n">
-        <v>703.1000000000001</v>
+        <v>364.9000000000007</v>
       </c>
       <c r="X13" t="n">
         <v>1177.2</v>
@@ -7431,7 +7431,7 @@
         <v>10.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>1948</v>
+        <v>111.400000000001</v>
       </c>
       <c r="AA13" t="n">
         <v>3732.6</v>
@@ -7449,7 +7449,7 @@
         <v>4.8</v>
       </c>
       <c r="AF13" t="n">
-        <v>554.1</v>
+        <v>87.5</v>
       </c>
       <c r="AG13" t="n">
         <v>969.1</v>
@@ -7458,7 +7458,7 @@
         <v>2.8</v>
       </c>
       <c r="AI13" t="n">
-        <v>84644.5</v>
+        <v>21425.79999999996</v>
       </c>
       <c r="AJ13" t="n">
         <v>147858.1</v>
@@ -7467,7 +7467,7 @@
         <v>3.3</v>
       </c>
       <c r="AL13" t="n">
-        <v>294</v>
+        <v>145.0999999999999</v>
       </c>
       <c r="AM13" t="n">
         <v>517.8</v>
@@ -7494,7 +7494,7 @@
         <v>4.4</v>
       </c>
       <c r="AU13" t="n">
-        <v>4477.7</v>
+        <v>2088.6</v>
       </c>
       <c r="AV13" t="n">
         <v>7051</v>
@@ -7521,7 +7521,7 @@
         <v>3</v>
       </c>
       <c r="BD13" t="n">
-        <v>2057.2</v>
+        <v>72.39999999999986</v>
       </c>
       <c r="BE13" t="n">
         <v>3444.2</v>
@@ -7530,7 +7530,7 @@
         <v>0.7</v>
       </c>
       <c r="BG13" t="n">
-        <v>201.4</v>
+        <v>96.2</v>
       </c>
       <c r="BH13" t="n">
         <v>404.4</v>
@@ -7539,7 +7539,7 @@
         <v>7.6</v>
       </c>
       <c r="BJ13" t="n">
-        <v>7492.700000000001</v>
+        <v>3312.900000000012</v>
       </c>
       <c r="BK13" t="n">
         <v>11274.7</v>
@@ -7566,7 +7566,7 @@
         <v>2.6</v>
       </c>
       <c r="BS13" t="n">
-        <v>676.7</v>
+        <v>183.5000000000001</v>
       </c>
       <c r="BT13" t="n">
         <v>1595.1</v>
@@ -7575,7 +7575,7 @@
         <v>18.5</v>
       </c>
       <c r="BV13" t="n">
-        <v>5597.700000000001</v>
+        <v>456.6999999999935</v>
       </c>
       <c r="BW13" t="n">
         <v>12463.5</v>
@@ -7584,7 +7584,7 @@
         <v>5.9</v>
       </c>
       <c r="BY13" t="n">
-        <v>4719.5</v>
+        <v>176.9999999999991</v>
       </c>
       <c r="BZ13" t="n">
         <v>10464.1</v>
@@ -7593,7 +7593,7 @@
         <v>4.2</v>
       </c>
       <c r="CB13" t="n">
-        <v>5251.400000000001</v>
+        <v>2611.300000000005</v>
       </c>
       <c r="CC13" t="n">
         <v>8253.9</v>
@@ -7602,7 +7602,7 @@
         <v>3.7</v>
       </c>
       <c r="CE13" t="n">
-        <v>1025.6</v>
+        <v>498.399999999999</v>
       </c>
       <c r="CF13" t="n">
         <v>1652.6</v>
@@ -7620,7 +7620,7 @@
         <v>0.1</v>
       </c>
       <c r="CK13" t="n">
-        <v>620</v>
+        <v>150.4000000000008</v>
       </c>
       <c r="CL13" t="n">
         <v>1213</v>
@@ -7638,7 +7638,7 @@
         <v>-3.4</v>
       </c>
       <c r="CQ13" t="n">
-        <v>1279.6</v>
+        <v>359.5000000000009</v>
       </c>
       <c r="CR13" t="n">
         <v>2355.1</v>
@@ -7647,7 +7647,7 @@
         <v>5</v>
       </c>
       <c r="CT13" t="n">
-        <v>8431.700000000001</v>
+        <v>5811</v>
       </c>
       <c r="CU13" t="n">
         <v>14126</v>
@@ -7656,7 +7656,7 @@
         <v>3.3</v>
       </c>
       <c r="CW13" t="n">
-        <v>3214.5</v>
+        <v>438.1999999999989</v>
       </c>
       <c r="CX13" t="n">
         <v>5168.1</v>
@@ -7665,7 +7665,7 @@
         <v>4.3</v>
       </c>
       <c r="CZ13" t="n">
-        <v>1189.8</v>
+        <v>268.1</v>
       </c>
       <c r="DA13" t="n">
         <v>1953.1</v>
@@ -7674,7 +7674,7 @@
         <v>1.5</v>
       </c>
       <c r="DC13" t="n">
-        <v>1307.8</v>
+        <v>185.2</v>
       </c>
       <c r="DD13" t="n">
         <v>2505</v>
@@ -7683,7 +7683,7 @@
         <v>7.7</v>
       </c>
       <c r="DF13" t="n">
-        <v>3570.6</v>
+        <v>638.6000000000008</v>
       </c>
       <c r="DG13" t="n">
         <v>6308.4</v>
@@ -7692,7 +7692,7 @@
         <v>3.8</v>
       </c>
       <c r="DI13" t="n">
-        <v>91.80000000000001</v>
+        <v>85.70000000000002</v>
       </c>
       <c r="DJ13" t="n">
         <v>147.2</v>
@@ -7701,7 +7701,7 @@
         <v>9.4</v>
       </c>
       <c r="DL13" t="n">
-        <v>2692.900000000001</v>
+        <v>128.8000000000011</v>
       </c>
       <c r="DM13" t="n">
         <v>4750.1</v>
@@ -7710,7 +7710,7 @@
         <v>5.8</v>
       </c>
       <c r="DO13" t="n">
-        <v>876.7</v>
+        <v>827.9000000000001</v>
       </c>
       <c r="DP13" t="n">
         <v>1442.5</v>
@@ -7719,7 +7719,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="DR13" t="n">
-        <v>3603.5</v>
+        <v>175.0999999999972</v>
       </c>
       <c r="DS13" t="n">
         <v>6753.6</v>
@@ -7728,7 +7728,7 @@
         <v>11</v>
       </c>
       <c r="DU13" t="n">
-        <v>260.4</v>
+        <v>63.99999999999957</v>
       </c>
       <c r="DV13" t="n">
         <v>460.8</v>
@@ -7737,7 +7737,7 @@
         <v>7.2</v>
       </c>
       <c r="DX13" t="n">
-        <v>1496.7</v>
+        <v>482.2</v>
       </c>
       <c r="DY13" t="n">
         <v>2882.4</v>
@@ -7746,7 +7746,7 @@
         <v>6.9</v>
       </c>
       <c r="EA13" t="n">
-        <v>5404</v>
+        <v>1688.499999999999</v>
       </c>
       <c r="EB13" t="n">
         <v>9633.9</v>
@@ -7755,7 +7755,7 @@
         <v>6.2</v>
       </c>
       <c r="ED13" t="n">
-        <v>259.9</v>
+        <v>144.8999999999996</v>
       </c>
       <c r="EE13" t="n">
         <v>484.9</v>
@@ -8471,7 +8471,7 @@
         <v>6.9</v>
       </c>
       <c r="H15" t="n">
-        <v>136.4999999999999</v>
+        <v>127.6999999999999</v>
       </c>
       <c r="I15" t="n">
         <v>511.7</v>
@@ -8480,7 +8480,7 @@
         <v>3.9</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.1000000000000006</v>
       </c>
       <c r="L15" t="n">
         <v>8.1</v>
@@ -8507,7 +8507,7 @@
         <v>4.9</v>
       </c>
       <c r="T15" t="n">
-        <v>5731.100000000002</v>
+        <v>5644.900000000003</v>
       </c>
       <c r="U15" t="n">
         <v>22003.6</v>
@@ -8516,7 +8516,7 @@
         <v>1.2</v>
       </c>
       <c r="W15" t="n">
-        <v>717.1000000000004</v>
+        <v>680.2000000000007</v>
       </c>
       <c r="X15" t="n">
         <v>2774.8</v>
@@ -8534,7 +8534,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>497.7000000000003</v>
+        <v>457.2000000000002</v>
       </c>
       <c r="AD15" t="n">
         <v>1965.1</v>
@@ -8543,7 +8543,7 @@
         <v>2.6</v>
       </c>
       <c r="AF15" t="n">
-        <v>555.1999999999998</v>
+        <v>553.5999999999998</v>
       </c>
       <c r="AG15" t="n">
         <v>2138.1</v>
@@ -8552,7 +8552,7 @@
         <v>4.2</v>
       </c>
       <c r="AI15" t="n">
-        <v>83397.60000000003</v>
+        <v>83308.40000000005</v>
       </c>
       <c r="AJ15" t="n">
         <v>328360.8</v>
@@ -8588,7 +8588,7 @@
         <v>7.2</v>
       </c>
       <c r="AU15" t="n">
-        <v>4204.700000000001</v>
+        <v>3437.700000000002</v>
       </c>
       <c r="AV15" t="n">
         <v>17200.2</v>
@@ -8606,7 +8606,7 @@
         <v>-1.4</v>
       </c>
       <c r="BA15" t="n">
-        <v>35</v>
+        <v>29.59999999999991</v>
       </c>
       <c r="BB15" t="n">
         <v>2719.8</v>
@@ -8615,7 +8615,7 @@
         <v>4.4</v>
       </c>
       <c r="BD15" t="n">
-        <v>2032.200000000001</v>
+        <v>1893.000000000001</v>
       </c>
       <c r="BE15" t="n">
         <v>7842.4</v>
@@ -8624,7 +8624,7 @@
         <v>2.2</v>
       </c>
       <c r="BG15" t="n">
-        <v>206.8</v>
+        <v>198.7</v>
       </c>
       <c r="BH15" t="n">
         <v>850.4</v>
@@ -8642,7 +8642,7 @@
         <v>-5.4</v>
       </c>
       <c r="BM15" t="n">
-        <v>781.5999999999995</v>
+        <v>728.8999999999992</v>
       </c>
       <c r="BN15" t="n">
         <v>4385.8</v>
@@ -8651,7 +8651,7 @@
         <v>11.4</v>
       </c>
       <c r="BP15" t="n">
-        <v>1823.4</v>
+        <v>1641.5</v>
       </c>
       <c r="BQ15" t="n">
         <v>7419</v>
@@ -8678,7 +8678,7 @@
         <v>7.5</v>
       </c>
       <c r="BY15" t="n">
-        <v>4772.299999999999</v>
+        <v>4695.9</v>
       </c>
       <c r="BZ15" t="n">
         <v>20721.1</v>
@@ -8714,7 +8714,7 @@
         <v>4.8</v>
       </c>
       <c r="CK15" t="n">
-        <v>49.60000000000014</v>
+        <v>33.8000000000002</v>
       </c>
       <c r="CL15" t="n">
         <v>2626.1</v>
@@ -8732,7 +8732,7 @@
         <v>4.2</v>
       </c>
       <c r="CQ15" t="n">
-        <v>1250.900000000001</v>
+        <v>1240.600000000001</v>
       </c>
       <c r="CR15" t="n">
         <v>4979.3</v>
@@ -8750,7 +8750,7 @@
         <v>6.1</v>
       </c>
       <c r="CW15" t="n">
-        <v>3152.699999999999</v>
+        <v>3071.399999999998</v>
       </c>
       <c r="CX15" t="n">
         <v>12159.4</v>
@@ -8759,7 +8759,7 @@
         <v>6</v>
       </c>
       <c r="CZ15" t="n">
-        <v>1153.2</v>
+        <v>1132.7</v>
       </c>
       <c r="DA15" t="n">
         <v>4276.8</v>
@@ -8777,7 +8777,7 @@
         <v>5.6</v>
       </c>
       <c r="DF15" t="n">
-        <v>3520.599999999999</v>
+        <v>3343.999999999998</v>
       </c>
       <c r="DG15" t="n">
         <v>13973.6</v>
@@ -8786,7 +8786,7 @@
         <v>4.3</v>
       </c>
       <c r="DI15" t="n">
-        <v>91.30000000000001</v>
+        <v>89.80000000000004</v>
       </c>
       <c r="DJ15" t="n">
         <v>344</v>
@@ -8795,7 +8795,7 @@
         <v>7.6</v>
       </c>
       <c r="DL15" t="n">
-        <v>2788</v>
+        <v>2611.800000000002</v>
       </c>
       <c r="DM15" t="n">
         <v>10764</v>
@@ -8840,7 +8840,7 @@
         <v>5.9</v>
       </c>
       <c r="EA15" t="n">
-        <v>5704</v>
+        <v>5331.4</v>
       </c>
       <c r="EB15" t="n">
         <v>21961</v>
@@ -8849,7 +8849,7 @@
         <v>8.4</v>
       </c>
       <c r="ED15" t="n">
-        <v>248.1</v>
+        <v>236.8999999999999</v>
       </c>
       <c r="EE15" t="n">
         <v>1061.4</v>
@@ -9027,7 +9027,7 @@
         <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6999999999999988</v>
+        <v>0.4999999999999987</v>
       </c>
       <c r="L16" t="n">
         <v>11.2</v>
@@ -9072,7 +9072,7 @@
         <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>265.6999999999989</v>
+        <v>220.199999999998</v>
       </c>
       <c r="AA16" t="n">
         <v>10012.1</v>
@@ -9234,7 +9234,7 @@
         <v>5.8</v>
       </c>
       <c r="CB16" t="n">
-        <v>566.8000000000002</v>
+        <v>429.9999999999991</v>
       </c>
       <c r="CC16" t="n">
         <v>25166.7</v>
@@ -9243,7 +9243,7 @@
         <v>6</v>
       </c>
       <c r="CE16" t="n">
-        <v>121.0000000000002</v>
+        <v>85.50000000000065</v>
       </c>
       <c r="CF16" t="n">
         <v>4647.5</v>
@@ -9288,7 +9288,7 @@
         <v>2.5</v>
       </c>
       <c r="CT16" t="n">
-        <v>914.3000000000065</v>
+        <v>629.4000000000087</v>
       </c>
       <c r="CU16" t="n">
         <v>40624.6</v>
@@ -9351,7 +9351,7 @@
         <v>7</v>
       </c>
       <c r="DO16" t="n">
-        <v>189.3</v>
+        <v>176.3999999999999</v>
       </c>
       <c r="DP16" t="n">
         <v>4213.5</v>
@@ -9360,7 +9360,7 @@
         <v>7.9</v>
       </c>
       <c r="DR16" t="n">
-        <v>262.6999999999998</v>
+        <v>99.69999999999803</v>
       </c>
       <c r="DS16" t="n">
         <v>20232.4</v>
@@ -9369,7 +9369,7 @@
         <v>13.4</v>
       </c>
       <c r="DU16" t="n">
-        <v>26.69999999999982</v>
+        <v>24.59999999999974</v>
       </c>
       <c r="DV16" t="n">
         <v>1296.9</v>
@@ -9378,7 +9378,7 @@
         <v>6</v>
       </c>
       <c r="DX16" t="n">
-        <v>92.5</v>
+        <v>49.49999999999909</v>
       </c>
       <c r="DY16" t="n">
         <v>7457.1</v>
@@ -9547,7 +9547,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2167</v>
+        <v>1865.399999999998</v>
       </c>
       <c r="C17" t="n">
         <v>14913.9</v>
@@ -9556,7 +9556,7 @@
         <v>8.4</v>
       </c>
       <c r="E17" t="n">
-        <v>550.6000000000004</v>
+        <v>406.8000000000002</v>
       </c>
       <c r="F17" t="n">
         <v>3557.7</v>
@@ -9565,7 +9565,7 @@
         <v>7</v>
       </c>
       <c r="H17" t="n">
-        <v>140.5</v>
+        <v>124.2999999999999</v>
       </c>
       <c r="I17" t="n">
         <v>795.8</v>
@@ -9574,7 +9574,7 @@
         <v>1.8</v>
       </c>
       <c r="K17" t="n">
-        <v>1.9</v>
+        <v>1.200000000000001</v>
       </c>
       <c r="L17" t="n">
         <v>13.8</v>
@@ -9583,7 +9583,7 @@
         <v>4.5</v>
       </c>
       <c r="N17" t="n">
-        <v>3230.700000000001</v>
+        <v>2945.599999999997</v>
       </c>
       <c r="O17" t="n">
         <v>22497.1</v>
@@ -9592,7 +9592,7 @@
         <v>4.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>71979.80000000005</v>
+        <v>66144.8000000001</v>
       </c>
       <c r="R17" t="n">
         <v>449970.2</v>
@@ -9601,7 +9601,7 @@
         <v>4.5</v>
       </c>
       <c r="T17" t="n">
-        <v>5625.099999999999</v>
+        <v>5526.000000000001</v>
       </c>
       <c r="U17" t="n">
         <v>33562.7</v>
@@ -9610,7 +9610,7 @@
         <v>0.7</v>
       </c>
       <c r="W17" t="n">
-        <v>721.4000000000001</v>
+        <v>663.4000000000005</v>
       </c>
       <c r="X17" t="n">
         <v>4287.1</v>
@@ -9619,7 +9619,7 @@
         <v>7.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>1698</v>
+        <v>1432.300000000001</v>
       </c>
       <c r="AA17" t="n">
         <v>12227.5</v>
@@ -9628,7 +9628,7 @@
         <v>8.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>508.2999999999997</v>
+        <v>443</v>
       </c>
       <c r="AD17" t="n">
         <v>3028.3</v>
@@ -9637,7 +9637,7 @@
         <v>1.7</v>
       </c>
       <c r="AF17" t="n">
-        <v>548</v>
+        <v>476.8999999999996</v>
       </c>
       <c r="AG17" t="n">
         <v>3307.1</v>
@@ -9646,7 +9646,7 @@
         <v>2.3</v>
       </c>
       <c r="AI17" t="n">
-        <v>81853</v>
+        <v>75100.40000000002</v>
       </c>
       <c r="AJ17" t="n">
         <v>508981.7</v>
@@ -9655,7 +9655,7 @@
         <v>4.7</v>
       </c>
       <c r="AL17" t="n">
-        <v>19.40000000000009</v>
+        <v>4.50000000000011</v>
       </c>
       <c r="AM17" t="n">
         <v>1996.5</v>
@@ -9664,7 +9664,7 @@
         <v>10.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>208.5</v>
+        <v>190.7000000000001</v>
       </c>
       <c r="AP17" t="n">
         <v>1381.7</v>
@@ -9673,7 +9673,7 @@
         <v>24.1</v>
       </c>
       <c r="AR17" t="n">
-        <v>1047.3</v>
+        <v>930.3</v>
       </c>
       <c r="AS17" t="n">
         <v>6523.9</v>
@@ -9682,7 +9682,7 @@
         <v>6.4</v>
       </c>
       <c r="AU17" t="n">
-        <v>4364.599999999999</v>
+        <v>3827.599999999999</v>
       </c>
       <c r="AV17" t="n">
         <v>26917.2</v>
@@ -9691,7 +9691,7 @@
         <v>6</v>
       </c>
       <c r="AX17" t="n">
-        <v>269</v>
+        <v>169.2000000000002</v>
       </c>
       <c r="AY17" t="n">
         <v>1682.8</v>
@@ -9700,7 +9700,7 @@
         <v>-0.5</v>
       </c>
       <c r="BA17" t="n">
-        <v>508.9000000000005</v>
+        <v>497.7000000000007</v>
       </c>
       <c r="BB17" t="n">
         <v>4069.3</v>
@@ -9709,7 +9709,7 @@
         <v>-1.3</v>
       </c>
       <c r="BD17" t="n">
-        <v>1986.700000000001</v>
+        <v>1853.700000000003</v>
       </c>
       <c r="BE17" t="n">
         <v>12158</v>
@@ -9718,7 +9718,7 @@
         <v>2.4</v>
       </c>
       <c r="BG17" t="n">
-        <v>227.6000000000001</v>
+        <v>197.2000000000002</v>
       </c>
       <c r="BH17" t="n">
         <v>1340.3</v>
@@ -9727,7 +9727,7 @@
         <v>8.9</v>
       </c>
       <c r="BJ17" t="n">
-        <v>6250.5</v>
+        <v>6167.699999999999</v>
       </c>
       <c r="BK17" t="n">
         <v>38699.2</v>
@@ -9745,7 +9745,7 @@
         <v>10</v>
       </c>
       <c r="BP17" t="n">
-        <v>1915.599999999999</v>
+        <v>1558.599999999998</v>
       </c>
       <c r="BQ17" t="n">
         <v>11697.3</v>
@@ -9754,7 +9754,7 @@
         <v>3.6</v>
       </c>
       <c r="BS17" t="n">
-        <v>538.0999999999995</v>
+        <v>481.3999999999996</v>
       </c>
       <c r="BT17" t="n">
         <v>4434.9</v>
@@ -9763,7 +9763,7 @@
         <v>19.6</v>
       </c>
       <c r="BV17" t="n">
-        <v>387.2000000000035</v>
+        <v>0.2000000000070941</v>
       </c>
       <c r="BW17" t="n">
         <v>36935</v>
@@ -9772,7 +9772,7 @@
         <v>7.5</v>
       </c>
       <c r="BY17" t="n">
-        <v>445.8000000000002</v>
+        <v>146.1999999999989</v>
       </c>
       <c r="BZ17" t="n">
         <v>31159.9</v>
@@ -9781,7 +9781,7 @@
         <v>6</v>
       </c>
       <c r="CB17" t="n">
-        <v>4981.199999999997</v>
+        <v>4414.399999999997</v>
       </c>
       <c r="CC17" t="n">
         <v>31342.7</v>
@@ -9790,7 +9790,7 @@
         <v>5.8</v>
       </c>
       <c r="CE17" t="n">
-        <v>998.3000000000002</v>
+        <v>877.3</v>
       </c>
       <c r="CF17" t="n">
         <v>5802.5</v>
@@ -9799,7 +9799,7 @@
         <v>3.5</v>
       </c>
       <c r="CH17" t="n">
-        <v>3556.300000000003</v>
+        <v>3511.500000000003</v>
       </c>
       <c r="CI17" t="n">
         <v>23147.9</v>
@@ -9808,7 +9808,7 @@
         <v>3.6</v>
       </c>
       <c r="CK17" t="n">
-        <v>682.9000000000001</v>
+        <v>656.9000000000001</v>
       </c>
       <c r="CL17" t="n">
         <v>4048.7</v>
@@ -9817,7 +9817,7 @@
         <v>4.8</v>
       </c>
       <c r="CN17" t="n">
-        <v>2122.5</v>
+        <v>1958.8</v>
       </c>
       <c r="CO17" t="n">
         <v>12354.4</v>
@@ -9826,7 +9826,7 @@
         <v>2.7</v>
       </c>
       <c r="CQ17" t="n">
-        <v>1317.3</v>
+        <v>1175.700000000001</v>
       </c>
       <c r="CR17" t="n">
         <v>7615.8</v>
@@ -9835,7 +9835,7 @@
         <v>2.2</v>
       </c>
       <c r="CT17" t="n">
-        <v>8484.599999999999</v>
+        <v>7570.299999999992</v>
       </c>
       <c r="CU17" t="n">
         <v>50197.4</v>
@@ -9844,7 +9844,7 @@
         <v>6.2</v>
       </c>
       <c r="CW17" t="n">
-        <v>2958.399999999998</v>
+        <v>2510.599999999995</v>
       </c>
       <c r="CX17" t="n">
         <v>18952.1</v>
@@ -9853,7 +9853,7 @@
         <v>4</v>
       </c>
       <c r="CZ17" t="n">
-        <v>1104.3</v>
+        <v>1052.599999999999</v>
       </c>
       <c r="DA17" t="n">
         <v>6528.3</v>
@@ -9862,7 +9862,7 @@
         <v>-2.3</v>
       </c>
       <c r="DC17" t="n">
-        <v>1109.800000000001</v>
+        <v>893.0000000000009</v>
       </c>
       <c r="DD17" t="n">
         <v>7745.2</v>
@@ -9871,7 +9871,7 @@
         <v>6.4</v>
       </c>
       <c r="DF17" t="n">
-        <v>3589.799999999999</v>
+        <v>3058.999999999997</v>
       </c>
       <c r="DG17" t="n">
         <v>22076.5</v>
@@ -9880,7 +9880,7 @@
         <v>5.3</v>
       </c>
       <c r="DI17" t="n">
-        <v>90.39999999999998</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="DJ17" t="n">
         <v>565.3</v>
@@ -9889,7 +9889,7 @@
         <v>10</v>
       </c>
       <c r="DL17" t="n">
-        <v>2741.699999999999</v>
+        <v>2499.999999999998</v>
       </c>
       <c r="DM17" t="n">
         <v>16868.1</v>
@@ -9898,7 +9898,7 @@
         <v>6.3</v>
       </c>
       <c r="DO17" t="n">
-        <v>803.3999999999996</v>
+        <v>614.0999999999997</v>
       </c>
       <c r="DP17" t="n">
         <v>5409.1</v>
@@ -9907,7 +9907,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="DR17" t="n">
-        <v>4010.199999999997</v>
+        <v>3747.499999999997</v>
       </c>
       <c r="DS17" t="n">
         <v>25050.7</v>
@@ -9916,7 +9916,7 @@
         <v>12.5</v>
       </c>
       <c r="DU17" t="n">
-        <v>270.0999999999999</v>
+        <v>243.4000000000001</v>
       </c>
       <c r="DV17" t="n">
         <v>1595.5</v>
@@ -9925,7 +9925,7 @@
         <v>5.1</v>
       </c>
       <c r="DX17" t="n">
-        <v>1290.9</v>
+        <v>1198.4</v>
       </c>
       <c r="DY17" t="n">
         <v>9069.1</v>
@@ -9934,7 +9934,7 @@
         <v>5.5</v>
       </c>
       <c r="EA17" t="n">
-        <v>5783.500000000004</v>
+        <v>5616.400000000004</v>
       </c>
       <c r="EB17" t="n">
         <v>34729.3</v>
@@ -9943,7 +9943,7 @@
         <v>9.1</v>
       </c>
       <c r="ED17" t="n">
-        <v>241.8</v>
+        <v>239.1</v>
       </c>
       <c r="EE17" t="n">
         <v>1656.6</v>
@@ -10202,7 +10202,7 @@
         <v>4.9</v>
       </c>
       <c r="AL18" t="n">
-        <v>257.8999999999996</v>
+        <v>238.4999999999995</v>
       </c>
       <c r="AM18" t="n">
         <v>2420.9</v>
@@ -10211,7 +10211,7 @@
         <v>10.8</v>
       </c>
       <c r="AO18" t="n">
-        <v>902.7</v>
+        <v>694.2</v>
       </c>
       <c r="AP18" t="n">
         <v>1627.3</v>
@@ -10283,7 +10283,7 @@
         <v>-5.7</v>
       </c>
       <c r="BM18" t="n">
-        <v>864.5</v>
+        <v>744.5000000000009</v>
       </c>
       <c r="BN18" t="n">
         <v>7038.8</v>
@@ -10668,7 +10668,7 @@
         <v>1.6</v>
       </c>
       <c r="K19" t="n">
-        <v>1.499999999999998</v>
+        <v>0.2999999999999969</v>
       </c>
       <c r="L19" t="n">
         <v>18.3</v>
@@ -10686,7 +10686,7 @@
         <v>4.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>4856.79999999993</v>
+        <v>2024.699999999953</v>
       </c>
       <c r="R19" t="n">
         <v>603401.7</v>
@@ -10704,7 +10704,7 @@
         <v>-0.4</v>
       </c>
       <c r="W19" t="n">
-        <v>681.6999999999998</v>
+        <v>659.2999999999997</v>
       </c>
       <c r="X19" t="n">
         <v>5688.2</v>
@@ -10722,7 +10722,7 @@
         <v>8.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>583.1999999999998</v>
+        <v>492.0999999999995</v>
       </c>
       <c r="AD19" t="n">
         <v>4152.9</v>
@@ -10740,7 +10740,7 @@
         <v>3</v>
       </c>
       <c r="AI19" t="n">
-        <v>4616.100000000093</v>
+        <v>1200.40000000014</v>
       </c>
       <c r="AJ19" t="n">
         <v>683898.9</v>
@@ -10767,7 +10767,7 @@
         <v>27.8</v>
       </c>
       <c r="AR19" t="n">
-        <v>1203.9</v>
+        <v>1030.299999999999</v>
       </c>
       <c r="AS19" t="n">
         <v>8878.799999999999</v>
@@ -10776,7 +10776,7 @@
         <v>5.7</v>
       </c>
       <c r="AU19" t="n">
-        <v>119.8000000000011</v>
+        <v>28.80000000000111</v>
       </c>
       <c r="AV19" t="n">
         <v>36758.8</v>
@@ -10785,7 +10785,7 @@
         <v>7.4</v>
       </c>
       <c r="AX19" t="n">
-        <v>269</v>
+        <v>250.2999999999997</v>
       </c>
       <c r="AY19" t="n">
         <v>2285.6</v>
@@ -10803,7 +10803,7 @@
         <v>1.2</v>
       </c>
       <c r="BD19" t="n">
-        <v>2048.900000000001</v>
+        <v>1878.100000000002</v>
       </c>
       <c r="BE19" t="n">
         <v>16454</v>
@@ -10812,7 +10812,7 @@
         <v>2.7</v>
       </c>
       <c r="BG19" t="n">
-        <v>10.5</v>
+        <v>7.100000000000108</v>
       </c>
       <c r="BH19" t="n">
         <v>1843</v>
@@ -10839,7 +10839,7 @@
         <v>9.9</v>
       </c>
       <c r="BP19" t="n">
-        <v>2104.599999999999</v>
+        <v>1721.799999999997</v>
       </c>
       <c r="BQ19" t="n">
         <v>15930.1</v>
@@ -10848,7 +10848,7 @@
         <v>2.7</v>
       </c>
       <c r="BS19" t="n">
-        <v>66.09999999999945</v>
+        <v>62.29999999999836</v>
       </c>
       <c r="BT19" t="n">
         <v>5651</v>
@@ -10857,7 +10857,7 @@
         <v>18</v>
       </c>
       <c r="BV19" t="n">
-        <v>6338.599999999999</v>
+        <v>6078.5</v>
       </c>
       <c r="BW19" t="n">
         <v>50664.6</v>
@@ -10866,7 +10866,7 @@
         <v>7.4</v>
       </c>
       <c r="BY19" t="n">
-        <v>5489.199999999997</v>
+        <v>5236.399999999998</v>
       </c>
       <c r="BZ19" t="n">
         <v>43170.6</v>
@@ -10875,7 +10875,7 @@
         <v>6.1</v>
       </c>
       <c r="CB19" t="n">
-        <v>554.6999999999971</v>
+        <v>215.5999999999913</v>
       </c>
       <c r="CC19" t="n">
         <v>42266.4</v>
@@ -10884,7 +10884,7 @@
         <v>5.9</v>
       </c>
       <c r="CE19" t="n">
-        <v>11.30000000000132</v>
+        <v>9.700000000001866</v>
       </c>
       <c r="CF19" t="n">
         <v>7948.6</v>
@@ -10893,7 +10893,7 @@
         <v>4.5</v>
       </c>
       <c r="CH19" t="n">
-        <v>393.3000000000015</v>
+        <v>133.5000000000054</v>
       </c>
       <c r="CI19" t="n">
         <v>30732.4</v>
@@ -10902,7 +10902,7 @@
         <v>3.4</v>
       </c>
       <c r="CK19" t="n">
-        <v>779.3000000000002</v>
+        <v>529.8000000000006</v>
       </c>
       <c r="CL19" t="n">
         <v>5661.7</v>
@@ -10920,7 +10920,7 @@
         <v>1.3</v>
       </c>
       <c r="CQ19" t="n">
-        <v>1395.4</v>
+        <v>971.7</v>
       </c>
       <c r="CR19" t="n">
         <v>10737.9</v>
@@ -10947,7 +10947,7 @@
         <v>4.1</v>
       </c>
       <c r="CZ19" t="n">
-        <v>1167.4</v>
+        <v>1090.1</v>
       </c>
       <c r="DA19" t="n">
         <v>8651.9</v>
@@ -10956,7 +10956,7 @@
         <v>-3.5</v>
       </c>
       <c r="DC19" t="n">
-        <v>98.20000000000095</v>
+        <v>46.20000000000301</v>
       </c>
       <c r="DD19" t="n">
         <v>10206.3</v>
@@ -10965,7 +10965,7 @@
         <v>6.9</v>
       </c>
       <c r="DF19" t="n">
-        <v>3877.5</v>
+        <v>3553.899999999998</v>
       </c>
       <c r="DG19" t="n">
         <v>29832.6</v>
@@ -11037,7 +11037,7 @@
         <v>8.6</v>
       </c>
       <c r="ED19" t="n">
-        <v>286</v>
+        <v>189.7000000000001</v>
       </c>
       <c r="EE19" t="n">
         <v>2353.4</v>
@@ -11188,7 +11188,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1752.400000000001</v>
+        <v>1646.6</v>
       </c>
       <c r="C20" t="n">
         <v>21994.9</v>
@@ -11197,7 +11197,7 @@
         <v>6.7</v>
       </c>
       <c r="E20" t="n">
-        <v>249.3999999999996</v>
+        <v>194.4999999999991</v>
       </c>
       <c r="F20" t="n">
         <v>5359.7</v>
@@ -11206,7 +11206,7 @@
         <v>7.4</v>
       </c>
       <c r="H20" t="n">
-        <v>121</v>
+        <v>113.4</v>
       </c>
       <c r="I20" t="n">
         <v>1208</v>
@@ -11215,7 +11215,7 @@
         <v>0.9</v>
       </c>
       <c r="K20" t="n">
-        <v>2.300000000000001</v>
+        <v>0.8000000000000032</v>
       </c>
       <c r="L20" t="n">
         <v>21.7</v>
@@ -11224,7 +11224,7 @@
         <v>14.2</v>
       </c>
       <c r="N20" t="n">
-        <v>3519.199999999997</v>
+        <v>3189.299999999996</v>
       </c>
       <c r="O20" t="n">
         <v>33903.5</v>
@@ -11233,7 +11233,7 @@
         <v>4.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>69277.59999999998</v>
+        <v>64420.80000000005</v>
       </c>
       <c r="R20" t="n">
         <v>685534.4</v>
@@ -11242,7 +11242,7 @@
         <v>4.3</v>
       </c>
       <c r="T20" t="n">
-        <v>4594.099999999999</v>
+        <v>3807.300000000003</v>
       </c>
       <c r="U20" t="n">
         <v>49572.4</v>
@@ -11260,7 +11260,7 @@
         <v>4</v>
       </c>
       <c r="Z20" t="n">
-        <v>1234.299999999999</v>
+        <v>1166</v>
       </c>
       <c r="AA20" t="n">
         <v>18184.2</v>
@@ -11278,7 +11278,7 @@
         <v>1.1</v>
       </c>
       <c r="AF20" t="n">
-        <v>17.20000000000073</v>
+        <v>4.60000000000082</v>
       </c>
       <c r="AG20" t="n">
         <v>5067.9</v>
@@ -11287,7 +11287,7 @@
         <v>4.4</v>
       </c>
       <c r="AI20" t="n">
-        <v>78827</v>
+        <v>74210.89999999991</v>
       </c>
       <c r="AJ20" t="n">
         <v>776743.8</v>
@@ -11323,7 +11323,7 @@
         <v>4.5</v>
       </c>
       <c r="AU20" t="n">
-        <v>4312.400000000001</v>
+        <v>4192.599999999999</v>
       </c>
       <c r="AV20" t="n">
         <v>41752.8</v>
@@ -11341,7 +11341,7 @@
         <v>-1.8</v>
       </c>
       <c r="BA20" t="n">
-        <v>622.6000000000004</v>
+        <v>595.6000000000004</v>
       </c>
       <c r="BB20" t="n">
         <v>6188.2</v>
@@ -11359,7 +11359,7 @@
         <v>2.6</v>
       </c>
       <c r="BG20" t="n">
-        <v>224.8</v>
+        <v>214.3</v>
       </c>
       <c r="BH20" t="n">
         <v>2112</v>
@@ -11368,7 +11368,7 @@
         <v>9.4</v>
       </c>
       <c r="BJ20" t="n">
-        <v>6308.699999999997</v>
+        <v>5251.699999999992</v>
       </c>
       <c r="BK20" t="n">
         <v>58022.7</v>
@@ -11377,7 +11377,7 @@
         <v>-4.2</v>
       </c>
       <c r="BM20" t="n">
-        <v>758.8000000000011</v>
+        <v>663.6000000000013</v>
       </c>
       <c r="BN20" t="n">
         <v>8905.6</v>
@@ -11422,7 +11422,7 @@
         <v>5.9</v>
       </c>
       <c r="CB20" t="n">
-        <v>3965</v>
+        <v>3410.300000000003</v>
       </c>
       <c r="CC20" t="n">
         <v>48342.5</v>
@@ -11431,7 +11431,7 @@
         <v>5.5</v>
       </c>
       <c r="CE20" t="n">
-        <v>782.7999999999993</v>
+        <v>771.499999999998</v>
       </c>
       <c r="CF20" t="n">
         <v>8981.1</v>
@@ -11458,7 +11458,7 @@
         <v>1.8</v>
       </c>
       <c r="CN20" t="n">
-        <v>1737.700000000001</v>
+        <v>1418.600000000003</v>
       </c>
       <c r="CO20" t="n">
         <v>18026.4</v>
@@ -11476,7 +11476,7 @@
         <v>1.5</v>
       </c>
       <c r="CT20" t="n">
-        <v>9934.800000000003</v>
+        <v>9927.600000000013</v>
       </c>
       <c r="CU20" t="n">
         <v>80715.7</v>
@@ -11485,7 +11485,7 @@
         <v>5.4</v>
       </c>
       <c r="CW20" t="n">
-        <v>2176.5</v>
+        <v>1945.600000000002</v>
       </c>
       <c r="CX20" t="n">
         <v>27998.6</v>
@@ -11503,7 +11503,7 @@
         <v>-3.6</v>
       </c>
       <c r="DC20" t="n">
-        <v>1017</v>
+        <v>918.799999999999</v>
       </c>
       <c r="DD20" t="n">
         <v>11555.1</v>
@@ -11521,7 +11521,7 @@
         <v>4.8</v>
       </c>
       <c r="DI20" t="n">
-        <v>1.200000000000102</v>
+        <v>0.4000000000001049</v>
       </c>
       <c r="DJ20" t="n">
         <v>888.8</v>
@@ -11530,7 +11530,7 @@
         <v>10</v>
       </c>
       <c r="DL20" t="n">
-        <v>2328</v>
+        <v>1969.300000000003</v>
       </c>
       <c r="DM20" t="n">
         <v>25232.7</v>
@@ -11539,7 +11539,7 @@
         <v>5.5</v>
       </c>
       <c r="DO20" t="n">
-        <v>710.3999999999996</v>
+        <v>628.6999999999989</v>
       </c>
       <c r="DP20" t="n">
         <v>8229.4</v>
@@ -11548,7 +11548,7 @@
         <v>8</v>
       </c>
       <c r="DR20" t="n">
-        <v>4053.599999999999</v>
+        <v>3936.299999999996</v>
       </c>
       <c r="DS20" t="n">
         <v>38673.6</v>
@@ -11744,7 +11744,7 @@
         <v>7.5</v>
       </c>
       <c r="E21" t="n">
-        <v>374.5</v>
+        <v>125.1000000000004</v>
       </c>
       <c r="F21" t="n">
         <v>5620.1</v>
@@ -11825,7 +11825,7 @@
         <v>1.2</v>
       </c>
       <c r="AF21" t="n">
-        <v>93.79999999999927</v>
+        <v>76.59999999999854</v>
       </c>
       <c r="AG21" t="n">
         <v>5658.6</v>
@@ -11843,7 +11843,7 @@
         <v>4.2</v>
       </c>
       <c r="AL21" t="n">
-        <v>99.70000000000027</v>
+        <v>97.00000000000097</v>
       </c>
       <c r="AM21" t="n">
         <v>3551.9</v>
@@ -11852,7 +11852,7 @@
         <v>9.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>20.19999999999999</v>
+        <v>15.19999999999999</v>
       </c>
       <c r="AP21" t="n">
         <v>1827.4</v>
@@ -11879,7 +11879,7 @@
         <v>6.8</v>
       </c>
       <c r="AX21" t="n">
-        <v>187.4000000000001</v>
+        <v>60.70000000000029</v>
       </c>
       <c r="AY21" t="n">
         <v>2715.7</v>
@@ -11942,7 +11942,7 @@
         <v>3.5</v>
       </c>
       <c r="BS21" t="n">
-        <v>139.1000000000013</v>
+        <v>131.5000000000018</v>
       </c>
       <c r="BT21" t="n">
         <v>6903.8</v>
@@ -11987,7 +11987,7 @@
         <v>2.7</v>
       </c>
       <c r="CH21" t="n">
-        <v>4210.399999999994</v>
+        <v>4150.399999999994</v>
       </c>
       <c r="CI21" t="n">
         <v>39226.5</v>
@@ -11996,7 +11996,7 @@
         <v>2.7</v>
       </c>
       <c r="CK21" t="n">
-        <v>808</v>
+        <v>771.1000000000004</v>
       </c>
       <c r="CL21" t="n">
         <v>7081</v>
@@ -12068,7 +12068,7 @@
         <v>4.4</v>
       </c>
       <c r="DI21" t="n">
-        <v>44.79999999999981</v>
+        <v>43.59999999999971</v>
       </c>
       <c r="DJ21" t="n">
         <v>1015.4</v>
@@ -12113,7 +12113,7 @@
         <v>5.3</v>
       </c>
       <c r="DX21" t="n">
-        <v>1542.700000000001</v>
+        <v>1462.000000000001</v>
       </c>
       <c r="DY21" t="n">
         <v>15461.6</v>
@@ -12122,7 +12122,7 @@
         <v>6.4</v>
       </c>
       <c r="EA21" t="n">
-        <v>5463.300000000003</v>
+        <v>5375.100000000006</v>
       </c>
       <c r="EB21" t="n">
         <v>59051.6</v>
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1669</v>
+        <v>1570.400000000001</v>
       </c>
       <c r="C22" t="n">
         <v>26051.6</v>
@@ -12300,7 +12300,7 @@
         <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>48.1999999999999</v>
+        <v>32.99999999999991</v>
       </c>
       <c r="I22" t="n">
         <v>1444.3</v>
@@ -12318,7 +12318,7 @@
         <v>20</v>
       </c>
       <c r="N22" t="n">
-        <v>1586.800000000003</v>
+        <v>1375.099999999999</v>
       </c>
       <c r="O22" t="n">
         <v>41615.9</v>
@@ -12327,7 +12327,7 @@
         <v>4.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>18500.40000000002</v>
+        <v>10008.5</v>
       </c>
       <c r="R22" t="n">
         <v>838148.9</v>
@@ -12336,7 +12336,7 @@
         <v>4.2</v>
       </c>
       <c r="T22" t="n">
-        <v>938.4000000000078</v>
+        <v>28.90000000000782</v>
       </c>
       <c r="U22" t="n">
         <v>59578.4</v>
@@ -12345,7 +12345,7 @@
         <v>-0.7</v>
       </c>
       <c r="W22" t="n">
-        <v>157.5</v>
+        <v>142.1999999999989</v>
       </c>
       <c r="X22" t="n">
         <v>7741.6</v>
@@ -12354,7 +12354,7 @@
         <v>4.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>615.099999999999</v>
+        <v>31.49999999999704</v>
       </c>
       <c r="AA22" t="n">
         <v>21596.5</v>
@@ -12363,7 +12363,7 @@
         <v>8.9</v>
       </c>
       <c r="AC22" t="n">
-        <v>191.2000000000007</v>
+        <v>168.3000000000011</v>
       </c>
       <c r="AD22" t="n">
         <v>5888.4</v>
@@ -12372,7 +12372,7 @@
         <v>1.8</v>
       </c>
       <c r="AF22" t="n">
-        <v>291.6999999999998</v>
+        <v>197.9000000000005</v>
       </c>
       <c r="AG22" t="n">
         <v>6330.7</v>
@@ -12381,7 +12381,7 @@
         <v>4.3</v>
       </c>
       <c r="AI22" t="n">
-        <v>20761.30000000005</v>
+        <v>11592.6000000001</v>
       </c>
       <c r="AJ22" t="n">
         <v>950007.5</v>
@@ -12390,7 +12390,7 @@
         <v>4.4</v>
       </c>
       <c r="AL22" t="n">
-        <v>468.0999999999999</v>
+        <v>368.3999999999996</v>
       </c>
       <c r="AM22" t="n">
         <v>4058</v>
@@ -12399,7 +12399,7 @@
         <v>8.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>161.3999999999999</v>
+        <v>141.1999999999999</v>
       </c>
       <c r="AP22" t="n">
         <v>2052.6</v>
@@ -12408,7 +12408,7 @@
         <v>22.3</v>
       </c>
       <c r="AR22" t="n">
-        <v>738.1999999999975</v>
+        <v>694.999999999995</v>
       </c>
       <c r="AS22" t="n">
         <v>11457.2</v>
@@ -12426,7 +12426,7 @@
         <v>7.5</v>
       </c>
       <c r="AX22" t="n">
-        <v>239.7000000000003</v>
+        <v>52.30000000000021</v>
       </c>
       <c r="AY22" t="n">
         <v>3023</v>
@@ -12435,7 +12435,7 @@
         <v>2.2</v>
       </c>
       <c r="BA22" t="n">
-        <v>228.5</v>
+        <v>130.9000000000005</v>
       </c>
       <c r="BB22" t="n">
         <v>7609.4</v>
@@ -12444,7 +12444,7 @@
         <v>1.7</v>
       </c>
       <c r="BD22" t="n">
-        <v>606.2000000000039</v>
+        <v>416.2000000000039</v>
       </c>
       <c r="BE22" t="n">
         <v>22790</v>
@@ -12453,7 +12453,7 @@
         <v>2.8</v>
       </c>
       <c r="BG22" t="n">
-        <v>66.69999999999982</v>
+        <v>23.99999999999983</v>
       </c>
       <c r="BH22" t="n">
         <v>2643.7</v>
@@ -12471,7 +12471,7 @@
         <v>-2.6</v>
       </c>
       <c r="BM22" t="n">
-        <v>612</v>
+        <v>516.3000000000011</v>
       </c>
       <c r="BN22" t="n">
         <v>10605.4</v>
@@ -12489,7 +12489,7 @@
         <v>4</v>
       </c>
       <c r="BS22" t="n">
-        <v>363.6999999999994</v>
+        <v>224.5999999999981</v>
       </c>
       <c r="BT22" t="n">
         <v>7680.9</v>
@@ -12498,7 +12498,7 @@
         <v>13.5</v>
       </c>
       <c r="BV22" t="n">
-        <v>1270.599999999999</v>
+        <v>788.5000000000014</v>
       </c>
       <c r="BW22" t="n">
         <v>70162.3</v>
@@ -12507,7 +12507,7 @@
         <v>6.8</v>
       </c>
       <c r="BY22" t="n">
-        <v>840.3000000000011</v>
+        <v>540.2000000000016</v>
       </c>
       <c r="BZ22" t="n">
         <v>59837.7</v>
@@ -12516,7 +12516,7 @@
         <v>5.9</v>
       </c>
       <c r="CB22" t="n">
-        <v>1378.600000000005</v>
+        <v>8.300000000008822</v>
       </c>
       <c r="CC22" t="n">
         <v>58261.1</v>
@@ -12525,7 +12525,7 @@
         <v>5.7</v>
       </c>
       <c r="CE22" t="n">
-        <v>616.9000000000015</v>
+        <v>510.300000000001</v>
       </c>
       <c r="CF22" t="n">
         <v>10614.4</v>
@@ -12552,7 +12552,7 @@
         <v>-0.9</v>
       </c>
       <c r="CN22" t="n">
-        <v>605.7999999999988</v>
+        <v>212.7999999999986</v>
       </c>
       <c r="CO22" t="n">
         <v>21587.8</v>
@@ -12561,7 +12561,7 @@
         <v>-0.7</v>
       </c>
       <c r="CQ22" t="n">
-        <v>645.300000000002</v>
+        <v>424.900000000004</v>
       </c>
       <c r="CR22" t="n">
         <v>14441.9</v>
@@ -12570,7 +12570,7 @@
         <v>-0.5</v>
       </c>
       <c r="CT22" t="n">
-        <v>1059.700000000001</v>
+        <v>378.5000000000039</v>
       </c>
       <c r="CU22" t="n">
         <v>101610.1</v>
@@ -12579,7 +12579,7 @@
         <v>4.6</v>
       </c>
       <c r="CW22" t="n">
-        <v>1290.200000000004</v>
+        <v>307.6000000000049</v>
       </c>
       <c r="CX22" t="n">
         <v>33876.5</v>
@@ -12588,7 +12588,7 @@
         <v>4.6</v>
       </c>
       <c r="CZ22" t="n">
-        <v>255.3000000000011</v>
+        <v>174.6000000000001</v>
       </c>
       <c r="DA22" t="n">
         <v>12055.1</v>
@@ -12597,7 +12597,7 @@
         <v>-2.6</v>
       </c>
       <c r="DC22" t="n">
-        <v>636.4000000000019</v>
+        <v>594.6000000000029</v>
       </c>
       <c r="DD22" t="n">
         <v>13744.2</v>
@@ -12606,7 +12606,7 @@
         <v>6.7</v>
       </c>
       <c r="DF22" t="n">
-        <v>990.4000000000024</v>
+        <v>795.7000000000053</v>
       </c>
       <c r="DG22" t="n">
         <v>41696.4</v>
@@ -12615,7 +12615,7 @@
         <v>4.4</v>
       </c>
       <c r="DI22" t="n">
-        <v>125.2</v>
+        <v>80.40000000000019</v>
       </c>
       <c r="DJ22" t="n">
         <v>1144</v>
@@ -12624,7 +12624,7 @@
         <v>8</v>
       </c>
       <c r="DL22" t="n">
-        <v>925.7000000000012</v>
+        <v>470.7000000000012</v>
       </c>
       <c r="DM22" t="n">
         <v>30706.5</v>
@@ -12633,7 +12633,7 @@
         <v>5.8</v>
       </c>
       <c r="DO22" t="n">
-        <v>616.0999999999983</v>
+        <v>403.2999999999972</v>
       </c>
       <c r="DP22" t="n">
         <v>9842.4</v>
@@ -12642,7 +12642,7 @@
         <v>6.4</v>
       </c>
       <c r="DR22" t="n">
-        <v>1500.000000000007</v>
+        <v>1037.900000000009</v>
       </c>
       <c r="DS22" t="n">
         <v>48029.5</v>
@@ -12651,7 +12651,7 @@
         <v>11.8</v>
       </c>
       <c r="DU22" t="n">
-        <v>58.09999999999991</v>
+        <v>43.5</v>
       </c>
       <c r="DV22" t="n">
         <v>3113.8</v>
@@ -12838,7 +12838,7 @@
         <v>6.3</v>
       </c>
       <c r="E23" t="n">
-        <v>826.6</v>
+        <v>452.9999999999996</v>
       </c>
       <c r="F23" t="n">
         <v>7242.6</v>
@@ -12856,7 +12856,7 @@
         <v>-0.3</v>
       </c>
       <c r="K23" t="n">
-        <v>1.5</v>
+        <v>0.6999999999999991</v>
       </c>
       <c r="L23" t="n">
         <v>31.5</v>
@@ -12874,7 +12874,7 @@
         <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>26474.89999999998</v>
+        <v>7974.49999999996</v>
       </c>
       <c r="R23" t="n">
         <v>933445.2</v>
@@ -12883,7 +12883,7 @@
         <v>3.7</v>
       </c>
       <c r="T23" t="n">
-        <v>2682.799999999992</v>
+        <v>1744.399999999984</v>
       </c>
       <c r="U23" t="n">
         <v>65776.2</v>
@@ -12892,7 +12892,7 @@
         <v>-1</v>
       </c>
       <c r="W23" t="n">
-        <v>359.7999999999995</v>
+        <v>202.2999999999995</v>
       </c>
       <c r="X23" t="n">
         <v>8571.200000000001</v>
@@ -12901,7 +12901,7 @@
         <v>4</v>
       </c>
       <c r="Z23" t="n">
-        <v>986.5</v>
+        <v>371.400000000001</v>
       </c>
       <c r="AA23" t="n">
         <v>23908.6</v>
@@ -12919,7 +12919,7 @@
         <v>1.6</v>
       </c>
       <c r="AF23" t="n">
-        <v>932.9</v>
+        <v>641.2000000000002</v>
       </c>
       <c r="AG23" t="n">
         <v>7117.2</v>
@@ -12928,7 +12928,7 @@
         <v>1.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>32474.79999999999</v>
+        <v>11713.49999999994</v>
       </c>
       <c r="AJ23" t="n">
         <v>1057824.9</v>
@@ -12946,7 +12946,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AO23" t="n">
-        <v>220.8</v>
+        <v>59.40000000000012</v>
       </c>
       <c r="AP23" t="n">
         <v>2389.3</v>
@@ -12964,7 +12964,7 @@
         <v>2</v>
       </c>
       <c r="AU23" t="n">
-        <v>2069.4</v>
+        <v>1861.5</v>
       </c>
       <c r="AV23" t="n">
         <v>56299.5</v>
@@ -12973,7 +12973,7 @@
         <v>7.2</v>
       </c>
       <c r="AX23" t="n">
-        <v>346.3</v>
+        <v>106.5999999999997</v>
       </c>
       <c r="AY23" t="n">
         <v>3351</v>
@@ -13000,7 +13000,7 @@
         <v>2</v>
       </c>
       <c r="BG23" t="n">
-        <v>85.60000000000019</v>
+        <v>18.90000000000038</v>
       </c>
       <c r="BH23" t="n">
         <v>2992.7</v>
@@ -13009,7 +13009,7 @@
         <v>8.5</v>
       </c>
       <c r="BJ23" t="n">
-        <v>2671.999999999996</v>
+        <v>1791.89999999999</v>
       </c>
       <c r="BK23" t="n">
         <v>80846.7</v>
@@ -13018,7 +13018,7 @@
         <v>-1.8</v>
       </c>
       <c r="BM23" t="n">
-        <v>2037.9</v>
+        <v>1425.9</v>
       </c>
       <c r="BN23" t="n">
         <v>11092.4</v>
@@ -13027,7 +13027,7 @@
         <v>6.1</v>
       </c>
       <c r="BP23" t="n">
-        <v>588.7000000000012</v>
+        <v>138.4000000000012</v>
       </c>
       <c r="BQ23" t="n">
         <v>24789</v>
@@ -13036,7 +13036,7 @@
         <v>3.2</v>
       </c>
       <c r="BS23" t="n">
-        <v>603.6999999999998</v>
+        <v>240.0000000000004</v>
       </c>
       <c r="BT23" t="n">
         <v>8831.200000000001</v>
@@ -13045,7 +13045,7 @@
         <v>12</v>
       </c>
       <c r="BV23" t="n">
-        <v>5157.6</v>
+        <v>3887.000000000001</v>
       </c>
       <c r="BW23" t="n">
         <v>78217.5</v>
@@ -13054,7 +13054,7 @@
         <v>6.7</v>
       </c>
       <c r="BY23" t="n">
-        <v>4468.2</v>
+        <v>3627.899999999999</v>
       </c>
       <c r="BZ23" t="n">
         <v>66393.60000000001</v>
@@ -13090,7 +13090,7 @@
         <v>4</v>
       </c>
       <c r="CK23" t="n">
-        <v>383.5999999999995</v>
+        <v>330.699999999999</v>
       </c>
       <c r="CL23" t="n">
         <v>8675.6</v>
@@ -13117,7 +13117,7 @@
         <v>-3.4</v>
       </c>
       <c r="CT23" t="n">
-        <v>2189.299999999999</v>
+        <v>1129.599999999998</v>
       </c>
       <c r="CU23" t="n">
         <v>113717.6</v>
@@ -13135,7 +13135,7 @@
         <v>3.9</v>
       </c>
       <c r="CZ23" t="n">
-        <v>446.6999999999989</v>
+        <v>191.3999999999978</v>
       </c>
       <c r="DA23" t="n">
         <v>13370.1</v>
@@ -13144,7 +13144,7 @@
         <v>-3</v>
       </c>
       <c r="DC23" t="n">
-        <v>707.899999999999</v>
+        <v>71.49999999999704</v>
       </c>
       <c r="DD23" t="n">
         <v>15302.7</v>
@@ -13180,7 +13180,7 @@
         <v>4.9</v>
       </c>
       <c r="DO23" t="n">
-        <v>1304.9</v>
+        <v>688.8000000000018</v>
       </c>
       <c r="DP23" t="n">
         <v>11275.3</v>
@@ -13216,7 +13216,7 @@
         <v>4.2</v>
       </c>
       <c r="EA23" t="n">
-        <v>3643.800000000008</v>
+        <v>3470.00000000002</v>
       </c>
       <c r="EB23" t="n">
         <v>70724.8</v>
@@ -13225,7 +13225,7 @@
         <v>6.8</v>
       </c>
       <c r="ED23" t="n">
-        <v>178.3</v>
+        <v>151.1000000000002</v>
       </c>
       <c r="EE23" t="n">
         <v>3481.1</v>
@@ -13376,7 +13376,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2989.5</v>
+        <v>2940.5</v>
       </c>
       <c r="C24" t="n">
         <v>2751</v>
@@ -13394,7 +13394,7 @@
         <v>-25.2</v>
       </c>
       <c r="H24" t="n">
-        <v>157.6</v>
+        <v>118.0999999999999</v>
       </c>
       <c r="I24" t="n">
         <v>170.8</v>
@@ -13412,7 +13412,7 @@
         <v>-80</v>
       </c>
       <c r="N24" t="n">
-        <v>3880.3</v>
+        <v>2752.700000000004</v>
       </c>
       <c r="O24" t="n">
         <v>5762.6</v>
@@ -13421,7 +13421,7 @@
         <v>-10.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>82600.40000000001</v>
+        <v>56125.50000000003</v>
       </c>
       <c r="R24" t="n">
         <v>99249.7</v>
@@ -13430,7 +13430,7 @@
         <v>-19.1</v>
       </c>
       <c r="T24" t="n">
-        <v>6219.800000000001</v>
+        <v>3537.000000000009</v>
       </c>
       <c r="U24" t="n">
         <v>7212.7</v>
@@ -13439,7 +13439,7 @@
         <v>-21</v>
       </c>
       <c r="W24" t="n">
-        <v>874.3999999999999</v>
+        <v>514.6000000000004</v>
       </c>
       <c r="X24" t="n">
         <v>835.8</v>
@@ -13448,7 +13448,7 @@
         <v>-28.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>2091.5</v>
+        <v>1105</v>
       </c>
       <c r="AA24" t="n">
         <v>3124.2</v>
@@ -13457,7 +13457,7 @@
         <v>-8.6</v>
       </c>
       <c r="AC24" t="n">
-        <v>592.4999999999999</v>
+        <v>461.8000000000004</v>
       </c>
       <c r="AD24" t="n">
         <v>631.6</v>
@@ -13475,7 +13475,7 @@
         <v>-30.6</v>
       </c>
       <c r="AI24" t="n">
-        <v>92597.30000000002</v>
+        <v>60122.50000000003</v>
       </c>
       <c r="AJ24" t="n">
         <v>116164.4</v>
@@ -13484,7 +13484,7 @@
         <v>-17.7</v>
       </c>
       <c r="AL24" t="n">
-        <v>385.0999999999999</v>
+        <v>332.9999999999998</v>
       </c>
       <c r="AM24" t="n">
         <v>419.7</v>
@@ -13502,7 +13502,7 @@
         <v>-6.5</v>
       </c>
       <c r="AR24" t="n">
-        <v>1059.8</v>
+        <v>776.399999999999</v>
       </c>
       <c r="AS24" t="n">
         <v>1311.7</v>
@@ -13511,7 +13511,7 @@
         <v>-25.7</v>
       </c>
       <c r="AU24" t="n">
-        <v>5062.999999999999</v>
+        <v>2993.599999999999</v>
       </c>
       <c r="AV24" t="n">
         <v>5960.5</v>
@@ -13529,7 +13529,7 @@
         <v>-18.8</v>
       </c>
       <c r="BA24" t="n">
-        <v>725.4000000000001</v>
+        <v>582.3</v>
       </c>
       <c r="BB24" t="n">
         <v>792.1</v>
@@ -13538,7 +13538,7 @@
         <v>-27.5</v>
       </c>
       <c r="BD24" t="n">
-        <v>2327.5</v>
+        <v>1766.800000000003</v>
       </c>
       <c r="BE24" t="n">
         <v>2444.7</v>
@@ -13547,7 +13547,7 @@
         <v>-26.3</v>
       </c>
       <c r="BG24" t="n">
-        <v>231.4</v>
+        <v>145.7999999999998</v>
       </c>
       <c r="BH24" t="n">
         <v>399.6</v>
@@ -13556,7 +13556,7 @@
         <v>-4.8</v>
       </c>
       <c r="BJ24" t="n">
-        <v>7511</v>
+        <v>4839.000000000004</v>
       </c>
       <c r="BK24" t="n">
         <v>7489.4</v>
@@ -13574,7 +13574,7 @@
         <v>9</v>
       </c>
       <c r="BP24" t="n">
-        <v>1916.9</v>
+        <v>1328.199999999999</v>
       </c>
       <c r="BQ24" t="n">
         <v>2513.1</v>
@@ -13583,7 +13583,7 @@
         <v>-16.3</v>
       </c>
       <c r="BS24" t="n">
-        <v>887.7000000000003</v>
+        <v>284.0000000000005</v>
       </c>
       <c r="BT24" t="n">
         <v>1494.9</v>
@@ -13592,7 +13592,7 @@
         <v>-13.2</v>
       </c>
       <c r="BV24" t="n">
-        <v>6399.699999999999</v>
+        <v>1242.099999999999</v>
       </c>
       <c r="BW24" t="n">
         <v>11784.8</v>
@@ -13601,7 +13601,7 @@
         <v>-7.6</v>
       </c>
       <c r="BY24" t="n">
-        <v>5280.699999999999</v>
+        <v>812.4999999999991</v>
       </c>
       <c r="BZ24" t="n">
         <v>9890.299999999999</v>
@@ -13610,7 +13610,7 @@
         <v>-6.8</v>
       </c>
       <c r="CB24" t="n">
-        <v>5944.799999999999</v>
+        <v>4964.099999999999</v>
       </c>
       <c r="CC24" t="n">
         <v>5732.4</v>
@@ -13619,7 +13619,7 @@
         <v>-25.5</v>
       </c>
       <c r="CE24" t="n">
-        <v>1058.6</v>
+        <v>996.0000000000009</v>
       </c>
       <c r="CF24" t="n">
         <v>1124.2</v>
@@ -13628,7 +13628,7 @@
         <v>-28.3</v>
       </c>
       <c r="CH24" t="n">
-        <v>4155.900000000001</v>
+        <v>1258.400000000004</v>
       </c>
       <c r="CI24" t="n">
         <v>6709.5</v>
@@ -13637,7 +13637,7 @@
         <v>-4</v>
       </c>
       <c r="CK24" t="n">
-        <v>717.2</v>
+        <v>333.6000000000005</v>
       </c>
       <c r="CL24" t="n">
         <v>1345.3</v>
@@ -13646,7 +13646,7 @@
         <v>8.1</v>
       </c>
       <c r="CN24" t="n">
-        <v>2359.3</v>
+        <v>1905.5</v>
       </c>
       <c r="CO24" t="n">
         <v>2216.9</v>
@@ -13655,7 +13655,7 @@
         <v>-30.5</v>
       </c>
       <c r="CQ24" t="n">
-        <v>1284.7</v>
+        <v>1275.400000000001</v>
       </c>
       <c r="CR24" t="n">
         <v>1487.9</v>
@@ -13664,7 +13664,7 @@
         <v>-28.1</v>
       </c>
       <c r="CT24" t="n">
-        <v>9089.5</v>
+        <v>6900.200000000001</v>
       </c>
       <c r="CU24" t="n">
         <v>11825.4</v>
@@ -13673,7 +13673,7 @@
         <v>-14.7</v>
       </c>
       <c r="CW24" t="n">
-        <v>3779.700000000001</v>
+        <v>3383.600000000004</v>
       </c>
       <c r="CX24" t="n">
         <v>3600.4</v>
@@ -13682,7 +13682,7 @@
         <v>-25.7</v>
       </c>
       <c r="CZ24" t="n">
-        <v>1235.3</v>
+        <v>788.600000000001</v>
       </c>
       <c r="DA24" t="n">
         <v>1375.4</v>
@@ -13691,7 +13691,7 @@
         <v>-26.1</v>
       </c>
       <c r="DC24" t="n">
-        <v>1350</v>
+        <v>642.100000000001</v>
       </c>
       <c r="DD24" t="n">
         <v>1924.1</v>
@@ -13700,7 +13700,7 @@
         <v>-19.9</v>
       </c>
       <c r="DF24" t="n">
-        <v>3597.300000000001</v>
+        <v>2755.000000000001</v>
       </c>
       <c r="DG24" t="n">
         <v>5129.9</v>
@@ -13709,7 +13709,7 @@
         <v>-10.5</v>
       </c>
       <c r="DI24" t="n">
-        <v>107.7</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="DJ24" t="n">
         <v>146.8</v>
@@ -13718,7 +13718,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="DL24" t="n">
-        <v>3111</v>
+        <v>2413.400000000001</v>
       </c>
       <c r="DM24" t="n">
         <v>3296.1</v>
@@ -13736,7 +13736,7 @@
         <v>-24.7</v>
       </c>
       <c r="DR24" t="n">
-        <v>4364.6</v>
+        <v>3759.400000000005</v>
       </c>
       <c r="DS24" t="n">
         <v>5172.9</v>
@@ -13745,7 +13745,7 @@
         <v>-21.9</v>
       </c>
       <c r="DU24" t="n">
-        <v>270.6</v>
+        <v>225.3999999999999</v>
       </c>
       <c r="DV24" t="n">
         <v>332.5</v>
@@ -13754,7 +13754,7 @@
         <v>-24.4</v>
       </c>
       <c r="DX24" t="n">
-        <v>1520.7</v>
+        <v>949.4999999999998</v>
       </c>
       <c r="DY24" t="n">
         <v>2375.6</v>
@@ -13763,7 +13763,7 @@
         <v>-15</v>
       </c>
       <c r="EA24" t="n">
-        <v>6192.6</v>
+        <v>2548.799999999992</v>
       </c>
       <c r="EB24" t="n">
         <v>8219.4</v>
@@ -13772,7 +13772,7 @@
         <v>-11.4</v>
       </c>
       <c r="ED24" t="n">
-        <v>290.1</v>
+        <v>111.8</v>
       </c>
       <c r="EE24" t="n">
         <v>451.1</v>
@@ -14497,7 +14497,7 @@
         <v>-11.9</v>
       </c>
       <c r="K26" t="n">
-        <v>2.399999999999999</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="L26" t="n">
         <v>3.1</v>
@@ -14731,7 +14731,7 @@
         <v>-11.4</v>
       </c>
       <c r="CK26" t="n">
-        <v>713.8000000000002</v>
+        <v>703.6000000000004</v>
       </c>
       <c r="CL26" t="n">
         <v>2316.7</v>
@@ -15017,7 +15017,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>418.0999999999999</v>
+        <v>349.6999999999998</v>
       </c>
       <c r="C27" t="n">
         <v>10832.2</v>
@@ -15026,7 +15026,7 @@
         <v>-2.3</v>
       </c>
       <c r="E27" t="n">
-        <v>153.8999999999999</v>
+        <v>129.7</v>
       </c>
       <c r="F27" t="n">
         <v>2372</v>
@@ -15035,7 +15035,7 @@
         <v>-6.4</v>
       </c>
       <c r="H27" t="n">
-        <v>8.699999999999989</v>
+        <v>1.699999999999989</v>
       </c>
       <c r="I27" t="n">
         <v>582.4</v>
@@ -15053,7 +15053,7 @@
         <v>-56.3</v>
       </c>
       <c r="N27" t="n">
-        <v>255.099999999999</v>
+        <v>69.09999999999809</v>
       </c>
       <c r="O27" t="n">
         <v>17487</v>
@@ -15062,7 +15062,7 @@
         <v>0.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>5500.600000000035</v>
+        <v>1712.400000000082</v>
       </c>
       <c r="R27" t="n">
         <v>324407.3</v>
@@ -15080,7 +15080,7 @@
         <v>-11.7</v>
       </c>
       <c r="W27" t="n">
-        <v>56.39999999999964</v>
+        <v>37.19999999999938</v>
       </c>
       <c r="X27" t="n">
         <v>2862.9</v>
@@ -15089,7 +15089,7 @@
         <v>-18</v>
       </c>
       <c r="Z27" t="n">
-        <v>261.8</v>
+        <v>234.2000000000001</v>
       </c>
       <c r="AA27" t="n">
         <v>8868.700000000001</v>
@@ -15098,7 +15098,7 @@
         <v>-3.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>64.09999999999968</v>
+        <v>20.99999999999971</v>
       </c>
       <c r="AD27" t="n">
         <v>2198.2</v>
@@ -15107,7 +15107,7 @@
         <v>-10.8</v>
       </c>
       <c r="AF27" t="n">
-        <v>44.30000000000018</v>
+        <v>7.000000000000455</v>
       </c>
       <c r="AG27" t="n">
         <v>2222.5</v>
@@ -15116,7 +15116,7 @@
         <v>-16.6</v>
       </c>
       <c r="AI27" t="n">
-        <v>5850.999999999942</v>
+        <v>1876.999999999913</v>
       </c>
       <c r="AJ27" t="n">
         <v>368770</v>
@@ -15125,7 +15125,7 @@
         <v>-7.4</v>
       </c>
       <c r="AL27" t="n">
-        <v>432.5000000000002</v>
+        <v>313.8000000000004</v>
       </c>
       <c r="AM27" t="n">
         <v>1673</v>
@@ -15134,7 +15134,7 @@
         <v>-3.2</v>
       </c>
       <c r="AO27" t="n">
-        <v>20.29999999999998</v>
+        <v>14.09999999999996</v>
       </c>
       <c r="AP27" t="n">
         <v>763.3</v>
@@ -15152,7 +15152,7 @@
         <v>-15.4</v>
       </c>
       <c r="AU27" t="n">
-        <v>153.9999999999991</v>
+        <v>14.69999999999979</v>
       </c>
       <c r="AV27" t="n">
         <v>20054.2</v>
@@ -15161,7 +15161,7 @@
         <v>-2.9</v>
       </c>
       <c r="AX27" t="n">
-        <v>53.2999999999999</v>
+        <v>39.99999999999972</v>
       </c>
       <c r="AY27" t="n">
         <v>911.7</v>
@@ -15170,7 +15170,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="BA27" t="n">
-        <v>53.5</v>
+        <v>28.49999999999977</v>
       </c>
       <c r="BB27" t="n">
         <v>2818</v>
@@ -15188,7 +15188,7 @@
         <v>-9.699999999999999</v>
       </c>
       <c r="BG27" t="n">
-        <v>39</v>
+        <v>37.89999999999992</v>
       </c>
       <c r="BH27" t="n">
         <v>1123.1</v>
@@ -15206,7 +15206,7 @@
         <v>-13.6</v>
       </c>
       <c r="BM27" t="n">
-        <v>821.5</v>
+        <v>806.1000000000013</v>
       </c>
       <c r="BN27" t="n">
         <v>5572.5</v>
@@ -15251,7 +15251,7 @@
         <v>-3.3</v>
       </c>
       <c r="CB27" t="n">
-        <v>660.3999999999978</v>
+        <v>65.69999999999527</v>
       </c>
       <c r="CC27" t="n">
         <v>21299</v>
@@ -15260,7 +15260,7 @@
         <v>-9.6</v>
       </c>
       <c r="CE27" t="n">
-        <v>195.900000000001</v>
+        <v>142.1000000000008</v>
       </c>
       <c r="CF27" t="n">
         <v>3628.5</v>
@@ -15287,7 +15287,7 @@
         <v>-20.4</v>
       </c>
       <c r="CN27" t="n">
-        <v>162.5000000000023</v>
+        <v>68.30000000000339</v>
       </c>
       <c r="CO27" t="n">
         <v>7757.4</v>
@@ -15296,7 +15296,7 @@
         <v>-17</v>
       </c>
       <c r="CQ27" t="n">
-        <v>168.7</v>
+        <v>108.9</v>
       </c>
       <c r="CR27" t="n">
         <v>4647</v>
@@ -15305,7 +15305,7 @@
         <v>-16.9</v>
       </c>
       <c r="CT27" t="n">
-        <v>793.1999999999971</v>
+        <v>341.0999999999976</v>
       </c>
       <c r="CU27" t="n">
         <v>40238.5</v>
@@ -15314,7 +15314,7 @@
         <v>1.3</v>
       </c>
       <c r="CW27" t="n">
-        <v>366.2000000000012</v>
+        <v>200.0000000000023</v>
       </c>
       <c r="CX27" t="n">
         <v>13473</v>
@@ -15332,7 +15332,7 @@
         <v>-11.5</v>
       </c>
       <c r="DC27" t="n">
-        <v>260.899999999998</v>
+        <v>184.0999999999969</v>
       </c>
       <c r="DD27" t="n">
         <v>5483.3</v>
@@ -15350,7 +15350,7 @@
         <v>-11.3</v>
       </c>
       <c r="DI27" t="n">
-        <v>18.30000000000001</v>
+        <v>9.80000000000004</v>
       </c>
       <c r="DJ27" t="n">
         <v>469.1</v>
@@ -15368,7 +15368,7 @@
         <v>-9.699999999999999</v>
       </c>
       <c r="DO27" t="n">
-        <v>336.3000000000004</v>
+        <v>281.700000000001</v>
       </c>
       <c r="DP27" t="n">
         <v>3618.1</v>
@@ -15395,7 +15395,7 @@
         <v>-5.4</v>
       </c>
       <c r="DX27" t="n">
-        <v>116.4000000000001</v>
+        <v>43.00000000000001</v>
       </c>
       <c r="DY27" t="n">
         <v>7277.6</v>
@@ -15404,7 +15404,7 @@
         <v>0.1</v>
       </c>
       <c r="EA27" t="n">
-        <v>6029.099999999999</v>
+        <v>5447.799999999997</v>
       </c>
       <c r="EB27" t="n">
         <v>25469.5</v>
@@ -15564,7 +15564,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2336.700000000001</v>
+        <v>1918.600000000001</v>
       </c>
       <c r="C28" t="n">
         <v>14000.3</v>
@@ -15573,7 +15573,7 @@
         <v>1.4</v>
       </c>
       <c r="E28" t="n">
-        <v>544.7000000000003</v>
+        <v>390.8000000000004</v>
       </c>
       <c r="F28" t="n">
         <v>3101.1</v>
@@ -15591,7 +15591,7 @@
         <v>-6.6</v>
       </c>
       <c r="K28" t="n">
-        <v>3.200000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="L28" t="n">
         <v>4.8</v>
@@ -15600,7 +15600,7 @@
         <v>-62.2</v>
       </c>
       <c r="N28" t="n">
-        <v>3547</v>
+        <v>3291.900000000001</v>
       </c>
       <c r="O28" t="n">
         <v>21446.4</v>
@@ -15609,7 +15609,7 @@
         <v>0.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>73850.5</v>
+        <v>68349.89999999997</v>
       </c>
       <c r="R28" t="n">
         <v>408806</v>
@@ -15618,7 +15618,7 @@
         <v>-5.1</v>
       </c>
       <c r="T28" t="n">
-        <v>5108.400000000001</v>
+        <v>5075.300000000001</v>
       </c>
       <c r="U28" t="n">
         <v>28202</v>
@@ -15627,7 +15627,7 @@
         <v>-10.1</v>
       </c>
       <c r="W28" t="n">
-        <v>154.4000000000005</v>
+        <v>98.00000000000085</v>
       </c>
       <c r="X28" t="n">
         <v>3493.6</v>
@@ -15636,7 +15636,7 @@
         <v>-18.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>1845</v>
+        <v>1583.2</v>
       </c>
       <c r="AA28" t="n">
         <v>11093.9</v>
@@ -15645,7 +15645,7 @@
         <v>-2.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>547.1000000000004</v>
+        <v>483.0000000000007</v>
       </c>
       <c r="AD28" t="n">
         <v>2753.4</v>
@@ -15654,7 +15654,7 @@
         <v>-9.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>569.2999999999997</v>
+        <v>524.9999999999995</v>
       </c>
       <c r="AG28" t="n">
         <v>2796.1</v>
@@ -15663,7 +15663,7 @@
         <v>-15</v>
       </c>
       <c r="AI28" t="n">
-        <v>84301.70000000001</v>
+        <v>78450.70000000007</v>
       </c>
       <c r="AJ28" t="n">
         <v>463093.3</v>
@@ -15681,7 +15681,7 @@
         <v>1.2</v>
       </c>
       <c r="AO28" t="n">
-        <v>142.8000000000001</v>
+        <v>122.5000000000001</v>
       </c>
       <c r="AP28" t="n">
         <v>956.7</v>
@@ -15690,7 +15690,7 @@
         <v>-3.8</v>
       </c>
       <c r="AR28" t="n">
-        <v>1096.7</v>
+        <v>926.6999999999987</v>
       </c>
       <c r="AS28" t="n">
         <v>5093</v>
@@ -15699,7 +15699,7 @@
         <v>-14.1</v>
       </c>
       <c r="AU28" t="n">
-        <v>4520.100000000002</v>
+        <v>4366.100000000003</v>
       </c>
       <c r="AV28" t="n">
         <v>25097</v>
@@ -15708,7 +15708,7 @@
         <v>-0.5</v>
       </c>
       <c r="AX28" t="n">
-        <v>222.5999999999999</v>
+        <v>169.3</v>
       </c>
       <c r="AY28" t="n">
         <v>1172</v>
@@ -15717,7 +15717,7 @@
         <v>-7.6</v>
       </c>
       <c r="BA28" t="n">
-        <v>731.1000000000004</v>
+        <v>677.6000000000004</v>
       </c>
       <c r="BB28" t="n">
         <v>3537.8</v>
@@ -15726,7 +15726,7 @@
         <v>-9.1</v>
       </c>
       <c r="BD28" t="n">
-        <v>1829</v>
+        <v>1807.300000000001</v>
       </c>
       <c r="BE28" t="n">
         <v>10987.2</v>
@@ -15735,7 +15735,7 @@
         <v>-7.3</v>
       </c>
       <c r="BG28" t="n">
-        <v>251.3999999999999</v>
+        <v>212.3999999999999</v>
       </c>
       <c r="BH28" t="n">
         <v>1414.6</v>
@@ -15744,7 +15744,7 @@
         <v>0.9</v>
       </c>
       <c r="BJ28" t="n">
-        <v>5161.900000000001</v>
+        <v>4714.200000000003</v>
       </c>
       <c r="BK28" t="n">
         <v>34426.7</v>
@@ -15762,7 +15762,7 @@
         <v>5.9</v>
       </c>
       <c r="BP28" t="n">
-        <v>1788.9</v>
+        <v>1780.999999999998</v>
       </c>
       <c r="BQ28" t="n">
         <v>9158</v>
@@ -15780,7 +15780,7 @@
         <v>-10.8</v>
       </c>
       <c r="BV28" t="n">
-        <v>726.3999999999951</v>
+        <v>482.99999999999</v>
       </c>
       <c r="BW28" t="n">
         <v>36543.9</v>
@@ -15789,7 +15789,7 @@
         <v>-2.8</v>
       </c>
       <c r="BY28" t="n">
-        <v>723.6000000000013</v>
+        <v>482.8000000000011</v>
       </c>
       <c r="BZ28" t="n">
         <v>30944.4</v>
@@ -15798,7 +15798,7 @@
         <v>-1.8</v>
       </c>
       <c r="CB28" t="n">
-        <v>5017.199999999997</v>
+        <v>4356.799999999999</v>
       </c>
       <c r="CC28" t="n">
         <v>27627</v>
@@ -15807,7 +15807,7 @@
         <v>-6.3</v>
       </c>
       <c r="CE28" t="n">
-        <v>1032</v>
+        <v>836.099999999999</v>
       </c>
       <c r="CF28" t="n">
         <v>4601</v>
@@ -15816,7 +15816,7 @@
         <v>-17.2</v>
       </c>
       <c r="CH28" t="n">
-        <v>3846.5</v>
+        <v>3800.700000000002</v>
       </c>
       <c r="CI28" t="n">
         <v>19743.8</v>
@@ -15834,7 +15834,7 @@
         <v>-21.2</v>
       </c>
       <c r="CN28" t="n">
-        <v>2036.200000000001</v>
+        <v>1873.699999999999</v>
       </c>
       <c r="CO28" t="n">
         <v>9669.4</v>
@@ -15852,7 +15852,7 @@
         <v>-16.4</v>
       </c>
       <c r="CT28" t="n">
-        <v>8830.700000000004</v>
+        <v>8037.500000000007</v>
       </c>
       <c r="CU28" t="n">
         <v>51366.6</v>
@@ -15861,7 +15861,7 @@
         <v>4.6</v>
       </c>
       <c r="CW28" t="n">
-        <v>2956.5</v>
+        <v>2590.299999999999</v>
       </c>
       <c r="CX28" t="n">
         <v>17273.3</v>
@@ -15870,7 +15870,7 @@
         <v>-4.8</v>
       </c>
       <c r="CZ28" t="n">
-        <v>1055.5</v>
+        <v>1035.6</v>
       </c>
       <c r="DA28" t="n">
         <v>5663.2</v>
@@ -15879,7 +15879,7 @@
         <v>-9.6</v>
       </c>
       <c r="DC28" t="n">
-        <v>1165.700000000001</v>
+        <v>904.8000000000029</v>
       </c>
       <c r="DD28" t="n">
         <v>7008.4</v>
@@ -15888,7 +15888,7 @@
         <v>-6.4</v>
       </c>
       <c r="DF28" t="n">
-        <v>3446.099999999999</v>
+        <v>3339.3</v>
       </c>
       <c r="DG28" t="n">
         <v>17743.4</v>
@@ -15897,7 +15897,7 @@
         <v>-11.2</v>
       </c>
       <c r="DI28" t="n">
-        <v>110.9</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="DJ28" t="n">
         <v>573.4</v>
@@ -15915,7 +15915,7 @@
         <v>-7.3</v>
       </c>
       <c r="DO28" t="n">
-        <v>843.6000000000004</v>
+        <v>507.3</v>
       </c>
       <c r="DP28" t="n">
         <v>4774.5</v>
@@ -15924,7 +15924,7 @@
         <v>-5.8</v>
       </c>
       <c r="DR28" t="n">
-        <v>4739.900000000001</v>
+        <v>4582.000000000005</v>
       </c>
       <c r="DS28" t="n">
         <v>23638.8</v>
@@ -15933,7 +15933,7 @@
         <v>-5.1</v>
       </c>
       <c r="DU28" t="n">
-        <v>296.0999999999999</v>
+        <v>280.1999999999999</v>
       </c>
       <c r="DV28" t="n">
         <v>1503.9</v>
@@ -15942,7 +15942,7 @@
         <v>-3.6</v>
       </c>
       <c r="DX28" t="n">
-        <v>1480.1</v>
+        <v>1363.7</v>
       </c>
       <c r="DY28" t="n">
         <v>8992.1</v>
@@ -15960,7 +15960,7 @@
         <v>-3.8</v>
       </c>
       <c r="ED28" t="n">
-        <v>305.5999999999999</v>
+        <v>293.6999999999996</v>
       </c>
       <c r="EE28" t="n">
         <v>1707.5</v>
@@ -16129,7 +16129,7 @@
         <v>-1.3</v>
       </c>
       <c r="H29" t="n">
-        <v>138.3999999999999</v>
+        <v>136.6999999999998</v>
       </c>
       <c r="I29" t="n">
         <v>877.4</v>
@@ -16174,7 +16174,7 @@
         <v>-9.1</v>
       </c>
       <c r="W29" t="n">
-        <v>719.1999999999998</v>
+        <v>564.7999999999993</v>
       </c>
       <c r="X29" t="n">
         <v>4319.1</v>
@@ -16219,7 +16219,7 @@
         <v>-3.9</v>
       </c>
       <c r="AL29" t="n">
-        <v>458.4000000000001</v>
+        <v>408.6000000000006</v>
       </c>
       <c r="AM29" t="n">
         <v>2686.9</v>
@@ -16300,7 +16300,7 @@
         <v>-4.4</v>
       </c>
       <c r="BM29" t="n">
-        <v>950.8000000000002</v>
+        <v>787.3999999999996</v>
       </c>
       <c r="BN29" t="n">
         <v>7422.2</v>
@@ -16318,7 +16318,7 @@
         <v>-11.5</v>
       </c>
       <c r="BS29" t="n">
-        <v>671.8000000000002</v>
+        <v>643.8000000000006</v>
       </c>
       <c r="BT29" t="n">
         <v>4796.1</v>
@@ -16390,7 +16390,7 @@
         <v>-13.4</v>
       </c>
       <c r="CQ29" t="n">
-        <v>1329.800000000001</v>
+        <v>1311.400000000002</v>
       </c>
       <c r="CR29" t="n">
         <v>7005.9</v>
@@ -16453,7 +16453,7 @@
         <v>-4.7</v>
       </c>
       <c r="DL29" t="n">
-        <v>2984.599999999999</v>
+        <v>2903.299999999998</v>
       </c>
       <c r="DM29" t="n">
         <v>18138.3</v>
@@ -16667,7 +16667,7 @@
         <v>3.8</v>
       </c>
       <c r="E30" t="n">
-        <v>77.09999999999991</v>
+        <v>46.20000000000027</v>
       </c>
       <c r="F30" t="n">
         <v>4353.5</v>
@@ -16703,7 +16703,7 @@
         <v>1.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>7186.699999999895</v>
+        <v>4777.09999999986</v>
       </c>
       <c r="R30" t="n">
         <v>566990.5</v>
@@ -16712,7 +16712,7 @@
         <v>-2.4</v>
       </c>
       <c r="T30" t="n">
-        <v>540.1999999999971</v>
+        <v>427.0999999999976</v>
       </c>
       <c r="U30" t="n">
         <v>38380</v>
@@ -16748,7 +16748,7 @@
         <v>-7.9</v>
       </c>
       <c r="AF30" t="n">
-        <v>42.89999999999873</v>
+        <v>15.29999999999791</v>
       </c>
       <c r="AG30" t="n">
         <v>3962.8</v>
@@ -16757,7 +16757,7 @@
         <v>-11.1</v>
       </c>
       <c r="AI30" t="n">
-        <v>7234.79999999993</v>
+        <v>4705.199999999895</v>
       </c>
       <c r="AJ30" t="n">
         <v>641977.9</v>
@@ -16811,7 +16811,7 @@
         <v>-5.1</v>
       </c>
       <c r="BA30" t="n">
-        <v>60.09999999999945</v>
+        <v>51.89999999999963</v>
       </c>
       <c r="BB30" t="n">
         <v>4937.6</v>
@@ -16856,7 +16856,7 @@
         <v>4.6</v>
       </c>
       <c r="BP30" t="n">
-        <v>290.3000000000011</v>
+        <v>271.7000000000012</v>
       </c>
       <c r="BQ30" t="n">
         <v>12414.4</v>
@@ -16874,7 +16874,7 @@
         <v>-10.2</v>
       </c>
       <c r="BV30" t="n">
-        <v>6752.900000000001</v>
+        <v>6686.400000000001</v>
       </c>
       <c r="BW30" t="n">
         <v>50914.9</v>
@@ -16883,7 +16883,7 @@
         <v>-1.5</v>
       </c>
       <c r="BY30" t="n">
-        <v>5779.400000000001</v>
+        <v>5722.900000000004</v>
       </c>
       <c r="BZ30" t="n">
         <v>43509.8</v>
@@ -16892,7 +16892,7 @@
         <v>-0.5</v>
       </c>
       <c r="CB30" t="n">
-        <v>784.5999999999995</v>
+        <v>622.399999999996</v>
       </c>
       <c r="CC30" t="n">
         <v>38887.4</v>
@@ -16910,7 +16910,7 @@
         <v>-17</v>
       </c>
       <c r="CH30" t="n">
-        <v>242.599999999999</v>
+        <v>136.199999999998</v>
       </c>
       <c r="CI30" t="n">
         <v>26345.9</v>
@@ -16946,7 +16946,7 @@
         <v>-14.4</v>
       </c>
       <c r="CT30" t="n">
-        <v>1449.600000000006</v>
+        <v>981.4000000000162</v>
       </c>
       <c r="CU30" t="n">
         <v>72173.60000000001</v>
@@ -16955,7 +16955,7 @@
         <v>7.3</v>
       </c>
       <c r="CW30" t="n">
-        <v>254.1999999999966</v>
+        <v>162.9999999999954</v>
       </c>
       <c r="CX30" t="n">
         <v>23877.1</v>
@@ -16964,7 +16964,7 @@
         <v>-1.1</v>
       </c>
       <c r="CZ30" t="n">
-        <v>85.699999999998</v>
+        <v>51.299999999997</v>
       </c>
       <c r="DA30" t="n">
         <v>7863.7</v>
@@ -16973,7 +16973,7 @@
         <v>-6.5</v>
       </c>
       <c r="DC30" t="n">
-        <v>152.600000000001</v>
+        <v>63.5000000000029</v>
       </c>
       <c r="DD30" t="n">
         <v>9405.799999999999</v>
@@ -16982,7 +16982,7 @@
         <v>-5.1</v>
       </c>
       <c r="DF30" t="n">
-        <v>367</v>
+        <v>313.599999999999</v>
       </c>
       <c r="DG30" t="n">
         <v>24072.5</v>
@@ -16991,7 +16991,7 @@
         <v>-10.6</v>
       </c>
       <c r="DI30" t="n">
-        <v>11.5</v>
+        <v>7.900000000000006</v>
       </c>
       <c r="DJ30" t="n">
         <v>783.7</v>
@@ -17009,7 +17009,7 @@
         <v>-3.5</v>
       </c>
       <c r="DO30" t="n">
-        <v>145.7000000000012</v>
+        <v>79.60000000000176</v>
       </c>
       <c r="DP30" t="n">
         <v>6592.5</v>
@@ -17027,7 +17027,7 @@
         <v>-3.2</v>
       </c>
       <c r="DU30" t="n">
-        <v>22.80000000000035</v>
+        <v>22.50000000000034</v>
       </c>
       <c r="DV30" t="n">
         <v>2097.4</v>
@@ -17054,7 +17054,7 @@
         <v>0</v>
       </c>
       <c r="ED30" t="n">
-        <v>316.5</v>
+        <v>304.2</v>
       </c>
       <c r="EE30" t="n">
         <v>2400</v>
@@ -17205,7 +17205,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2499.5</v>
+        <v>2183.699999999995</v>
       </c>
       <c r="C31" t="n">
         <v>22185.5</v>
@@ -17214,7 +17214,7 @@
         <v>5.2</v>
       </c>
       <c r="E31" t="n">
-        <v>631.4000000000005</v>
+        <v>554.3000000000006</v>
       </c>
       <c r="F31" t="n">
         <v>5092.3</v>
@@ -17241,7 +17241,7 @@
         <v>-65.3</v>
       </c>
       <c r="N31" t="n">
-        <v>4155.099999999999</v>
+        <v>3825.499999999994</v>
       </c>
       <c r="O31" t="n">
         <v>33719.6</v>
@@ -17250,7 +17250,7 @@
         <v>2.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>79859</v>
+        <v>72672.3000000001</v>
       </c>
       <c r="R31" t="n">
         <v>656661.5</v>
@@ -17259,7 +17259,7 @@
         <v>-1.2</v>
       </c>
       <c r="T31" t="n">
-        <v>5504.800000000003</v>
+        <v>4964.600000000006</v>
       </c>
       <c r="U31" t="n">
         <v>44164</v>
@@ -17268,7 +17268,7 @@
         <v>-6.9</v>
       </c>
       <c r="W31" t="n">
-        <v>746.1000000000004</v>
+        <v>695.1000000000004</v>
       </c>
       <c r="X31" t="n">
         <v>5789.7</v>
@@ -17277,7 +17277,7 @@
         <v>-13.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>1869.200000000001</v>
+        <v>1500.9</v>
       </c>
       <c r="AA31" t="n">
         <v>17470.2</v>
@@ -17304,7 +17304,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="AI31" t="n">
-        <v>89613.79999999993</v>
+        <v>82379</v>
       </c>
       <c r="AJ31" t="n">
         <v>742293.2</v>
@@ -17322,7 +17322,7 @@
         <v>7</v>
       </c>
       <c r="AO31" t="n">
-        <v>186.3</v>
+        <v>166.2999999999998</v>
       </c>
       <c r="AP31" t="n">
         <v>1387.8</v>
@@ -17331,7 +17331,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AR31" t="n">
-        <v>1078.6</v>
+        <v>971.4999999999998</v>
       </c>
       <c r="AS31" t="n">
         <v>8610</v>
@@ -17340,7 +17340,7 @@
         <v>-7.5</v>
       </c>
       <c r="AU31" t="n">
-        <v>3908.099999999999</v>
+        <v>3795.699999999998</v>
       </c>
       <c r="AV31" t="n">
         <v>39757.6</v>
@@ -17349,7 +17349,7 @@
         <v>1.5</v>
       </c>
       <c r="AX31" t="n">
-        <v>240.1000000000001</v>
+        <v>232.4000000000001</v>
       </c>
       <c r="AY31" t="n">
         <v>1909</v>
@@ -17358,7 +17358,7 @@
         <v>-3.1</v>
       </c>
       <c r="BA31" t="n">
-        <v>787.8999999999996</v>
+        <v>727.8000000000002</v>
       </c>
       <c r="BB31" t="n">
         <v>5721.3</v>
@@ -17367,7 +17367,7 @@
         <v>-7.2</v>
       </c>
       <c r="BD31" t="n">
-        <v>2191.799999999999</v>
+        <v>2033.8</v>
       </c>
       <c r="BE31" t="n">
         <v>17220.1</v>
@@ -17376,7 +17376,7 @@
         <v>-4</v>
       </c>
       <c r="BG31" t="n">
-        <v>244.2000000000003</v>
+        <v>227.2000000000008</v>
       </c>
       <c r="BH31" t="n">
         <v>2302.1</v>
@@ -17385,7 +17385,7 @@
         <v>4.1</v>
       </c>
       <c r="BJ31" t="n">
-        <v>6905.800000000003</v>
+        <v>6162.500000000006</v>
       </c>
       <c r="BK31" t="n">
         <v>56013.1</v>
@@ -17403,7 +17403,7 @@
         <v>5.1</v>
       </c>
       <c r="BP31" t="n">
-        <v>1767.200000000001</v>
+        <v>1476.9</v>
       </c>
       <c r="BQ31" t="n">
         <v>14149.2</v>
@@ -17412,7 +17412,7 @@
         <v>-12</v>
       </c>
       <c r="BS31" t="n">
-        <v>661.2999999999993</v>
+        <v>646.9999999999991</v>
       </c>
       <c r="BT31" t="n">
         <v>6107.4</v>
@@ -17439,7 +17439,7 @@
         <v>0.4</v>
       </c>
       <c r="CB31" t="n">
-        <v>5436.599999999999</v>
+        <v>4652</v>
       </c>
       <c r="CC31" t="n">
         <v>45836.5</v>
@@ -17448,7 +17448,7 @@
         <v>0.4</v>
       </c>
       <c r="CE31" t="n">
-        <v>1007.5</v>
+        <v>929.2999999999993</v>
       </c>
       <c r="CF31" t="n">
         <v>7238.7</v>
@@ -17466,7 +17466,7 @@
         <v>-13.6</v>
       </c>
       <c r="CK31" t="n">
-        <v>684.3000000000002</v>
+        <v>656.7000000000007</v>
       </c>
       <c r="CL31" t="n">
         <v>4858.5</v>
@@ -17475,7 +17475,7 @@
         <v>-20.9</v>
       </c>
       <c r="CN31" t="n">
-        <v>2037.400000000001</v>
+        <v>1886.2</v>
       </c>
       <c r="CO31" t="n">
         <v>15728.9</v>
@@ -17484,7 +17484,7 @@
         <v>-10.5</v>
       </c>
       <c r="CQ31" t="n">
-        <v>1370.699999999999</v>
+        <v>1317.6</v>
       </c>
       <c r="CR31" t="n">
         <v>9481.5</v>
@@ -17493,7 +17493,7 @@
         <v>-13.5</v>
       </c>
       <c r="CT31" t="n">
-        <v>10459.60000000001</v>
+        <v>9010.000000000004</v>
       </c>
       <c r="CU31" t="n">
         <v>83774.7</v>
@@ -17502,7 +17502,7 @@
         <v>7.4</v>
       </c>
       <c r="CW31" t="n">
-        <v>3281.300000000003</v>
+        <v>3027.100000000006</v>
       </c>
       <c r="CX31" t="n">
         <v>27662.7</v>
@@ -17511,7 +17511,7 @@
         <v>0.8</v>
       </c>
       <c r="CZ31" t="n">
-        <v>1135.6</v>
+        <v>1049.900000000002</v>
       </c>
       <c r="DA31" t="n">
         <v>9107.4</v>
@@ -17520,7 +17520,7 @@
         <v>-5</v>
       </c>
       <c r="DC31" t="n">
-        <v>1139.400000000001</v>
+        <v>986.8</v>
       </c>
       <c r="DD31" t="n">
         <v>10925.6</v>
@@ -17529,7 +17529,7 @@
         <v>-3.5</v>
       </c>
       <c r="DF31" t="n">
-        <v>3521.299999999999</v>
+        <v>3154.299999999999</v>
       </c>
       <c r="DG31" t="n">
         <v>27529.8</v>
@@ -17547,7 +17547,7 @@
         <v>-4.9</v>
       </c>
       <c r="DL31" t="n">
-        <v>3152.200000000001</v>
+        <v>2851.500000000001</v>
       </c>
       <c r="DM31" t="n">
         <v>25033.9</v>
@@ -17556,7 +17556,7 @@
         <v>-1.8</v>
       </c>
       <c r="DO31" t="n">
-        <v>943.6000000000004</v>
+        <v>797.8999999999992</v>
       </c>
       <c r="DP31" t="n">
         <v>7755.3</v>
@@ -17583,7 +17583,7 @@
         <v>-1.6</v>
       </c>
       <c r="DX31" t="n">
-        <v>1662.199999999999</v>
+        <v>1588.399999999998</v>
       </c>
       <c r="DY31" t="n">
         <v>14108.6</v>
@@ -17592,7 +17592,7 @@
         <v>2.4</v>
       </c>
       <c r="EA31" t="n">
-        <v>5695.5</v>
+        <v>5413.30000000001</v>
       </c>
       <c r="EB31" t="n">
         <v>51530</v>
@@ -17770,7 +17770,7 @@
         <v>2.7</v>
       </c>
       <c r="H32" t="n">
-        <v>9.800000000000011</v>
+        <v>8.700000000000102</v>
       </c>
       <c r="I32" t="n">
         <v>1337.8</v>
@@ -17779,7 +17779,7 @@
         <v>-0.5</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>2.799999999999998</v>
       </c>
       <c r="L32" t="n">
         <v>7.8</v>
@@ -17833,7 +17833,7 @@
         <v>2.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>78.89999999999964</v>
+        <v>73.30000000000018</v>
       </c>
       <c r="AD32" t="n">
         <v>5039.1</v>
@@ -17842,7 +17842,7 @@
         <v>-5.7</v>
       </c>
       <c r="AF32" t="n">
-        <v>55</v>
+        <v>27.29999999999927</v>
       </c>
       <c r="AG32" t="n">
         <v>5336.1</v>
@@ -18004,7 +18004,7 @@
         <v>-15.6</v>
       </c>
       <c r="CH32" t="n">
-        <v>4321.699999999997</v>
+        <v>4130.599999999998</v>
       </c>
       <c r="CI32" t="n">
         <v>33651.6</v>
@@ -18085,7 +18085,7 @@
         <v>-10</v>
       </c>
       <c r="DI32" t="n">
-        <v>7.299999999999699</v>
+        <v>3.399999999999608</v>
       </c>
       <c r="DJ32" t="n">
         <v>1024.8</v>
@@ -18112,7 +18112,7 @@
         <v>-1.4</v>
       </c>
       <c r="DR32" t="n">
-        <v>545.5000000000073</v>
+        <v>441.6000000000131</v>
       </c>
       <c r="DS32" t="n">
         <v>43854.6</v>
@@ -18121,7 +18121,7 @@
         <v>-1.1</v>
       </c>
       <c r="DU32" t="n">
-        <v>28.29999999999973</v>
+        <v>17.5</v>
       </c>
       <c r="DV32" t="n">
         <v>2753.6</v>
@@ -18299,7 +18299,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>936.900000000001</v>
+        <v>500.0000000000032</v>
       </c>
       <c r="C33" t="n">
         <v>28480.9</v>
@@ -18308,7 +18308,7 @@
         <v>7.4</v>
       </c>
       <c r="E33" t="n">
-        <v>281.9000000000017</v>
+        <v>163.000000000003</v>
       </c>
       <c r="F33" t="n">
         <v>6600</v>
@@ -18317,7 +18317,7 @@
         <v>3.6</v>
       </c>
       <c r="H33" t="n">
-        <v>22.5</v>
+        <v>12.69999999999999</v>
       </c>
       <c r="I33" t="n">
         <v>1505</v>
@@ -18335,7 +18335,7 @@
         <v>-69.3</v>
       </c>
       <c r="N33" t="n">
-        <v>843.3000000000011</v>
+        <v>527.3000000000011</v>
       </c>
       <c r="O33" t="n">
         <v>42511.1</v>
@@ -18344,7 +18344,7 @@
         <v>2.3</v>
       </c>
       <c r="Q33" t="n">
-        <v>11768.39999999991</v>
+        <v>4001.099999999864</v>
       </c>
       <c r="R33" t="n">
         <v>835858.9</v>
@@ -18371,7 +18371,7 @@
         <v>-11.3</v>
       </c>
       <c r="Z33" t="n">
-        <v>503</v>
+        <v>267.200000000001</v>
       </c>
       <c r="AA33" t="n">
         <v>22004.5</v>
@@ -18380,7 +18380,7 @@
         <v>3.9</v>
       </c>
       <c r="AC33" t="n">
-        <v>106.9000000000005</v>
+        <v>28.00000000000087</v>
       </c>
       <c r="AD33" t="n">
         <v>5722.5</v>
@@ -18389,7 +18389,7 @@
         <v>-5.1</v>
       </c>
       <c r="AF33" t="n">
-        <v>106.2000000000007</v>
+        <v>51.2000000000007</v>
       </c>
       <c r="AG33" t="n">
         <v>6088</v>
@@ -18398,7 +18398,7 @@
         <v>-6.1</v>
       </c>
       <c r="AI33" t="n">
-        <v>13759.69999999992</v>
+        <v>5131.799999999781</v>
       </c>
       <c r="AJ33" t="n">
         <v>942246.2</v>
@@ -18407,7 +18407,7 @@
         <v>0.1</v>
       </c>
       <c r="AL33" t="n">
-        <v>58.10000000000122</v>
+        <v>17.00000000000171</v>
       </c>
       <c r="AM33" t="n">
         <v>4933.8</v>
@@ -18425,7 +18425,7 @@
         <v>-10.1</v>
       </c>
       <c r="AR33" t="n">
-        <v>194.8000000000002</v>
+        <v>66.80000000000021</v>
       </c>
       <c r="AS33" t="n">
         <v>10995.9</v>
@@ -18443,7 +18443,7 @@
         <v>3</v>
       </c>
       <c r="AX33" t="n">
-        <v>264.3000000000002</v>
+        <v>228.8000000000004</v>
       </c>
       <c r="AY33" t="n">
         <v>2356.9</v>
@@ -18452,7 +18452,7 @@
         <v>-5.2</v>
       </c>
       <c r="BA33" t="n">
-        <v>99.59999999999854</v>
+        <v>38.09999999999764</v>
       </c>
       <c r="BB33" t="n">
         <v>7324.9</v>
@@ -18461,7 +18461,7 @@
         <v>-6.1</v>
       </c>
       <c r="BD33" t="n">
-        <v>308.1000000000022</v>
+        <v>206.900000000001</v>
       </c>
       <c r="BE33" t="n">
         <v>22064.9</v>
@@ -18470,7 +18470,7 @@
         <v>-1.6</v>
       </c>
       <c r="BG33" t="n">
-        <v>79.29999999999973</v>
+        <v>9.500000000000028</v>
       </c>
       <c r="BH33" t="n">
         <v>2943.2</v>
@@ -18479,7 +18479,7 @@
         <v>6.3</v>
       </c>
       <c r="BJ33" t="n">
-        <v>926.4000000000087</v>
+        <v>159.0000000000146</v>
       </c>
       <c r="BK33" t="n">
         <v>72352</v>
@@ -18488,7 +18488,7 @@
         <v>2.9</v>
       </c>
       <c r="BM33" t="n">
-        <v>487</v>
+        <v>443.8999999999996</v>
       </c>
       <c r="BN33" t="n">
         <v>10959.5</v>
@@ -18497,7 +18497,7 @@
         <v>3.3</v>
       </c>
       <c r="BP33" t="n">
-        <v>256.400000000001</v>
+        <v>148.000000000003</v>
       </c>
       <c r="BQ33" t="n">
         <v>17794.7</v>
@@ -18506,7 +18506,7 @@
         <v>-9.699999999999999</v>
       </c>
       <c r="BS33" t="n">
-        <v>430.3000000000013</v>
+        <v>252.7000000000009</v>
       </c>
       <c r="BT33" t="n">
         <v>7645.3</v>
@@ -18515,7 +18515,7 @@
         <v>-7.1</v>
       </c>
       <c r="BV33" t="n">
-        <v>1447.600000000006</v>
+        <v>767.3000000000095</v>
       </c>
       <c r="BW33" t="n">
         <v>71930.5</v>
@@ -18524,7 +18524,7 @@
         <v>0.5</v>
       </c>
       <c r="BY33" t="n">
-        <v>937.7000000000044</v>
+        <v>504.5000000000073</v>
       </c>
       <c r="BZ33" t="n">
         <v>61342</v>
@@ -18533,7 +18533,7 @@
         <v>1.2</v>
       </c>
       <c r="CB33" t="n">
-        <v>1262.899999999994</v>
+        <v>419.6999999999905</v>
       </c>
       <c r="CC33" t="n">
         <v>59434.3</v>
@@ -18542,7 +18542,7 @@
         <v>3.6</v>
       </c>
       <c r="CE33" t="n">
-        <v>90.80000000000086</v>
+        <v>47.90000000000077</v>
       </c>
       <c r="CF33" t="n">
         <v>9092.299999999999</v>
@@ -18560,7 +18560,7 @@
         <v>-13.8</v>
       </c>
       <c r="CK33" t="n">
-        <v>143.1000000000004</v>
+        <v>134.4000000000006</v>
       </c>
       <c r="CL33" t="n">
         <v>5963.4</v>
@@ -18569,7 +18569,7 @@
         <v>-20.7</v>
       </c>
       <c r="CN33" t="n">
-        <v>382.1999999999966</v>
+        <v>206.8999999999964</v>
       </c>
       <c r="CO33" t="n">
         <v>20211.5</v>
@@ -18587,7 +18587,7 @@
         <v>-12.4</v>
       </c>
       <c r="CT33" t="n">
-        <v>1246.5</v>
+        <v>692.4000000000087</v>
       </c>
       <c r="CU33" t="n">
         <v>107212.4</v>
@@ -18596,7 +18596,7 @@
         <v>7.8</v>
       </c>
       <c r="CW33" t="n">
-        <v>814.7999999999956</v>
+        <v>453.5999999999985</v>
       </c>
       <c r="CX33" t="n">
         <v>35230.6</v>
@@ -18614,7 +18614,7 @@
         <v>-3</v>
       </c>
       <c r="DC33" t="n">
-        <v>445.8000000000011</v>
+        <v>423.5000000000032</v>
       </c>
       <c r="DD33" t="n">
         <v>13257.8</v>
@@ -18623,7 +18623,7 @@
         <v>-2.7</v>
       </c>
       <c r="DF33" t="n">
-        <v>543.6999999999971</v>
+        <v>363.199999999993</v>
       </c>
       <c r="DG33" t="n">
         <v>34456.8</v>
@@ -18632,7 +18632,7 @@
         <v>-9.4</v>
       </c>
       <c r="DI33" t="n">
-        <v>67.80000000000021</v>
+        <v>60.50000000000051</v>
       </c>
       <c r="DJ33" t="n">
         <v>1149</v>
@@ -18641,7 +18641,7 @@
         <v>-6</v>
       </c>
       <c r="DL33" t="n">
-        <v>432.7000000000012</v>
+        <v>52.50000000000136</v>
       </c>
       <c r="DM33" t="n">
         <v>32439.5</v>
@@ -18650,7 +18650,7 @@
         <v>0.8</v>
       </c>
       <c r="DO33" t="n">
-        <v>405.1999999999998</v>
+        <v>192.4000000000001</v>
       </c>
       <c r="DP33" t="n">
         <v>9840.799999999999</v>
@@ -18677,7 +18677,7 @@
         <v>-1.4</v>
       </c>
       <c r="DX33" t="n">
-        <v>279.6000000000013</v>
+        <v>162.2000000000003</v>
       </c>
       <c r="DY33" t="n">
         <v>17562</v>
@@ -18695,7 +18695,7 @@
         <v>3.7</v>
       </c>
       <c r="ED33" t="n">
-        <v>311.7999999999997</v>
+        <v>293.7999999999997</v>
       </c>
       <c r="EE33" t="n">
         <v>3532.9</v>
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2808.6</v>
+        <v>1871.699999999999</v>
       </c>
       <c r="C34" t="n">
         <v>32726.5</v>
@@ -18855,7 +18855,7 @@
         <v>7.6</v>
       </c>
       <c r="E34" t="n">
-        <v>627.5</v>
+        <v>345.5999999999983</v>
       </c>
       <c r="F34" t="n">
         <v>7660</v>
@@ -18864,7 +18864,7 @@
         <v>3.5</v>
       </c>
       <c r="H34" t="n">
-        <v>173.1</v>
+        <v>150.6</v>
       </c>
       <c r="I34" t="n">
         <v>1680.3</v>
@@ -18873,7 +18873,7 @@
         <v>0.7</v>
       </c>
       <c r="K34" t="n">
-        <v>0.4</v>
+        <v>0.09999999999999881</v>
       </c>
       <c r="L34" t="n">
         <v>9.800000000000001</v>
@@ -18891,7 +18891,7 @@
         <v>2.2</v>
       </c>
       <c r="Q34" t="n">
-        <v>98907.60000000001</v>
+        <v>87139.2000000001</v>
       </c>
       <c r="R34" t="n">
         <v>941794</v>
@@ -18900,7 +18900,7 @@
         <v>1.1</v>
       </c>
       <c r="T34" t="n">
-        <v>627.1000000000004</v>
+        <v>138.6000000000004</v>
       </c>
       <c r="U34" t="n">
         <v>63117.4</v>
@@ -18909,7 +18909,7 @@
         <v>-3.7</v>
       </c>
       <c r="W34" t="n">
-        <v>859.4</v>
+        <v>564.4999999999995</v>
       </c>
       <c r="X34" t="n">
         <v>7984.2</v>
@@ -18927,7 +18927,7 @@
         <v>4.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>639</v>
+        <v>532.0999999999995</v>
       </c>
       <c r="AD34" t="n">
         <v>6472.3</v>
@@ -18936,7 +18936,7 @@
         <v>-5.2</v>
       </c>
       <c r="AF34" t="n">
-        <v>644.1</v>
+        <v>537.8999999999993</v>
       </c>
       <c r="AG34" t="n">
         <v>6875.4</v>
@@ -18954,7 +18954,7 @@
         <v>0.8</v>
       </c>
       <c r="AL34" t="n">
-        <v>466.1</v>
+        <v>407.9999999999988</v>
       </c>
       <c r="AM34" t="n">
         <v>5630.1</v>
@@ -18963,7 +18963,7 @@
         <v>14.2</v>
       </c>
       <c r="AO34" t="n">
-        <v>183.7</v>
+        <v>33.29999999999998</v>
       </c>
       <c r="AP34" t="n">
         <v>2018.9</v>
@@ -18972,7 +18972,7 @@
         <v>-7.9</v>
       </c>
       <c r="AR34" t="n">
-        <v>1313.6</v>
+        <v>1118.8</v>
       </c>
       <c r="AS34" t="n">
         <v>12423.5</v>
@@ -18999,7 +18999,7 @@
         <v>-3.2</v>
       </c>
       <c r="BA34" t="n">
-        <v>815.3</v>
+        <v>715.7000000000014</v>
       </c>
       <c r="BB34" t="n">
         <v>8208.9</v>
@@ -19008,7 +19008,7 @@
         <v>-6.2</v>
       </c>
       <c r="BD34" t="n">
-        <v>2428</v>
+        <v>2119.899999999998</v>
       </c>
       <c r="BE34" t="n">
         <v>24763.3</v>
@@ -19026,7 +19026,7 @@
         <v>6.9</v>
       </c>
       <c r="BJ34" t="n">
-        <v>7305.2</v>
+        <v>6378.799999999991</v>
       </c>
       <c r="BK34" t="n">
         <v>81557.7</v>
@@ -19035,7 +19035,7 @@
         <v>3.4</v>
       </c>
       <c r="BM34" t="n">
-        <v>2381.1</v>
+        <v>1894.1</v>
       </c>
       <c r="BN34" t="n">
         <v>11433</v>
@@ -19044,7 +19044,7 @@
         <v>3.1</v>
       </c>
       <c r="BP34" t="n">
-        <v>404.1999999999998</v>
+        <v>147.7999999999988</v>
       </c>
       <c r="BQ34" t="n">
         <v>20001.9</v>
@@ -19062,7 +19062,7 @@
         <v>-5.4</v>
       </c>
       <c r="BV34" t="n">
-        <v>3521.499999999996</v>
+        <v>2073.89999999999</v>
       </c>
       <c r="BW34" t="n">
         <v>80827.2</v>
@@ -19071,7 +19071,7 @@
         <v>1.1</v>
       </c>
       <c r="BY34" t="n">
-        <v>3203.299999999996</v>
+        <v>2265.599999999992</v>
       </c>
       <c r="BZ34" t="n">
         <v>68456.2</v>
@@ -19080,7 +19080,7 @@
         <v>1.7</v>
       </c>
       <c r="CB34" t="n">
-        <v>5712.1</v>
+        <v>4449.200000000006</v>
       </c>
       <c r="CC34" t="n">
         <v>67831.7</v>
@@ -19089,7 +19089,7 @@
         <v>4.5</v>
       </c>
       <c r="CE34" t="n">
-        <v>1094.4</v>
+        <v>1003.599999999999</v>
       </c>
       <c r="CF34" t="n">
         <v>10129.1</v>
@@ -19098,7 +19098,7 @@
         <v>-14.5</v>
       </c>
       <c r="CH34" t="n">
-        <v>2017.299999999996</v>
+        <v>1663.799999999989</v>
       </c>
       <c r="CI34" t="n">
         <v>41632.4</v>
@@ -19107,7 +19107,7 @@
         <v>-13.4</v>
       </c>
       <c r="CK34" t="n">
-        <v>495.8999999999996</v>
+        <v>352.7999999999992</v>
       </c>
       <c r="CL34" t="n">
         <v>6674</v>
@@ -19116,7 +19116,7 @@
         <v>-20.1</v>
       </c>
       <c r="CN34" t="n">
-        <v>2213.7</v>
+        <v>1831.500000000003</v>
       </c>
       <c r="CO34" t="n">
         <v>22778.4</v>
@@ -19125,7 +19125,7 @@
         <v>-6.7</v>
       </c>
       <c r="CQ34" t="n">
-        <v>1475.8</v>
+        <v>1371.4</v>
       </c>
       <c r="CR34" t="n">
         <v>13697.3</v>
@@ -19134,7 +19134,7 @@
         <v>-11.3</v>
       </c>
       <c r="CT34" t="n">
-        <v>11922</v>
+        <v>10675.5</v>
       </c>
       <c r="CU34" t="n">
         <v>120992.1</v>
@@ -19143,7 +19143,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="CW34" t="n">
-        <v>3577.2</v>
+        <v>2762.400000000004</v>
       </c>
       <c r="CX34" t="n">
         <v>40065.7</v>
@@ -19170,7 +19170,7 @@
         <v>-2.6</v>
       </c>
       <c r="DF34" t="n">
-        <v>891.6999999999998</v>
+        <v>348.0000000000027</v>
       </c>
       <c r="DG34" t="n">
         <v>38812.3</v>
@@ -19179,7 +19179,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="DI34" t="n">
-        <v>154.7</v>
+        <v>86.89999999999978</v>
       </c>
       <c r="DJ34" t="n">
         <v>1331.5</v>
@@ -19188,7 +19188,7 @@
         <v>-6.7</v>
       </c>
       <c r="DL34" t="n">
-        <v>3448.5</v>
+        <v>3015.799999999999</v>
       </c>
       <c r="DM34" t="n">
         <v>36814.1</v>
@@ -19197,7 +19197,7 @@
         <v>1.8</v>
       </c>
       <c r="DO34" t="n">
-        <v>972.9</v>
+        <v>567.7000000000002</v>
       </c>
       <c r="DP34" t="n">
         <v>11465.8</v>
@@ -19206,7 +19206,7 @@
         <v>-0.6</v>
       </c>
       <c r="DR34" t="n">
-        <v>5325.4</v>
+        <v>4890.300000000008</v>
       </c>
       <c r="DS34" t="n">
         <v>55941.8</v>
@@ -19215,7 +19215,7 @@
         <v>-0.1</v>
       </c>
       <c r="DU34" t="n">
-        <v>334.5</v>
+        <v>312.7999999999997</v>
       </c>
       <c r="DV34" t="n">
         <v>3494.7</v>
@@ -19224,7 +19224,7 @@
         <v>-1.3</v>
       </c>
       <c r="DX34" t="n">
-        <v>316.3999999999987</v>
+        <v>36.79999999999745</v>
       </c>
       <c r="DY34" t="n">
         <v>19598.8</v>
@@ -19233,7 +19233,7 @@
         <v>1.6</v>
       </c>
       <c r="EA34" t="n">
-        <v>1732.3</v>
+        <v>1514.100000000001</v>
       </c>
       <c r="EB34" t="n">
         <v>72776.89999999999</v>
@@ -19420,7 +19420,7 @@
         <v>49.7</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="L35" t="n">
         <v>2.1</v>
@@ -19429,7 +19429,7 @@
         <v>425</v>
       </c>
       <c r="N35" t="n">
-        <v>3909.8</v>
+        <v>3516.000000000001</v>
       </c>
       <c r="O35" t="n">
         <v>7641.3</v>
@@ -19447,7 +19447,7 @@
         <v>49.2</v>
       </c>
       <c r="T35" t="n">
-        <v>5399.799999999999</v>
+        <v>4772.699999999999</v>
       </c>
       <c r="U35" t="n">
         <v>10450.4</v>
@@ -19465,7 +19465,7 @@
         <v>48.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>1873.4</v>
+        <v>1444.5</v>
       </c>
       <c r="AA35" t="n">
         <v>4182.5</v>
@@ -19492,7 +19492,7 @@
         <v>49.7</v>
       </c>
       <c r="AI35" t="n">
-        <v>82153.5</v>
+        <v>78227.39999999999</v>
       </c>
       <c r="AJ35" t="n">
         <v>168726.6</v>
@@ -19528,7 +19528,7 @@
         <v>42.1</v>
       </c>
       <c r="AU35" t="n">
-        <v>4387.5</v>
+        <v>4045.700000000003</v>
       </c>
       <c r="AV35" t="n">
         <v>8404.1</v>
@@ -19537,7 +19537,7 @@
         <v>48.1</v>
       </c>
       <c r="AX35" t="n">
-        <v>210.5</v>
+        <v>192.4000000000002</v>
       </c>
       <c r="AY35" t="n">
         <v>384.4</v>
@@ -19564,7 +19564,7 @@
         <v>58</v>
       </c>
       <c r="BG35" t="n">
-        <v>246.4</v>
+        <v>224.1999999999997</v>
       </c>
       <c r="BH35" t="n">
         <v>537.6</v>
@@ -19591,7 +19591,7 @@
         <v>19.7</v>
       </c>
       <c r="BP35" t="n">
-        <v>1801.400000000001</v>
+        <v>1397.200000000001</v>
       </c>
       <c r="BQ35" t="n">
         <v>3579.1</v>
@@ -19600,7 +19600,7 @@
         <v>41.1</v>
       </c>
       <c r="BS35" t="n">
-        <v>791.3999999999999</v>
+        <v>495.3000000000009</v>
       </c>
       <c r="BT35" t="n">
         <v>1982.4</v>
@@ -19609,7 +19609,7 @@
         <v>26.6</v>
       </c>
       <c r="BV35" t="n">
-        <v>6202.299999999999</v>
+        <v>2680.800000000003</v>
       </c>
       <c r="BW35" t="n">
         <v>14542.5</v>
@@ -19618,7 +19618,7 @@
         <v>22.4</v>
       </c>
       <c r="BY35" t="n">
-        <v>5164.5</v>
+        <v>1961.200000000004</v>
       </c>
       <c r="BZ35" t="n">
         <v>12022.5</v>
@@ -19645,7 +19645,7 @@
         <v>21.5</v>
       </c>
       <c r="CH35" t="n">
-        <v>3419.299999999999</v>
+        <v>1402.000000000003</v>
       </c>
       <c r="CI35" t="n">
         <v>7542.4</v>
@@ -19654,7 +19654,7 @@
         <v>12.7</v>
       </c>
       <c r="CK35" t="n">
-        <v>580.7</v>
+        <v>84.80000000000047</v>
       </c>
       <c r="CL35" t="n">
         <v>1241.9</v>
@@ -19699,7 +19699,7 @@
         <v>63</v>
       </c>
       <c r="CZ35" t="n">
-        <v>1098.1</v>
+        <v>1051.4</v>
       </c>
       <c r="DA35" t="n">
         <v>2117.3</v>
@@ -19708,7 +19708,7 @@
         <v>53.6</v>
       </c>
       <c r="DC35" t="n">
-        <v>1236.2</v>
+        <v>940.1000000000001</v>
       </c>
       <c r="DD35" t="n">
         <v>2553.2</v>
@@ -19717,7 +19717,7 @@
         <v>34.1</v>
       </c>
       <c r="DF35" t="n">
-        <v>3370.2</v>
+        <v>2478.5</v>
       </c>
       <c r="DG35" t="n">
         <v>6644.7</v>
@@ -19771,7 +19771,7 @@
         <v>46.8</v>
       </c>
       <c r="DX35" t="n">
-        <v>1595.8</v>
+        <v>1279.400000000001</v>
       </c>
       <c r="DY35" t="n">
         <v>3127.3</v>
@@ -19780,7 +19780,7 @@
         <v>31.6</v>
       </c>
       <c r="EA35" t="n">
-        <v>5479.300000000001</v>
+        <v>3747.000000000001</v>
       </c>
       <c r="EB35" t="n">
         <v>12401</v>
@@ -19789,7 +19789,7 @@
         <v>52.5</v>
       </c>
       <c r="ED35" t="n">
-        <v>315.6</v>
+        <v>159.3999999999997</v>
       </c>
       <c r="EE35" t="n">
         <v>767.2</v>
@@ -19967,7 +19967,7 @@
         <v>41.8</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="L36" t="n">
         <v>3.3</v>
@@ -20057,7 +20057,7 @@
         <v>90.90000000000001</v>
       </c>
       <c r="AO36" t="n">
-        <v>171.3</v>
+        <v>165.1</v>
       </c>
       <c r="AP36" t="n">
         <v>347.7</v>
@@ -20496,7 +20496,7 @@
         <v>38</v>
       </c>
       <c r="E37" t="n">
-        <v>23.59999999999968</v>
+        <v>2.099999999999682</v>
       </c>
       <c r="F37" t="n">
         <v>2458.9</v>
@@ -20505,7 +20505,7 @@
         <v>35.9</v>
       </c>
       <c r="H37" t="n">
-        <v>145.6999999999999</v>
+        <v>125.4999999999999</v>
       </c>
       <c r="I37" t="n">
         <v>598.3</v>
@@ -20523,7 +20523,7 @@
         <v>31.3</v>
       </c>
       <c r="N37" t="n">
-        <v>3894.4</v>
+        <v>3806.6</v>
       </c>
       <c r="O37" t="n">
         <v>16455.9</v>
@@ -20550,7 +20550,7 @@
         <v>36.9</v>
       </c>
       <c r="W37" t="n">
-        <v>649.5</v>
+        <v>627.3999999999997</v>
       </c>
       <c r="X37" t="n">
         <v>3016.9</v>
@@ -20568,7 +20568,7 @@
         <v>28.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>526.0999999999999</v>
+        <v>521.5</v>
       </c>
       <c r="AD37" t="n">
         <v>2126</v>
@@ -20595,7 +20595,7 @@
         <v>33.6</v>
       </c>
       <c r="AL37" t="n">
-        <v>443.1000000000001</v>
+        <v>371.8</v>
       </c>
       <c r="AM37" t="n">
         <v>2332</v>
@@ -20613,7 +20613,7 @@
         <v>-7.9</v>
       </c>
       <c r="AR37" t="n">
-        <v>936.0000000000005</v>
+        <v>892.2000000000003</v>
       </c>
       <c r="AS37" t="n">
         <v>4211.8</v>
@@ -20649,7 +20649,7 @@
         <v>29.2</v>
       </c>
       <c r="BD37" t="n">
-        <v>2101.699999999999</v>
+        <v>1950.299999999999</v>
       </c>
       <c r="BE37" t="n">
         <v>8792.1</v>
@@ -20721,7 +20721,7 @@
         <v>19.2</v>
       </c>
       <c r="CB37" t="n">
-        <v>341.9000000000015</v>
+        <v>148</v>
       </c>
       <c r="CC37" t="n">
         <v>23342.6</v>
@@ -21034,7 +21034,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>416.8000000000011</v>
+        <v>402.9000000000024</v>
       </c>
       <c r="C38" t="n">
         <v>14625.1</v>
@@ -21043,7 +21043,7 @@
         <v>30</v>
       </c>
       <c r="E38" t="n">
-        <v>119.5000000000005</v>
+        <v>95.90000000000082</v>
       </c>
       <c r="F38" t="n">
         <v>3141.1</v>
@@ -21079,7 +21079,7 @@
         <v>19.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>7724.600000000035</v>
+        <v>6511.400000000052</v>
       </c>
       <c r="R38" t="n">
         <v>426921.7</v>
@@ -21106,7 +21106,7 @@
         <v>34.3</v>
       </c>
       <c r="Z38" t="n">
-        <v>302.7999999999979</v>
+        <v>299.6999999999971</v>
       </c>
       <c r="AA38" t="n">
         <v>11162.3</v>
@@ -21124,7 +21124,7 @@
         <v>20.6</v>
       </c>
       <c r="AF38" t="n">
-        <v>59.40000000000009</v>
+        <v>43.70000000000027</v>
       </c>
       <c r="AG38" t="n">
         <v>2931.5</v>
@@ -21133,7 +21133,7 @@
         <v>31.9</v>
       </c>
       <c r="AI38" t="n">
-        <v>8634.600000000035</v>
+        <v>7309.100000000035</v>
       </c>
       <c r="AJ38" t="n">
         <v>481530</v>
@@ -21169,7 +21169,7 @@
         <v>29.1</v>
       </c>
       <c r="AU38" t="n">
-        <v>457.9000000000015</v>
+        <v>393.5000000000019</v>
       </c>
       <c r="AV38" t="n">
         <v>26236</v>
@@ -21178,7 +21178,7 @@
         <v>40</v>
       </c>
       <c r="AX38" t="n">
-        <v>37.2999999999999</v>
+        <v>6.799999999999986</v>
       </c>
       <c r="AY38" t="n">
         <v>1130.9</v>
@@ -21187,7 +21187,7 @@
         <v>24.5</v>
       </c>
       <c r="BA38" t="n">
-        <v>39.59999999999945</v>
+        <v>33.89999999999895</v>
       </c>
       <c r="BB38" t="n">
         <v>3564.5</v>
@@ -21205,7 +21205,7 @@
         <v>29</v>
       </c>
       <c r="BG38" t="n">
-        <v>48.49999999999983</v>
+        <v>41.99999999999974</v>
       </c>
       <c r="BH38" t="n">
         <v>1437.5</v>
@@ -21214,7 +21214,7 @@
         <v>22.2</v>
       </c>
       <c r="BJ38" t="n">
-        <v>655.4000000000042</v>
+        <v>365.3000000000047</v>
       </c>
       <c r="BK38" t="n">
         <v>35852.8</v>
@@ -21250,7 +21250,7 @@
         <v>25.1</v>
       </c>
       <c r="BV38" t="n">
-        <v>575.3000000000029</v>
+        <v>486.4000000000087</v>
       </c>
       <c r="BW38" t="n">
         <v>35947.3</v>
@@ -21259,7 +21259,7 @@
         <v>19.2</v>
       </c>
       <c r="BY38" t="n">
-        <v>451.4000000000051</v>
+        <v>299.200000000008</v>
       </c>
       <c r="BZ38" t="n">
         <v>29931.5</v>
@@ -21268,7 +21268,7 @@
         <v>18.1</v>
       </c>
       <c r="CB38" t="n">
-        <v>760.399999999996</v>
+        <v>418.4999999999945</v>
       </c>
       <c r="CC38" t="n">
         <v>30182.2</v>
@@ -21277,7 +21277,7 @@
         <v>40.8</v>
       </c>
       <c r="CE38" t="n">
-        <v>184.6000000000004</v>
+        <v>179.1000000000002</v>
       </c>
       <c r="CF38" t="n">
         <v>4029.7</v>
@@ -21295,7 +21295,7 @@
         <v>29.9</v>
       </c>
       <c r="CK38" t="n">
-        <v>112.9000000000006</v>
+        <v>63.6000000000011</v>
       </c>
       <c r="CL38" t="n">
         <v>3411.2</v>
@@ -21304,7 +21304,7 @@
         <v>25.8</v>
       </c>
       <c r="CN38" t="n">
-        <v>66.69999999999914</v>
+        <v>36.89999999999918</v>
       </c>
       <c r="CO38" t="n">
         <v>9443.799999999999</v>
@@ -21322,7 +21322,7 @@
         <v>13.3</v>
       </c>
       <c r="CT38" t="n">
-        <v>1541.399999999987</v>
+        <v>1370.299999999981</v>
       </c>
       <c r="CU38" t="n">
         <v>51117.7</v>
@@ -21331,7 +21331,7 @@
         <v>25.8</v>
       </c>
       <c r="CW38" t="n">
-        <v>430.1999999999998</v>
+        <v>382.5999999999976</v>
       </c>
       <c r="CX38" t="n">
         <v>17719.8</v>
@@ -21349,7 +21349,7 @@
         <v>27.3</v>
       </c>
       <c r="DC38" t="n">
-        <v>341.8</v>
+        <v>286.7000000000001</v>
       </c>
       <c r="DD38" t="n">
         <v>6637.2</v>
@@ -21358,7 +21358,7 @@
         <v>21.7</v>
       </c>
       <c r="DF38" t="n">
-        <v>334.900000000001</v>
+        <v>311.5000000000032</v>
       </c>
       <c r="DG38" t="n">
         <v>18660.9</v>
@@ -21376,7 +21376,7 @@
         <v>4</v>
       </c>
       <c r="DL38" t="n">
-        <v>286.4000000000001</v>
+        <v>280.6000000000004</v>
       </c>
       <c r="DM38" t="n">
         <v>17084.7</v>
@@ -21385,7 +21385,7 @@
         <v>38.2</v>
       </c>
       <c r="DO38" t="n">
-        <v>275.6000000000001</v>
+        <v>240.4000000000003</v>
       </c>
       <c r="DP38" t="n">
         <v>4487.3</v>
@@ -21403,7 +21403,7 @@
         <v>26.7</v>
       </c>
       <c r="DU38" t="n">
-        <v>14.69999999999999</v>
+        <v>0.9000000000000909</v>
       </c>
       <c r="DV38" t="n">
         <v>1477.7</v>
@@ -21412,7 +21412,7 @@
         <v>21.8</v>
       </c>
       <c r="DX38" t="n">
-        <v>44</v>
+        <v>6.700000000000053</v>
       </c>
       <c r="DY38" t="n">
         <v>8188.7</v>
@@ -21421,7 +21421,7 @@
         <v>14</v>
       </c>
       <c r="EA38" t="n">
-        <v>263.7000000000035</v>
+        <v>17.9000000000033</v>
       </c>
       <c r="EB38" t="n">
         <v>38627.5</v>
@@ -21430,7 +21430,7 @@
         <v>52.3</v>
       </c>
       <c r="ED38" t="n">
-        <v>39.59999999999991</v>
+        <v>10.90000000000004</v>
       </c>
       <c r="EE38" t="n">
         <v>2181.3</v>
@@ -21581,7 +21581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2058.699999999999</v>
+        <v>1641.899999999998</v>
       </c>
       <c r="C39" t="n">
         <v>18190.8</v>
@@ -21590,7 +21590,7 @@
         <v>25.1</v>
       </c>
       <c r="E39" t="n">
-        <v>638.3000000000002</v>
+        <v>518.7999999999997</v>
       </c>
       <c r="F39" t="n">
         <v>3996.5</v>
@@ -21599,7 +21599,7 @@
         <v>25.7</v>
       </c>
       <c r="H39" t="n">
-        <v>128.1</v>
+        <v>117.4999999999998</v>
       </c>
       <c r="I39" t="n">
         <v>951.1</v>
@@ -21617,7 +21617,7 @@
         <v>37.3</v>
       </c>
       <c r="N39" t="n">
-        <v>3783</v>
+        <v>3736.199999999999</v>
       </c>
       <c r="O39" t="n">
         <v>25476.3</v>
@@ -21626,7 +21626,7 @@
         <v>18.8</v>
       </c>
       <c r="Q39" t="n">
-        <v>79270.69999999995</v>
+        <v>71546.09999999992</v>
       </c>
       <c r="R39" t="n">
         <v>526159.6</v>
@@ -21635,7 +21635,7 @@
         <v>28.7</v>
       </c>
       <c r="T39" t="n">
-        <v>5003.299999999999</v>
+        <v>4725.299999999999</v>
       </c>
       <c r="U39" t="n">
         <v>38481.7</v>
@@ -21644,7 +21644,7 @@
         <v>35.4</v>
       </c>
       <c r="W39" t="n">
-        <v>641.3000000000002</v>
+        <v>637.9000000000005</v>
       </c>
       <c r="X39" t="n">
         <v>4760.1</v>
@@ -21653,7 +21653,7 @@
         <v>35</v>
       </c>
       <c r="Z39" t="n">
-        <v>1924.4</v>
+        <v>1621.600000000002</v>
       </c>
       <c r="AA39" t="n">
         <v>14046.9</v>
@@ -21680,7 +21680,7 @@
         <v>29.3</v>
       </c>
       <c r="AI39" t="n">
-        <v>89533.5</v>
+        <v>80898.89999999997</v>
       </c>
       <c r="AJ39" t="n">
         <v>592931.9</v>
@@ -21689,7 +21689,7 @@
         <v>27.9</v>
       </c>
       <c r="AL39" t="n">
-        <v>496.8000000000002</v>
+        <v>420.8000000000004</v>
       </c>
       <c r="AM39" t="n">
         <v>3914.1</v>
@@ -21698,7 +21698,7 @@
         <v>74.3</v>
       </c>
       <c r="AO39" t="n">
-        <v>135</v>
+        <v>114.1</v>
       </c>
       <c r="AP39" t="n">
         <v>858.6</v>
@@ -21716,7 +21716,7 @@
         <v>27.2</v>
       </c>
       <c r="AU39" t="n">
-        <v>4333.599999999999</v>
+        <v>3875.699999999998</v>
       </c>
       <c r="AV39" t="n">
         <v>32584.4</v>
@@ -21725,7 +21725,7 @@
         <v>38.3</v>
       </c>
       <c r="AX39" t="n">
-        <v>222</v>
+        <v>184.7000000000001</v>
       </c>
       <c r="AY39" t="n">
         <v>1411.8</v>
@@ -21734,7 +21734,7 @@
         <v>20.9</v>
       </c>
       <c r="BA39" t="n">
-        <v>710.8000000000002</v>
+        <v>671.2000000000007</v>
       </c>
       <c r="BB39" t="n">
         <v>4393.8</v>
@@ -21743,7 +21743,7 @@
         <v>20.5</v>
       </c>
       <c r="BD39" t="n">
-        <v>2141.800000000001</v>
+        <v>2010.4</v>
       </c>
       <c r="BE39" t="n">
         <v>13590.3</v>
@@ -21752,7 +21752,7 @@
         <v>25</v>
       </c>
       <c r="BG39" t="n">
-        <v>291.9000000000001</v>
+        <v>243.4000000000003</v>
       </c>
       <c r="BH39" t="n">
         <v>1790.5</v>
@@ -21761,7 +21761,7 @@
         <v>20.6</v>
       </c>
       <c r="BJ39" t="n">
-        <v>7151</v>
+        <v>6495.599999999996</v>
       </c>
       <c r="BK39" t="n">
         <v>42891.1</v>
@@ -21779,7 +21779,7 @@
         <v>7.9</v>
       </c>
       <c r="BP39" t="n">
-        <v>1649.200000000001</v>
+        <v>1539.600000000001</v>
       </c>
       <c r="BQ39" t="n">
         <v>12159.5</v>
@@ -21788,7 +21788,7 @@
         <v>30.9</v>
       </c>
       <c r="BS39" t="n">
-        <v>607.8999999999996</v>
+        <v>532.5999999999999</v>
       </c>
       <c r="BT39" t="n">
         <v>5451.2</v>
@@ -21815,7 +21815,7 @@
         <v>17.3</v>
       </c>
       <c r="CB39" t="n">
-        <v>5804.500000000004</v>
+        <v>5044.100000000008</v>
       </c>
       <c r="CC39" t="n">
         <v>37817.4</v>
@@ -21824,7 +21824,7 @@
         <v>36.4</v>
       </c>
       <c r="CE39" t="n">
-        <v>872.0999999999995</v>
+        <v>687.4999999999991</v>
       </c>
       <c r="CF39" t="n">
         <v>5058.8</v>
@@ -21833,7 +21833,7 @@
         <v>11.8</v>
       </c>
       <c r="CH39" t="n">
-        <v>3374.099999999999</v>
+        <v>2999.599999999999</v>
       </c>
       <c r="CI39" t="n">
         <v>25861</v>
@@ -21842,7 +21842,7 @@
         <v>31.7</v>
       </c>
       <c r="CK39" t="n">
-        <v>518.6999999999998</v>
+        <v>405.7999999999992</v>
       </c>
       <c r="CL39" t="n">
         <v>4152.7</v>
@@ -21851,7 +21851,7 @@
         <v>27.9</v>
       </c>
       <c r="CN39" t="n">
-        <v>138.300000000002</v>
+        <v>71.60000000000286</v>
       </c>
       <c r="CO39" t="n">
         <v>11707.5</v>
@@ -21869,7 +21869,7 @@
         <v>13</v>
       </c>
       <c r="CT39" t="n">
-        <v>10317.60000000001</v>
+        <v>8776.200000000023</v>
       </c>
       <c r="CU39" t="n">
         <v>63294.3</v>
@@ -21878,7 +21878,7 @@
         <v>22.1</v>
       </c>
       <c r="CW39" t="n">
-        <v>3504.899999999998</v>
+        <v>3074.699999999998</v>
       </c>
       <c r="CX39" t="n">
         <v>22112.3</v>
@@ -21887,7 +21887,7 @@
         <v>28.3</v>
       </c>
       <c r="CZ39" t="n">
-        <v>1059.9</v>
+        <v>994.9000000000001</v>
       </c>
       <c r="DA39" t="n">
         <v>7142</v>
@@ -21896,7 +21896,7 @@
         <v>24.7</v>
       </c>
       <c r="DC39" t="n">
-        <v>1210.4</v>
+        <v>868.6000000000001</v>
       </c>
       <c r="DD39" t="n">
         <v>8252.700000000001</v>
@@ -21905,7 +21905,7 @@
         <v>18.3</v>
       </c>
       <c r="DF39" t="n">
-        <v>3281.599999999999</v>
+        <v>2946.699999999998</v>
       </c>
       <c r="DG39" t="n">
         <v>23181.5</v>
@@ -21914,7 +21914,7 @@
         <v>29.5</v>
       </c>
       <c r="DI39" t="n">
-        <v>130.2</v>
+        <v>103.7</v>
       </c>
       <c r="DJ39" t="n">
         <v>636</v>
@@ -21932,7 +21932,7 @@
         <v>34.6</v>
       </c>
       <c r="DO39" t="n">
-        <v>911.5</v>
+        <v>635.8999999999999</v>
       </c>
       <c r="DP39" t="n">
         <v>5737</v>
@@ -21941,7 +21941,7 @@
         <v>20.5</v>
       </c>
       <c r="DR39" t="n">
-        <v>5003.799999999999</v>
+        <v>4778.200000000002</v>
       </c>
       <c r="DS39" t="n">
         <v>29960.6</v>
@@ -21950,7 +21950,7 @@
         <v>23.5</v>
       </c>
       <c r="DU39" t="n">
-        <v>316.2</v>
+        <v>301.5</v>
       </c>
       <c r="DV39" t="n">
         <v>1843.8</v>
@@ -21959,7 +21959,7 @@
         <v>19.8</v>
       </c>
       <c r="DX39" t="n">
-        <v>1476.6</v>
+        <v>1432.6</v>
       </c>
       <c r="DY39" t="n">
         <v>9962.799999999999</v>
@@ -21977,7 +21977,7 @@
         <v>49.5</v>
       </c>
       <c r="ED39" t="n">
-        <v>82.59999999999991</v>
+        <v>43</v>
       </c>
       <c r="EE39" t="n">
         <v>2748.2</v>
@@ -22155,7 +22155,7 @@
         <v>21.7</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4999999999999991</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="L40" t="n">
         <v>7.2</v>
@@ -22209,7 +22209,7 @@
         <v>27.4</v>
       </c>
       <c r="AC40" t="n">
-        <v>12.5</v>
+        <v>6.699999999999818</v>
       </c>
       <c r="AD40" t="n">
         <v>3949</v>
@@ -22254,7 +22254,7 @@
         <v>-1.3</v>
       </c>
       <c r="AR40" t="n">
-        <v>109.8</v>
+        <v>97.399999999999</v>
       </c>
       <c r="AS40" t="n">
         <v>7659</v>
@@ -22317,7 +22317,7 @@
         <v>20.7</v>
       </c>
       <c r="BM40" t="n">
-        <v>931.5999999999995</v>
+        <v>749.0999999999997</v>
       </c>
       <c r="BN40" t="n">
         <v>7921.8</v>
@@ -22344,7 +22344,7 @@
         <v>27</v>
       </c>
       <c r="BV40" t="n">
-        <v>531.7999999999965</v>
+        <v>212.4999999999936</v>
       </c>
       <c r="BW40" t="n">
         <v>51730.2</v>
@@ -22353,7 +22353,7 @@
         <v>18.1</v>
       </c>
       <c r="BY40" t="n">
-        <v>463.9000000000005</v>
+        <v>44.100000000004</v>
       </c>
       <c r="BZ40" t="n">
         <v>43310.7</v>
@@ -22398,7 +22398,7 @@
         <v>31.2</v>
       </c>
       <c r="CN40" t="n">
-        <v>1981.6</v>
+        <v>1843.299999999998</v>
       </c>
       <c r="CO40" t="n">
         <v>13847.2</v>
@@ -22407,7 +22407,7 @@
         <v>15.9</v>
       </c>
       <c r="CQ40" t="n">
-        <v>1239.9</v>
+        <v>1146.3</v>
       </c>
       <c r="CR40" t="n">
         <v>7799.4</v>
@@ -22470,7 +22470,7 @@
         <v>1.2</v>
       </c>
       <c r="DL40" t="n">
-        <v>3420.199999999997</v>
+        <v>3254.399999999996</v>
       </c>
       <c r="DM40" t="n">
         <v>25308.1</v>
@@ -22524,7 +22524,7 @@
         <v>46</v>
       </c>
       <c r="ED40" t="n">
-        <v>384.4000000000001</v>
+        <v>301.8000000000002</v>
       </c>
       <c r="EE40" t="n">
         <v>3401.2</v>
@@ -22684,7 +22684,7 @@
         <v>19.4</v>
       </c>
       <c r="E41" t="n">
-        <v>109.8999999999996</v>
+        <v>87.89999999999959</v>
       </c>
       <c r="F41" t="n">
         <v>5419.3</v>
@@ -22711,7 +22711,7 @@
         <v>37.9</v>
       </c>
       <c r="N41" t="n">
-        <v>402.7999999999988</v>
+        <v>183.0999999999976</v>
       </c>
       <c r="O41" t="n">
         <v>33911.4</v>
@@ -22720,7 +22720,7 @@
         <v>16</v>
       </c>
       <c r="Q41" t="n">
-        <v>8508.5</v>
+        <v>6388.199999999953</v>
       </c>
       <c r="R41" t="n">
         <v>707175</v>
@@ -22729,7 +22729,7 @@
         <v>24.2</v>
       </c>
       <c r="T41" t="n">
-        <v>507.9000000000005</v>
+        <v>180.6999999999998</v>
       </c>
       <c r="U41" t="n">
         <v>51966.5</v>
@@ -22738,7 +22738,7 @@
         <v>34.1</v>
       </c>
       <c r="W41" t="n">
-        <v>74.49999999999909</v>
+        <v>44.19999999999891</v>
       </c>
       <c r="X41" t="n">
         <v>6566.7</v>
@@ -22747,7 +22747,7 @@
         <v>35.7</v>
       </c>
       <c r="Z41" t="n">
-        <v>265.4999999999991</v>
+        <v>216.2999999999993</v>
       </c>
       <c r="AA41" t="n">
         <v>18760.6</v>
@@ -22756,7 +22756,7 @@
         <v>26.2</v>
       </c>
       <c r="AC41" t="n">
-        <v>69.5</v>
+        <v>57</v>
       </c>
       <c r="AD41" t="n">
         <v>4546.2</v>
@@ -22765,7 +22765,7 @@
         <v>14.8</v>
       </c>
       <c r="AF41" t="n">
-        <v>60.30000000000018</v>
+        <v>47.00000000000045</v>
       </c>
       <c r="AG41" t="n">
         <v>4940.4</v>
@@ -22774,7 +22774,7 @@
         <v>21.3</v>
       </c>
       <c r="AI41" t="n">
-        <v>8319.999999999854</v>
+        <v>5463.199999999808</v>
       </c>
       <c r="AJ41" t="n">
         <v>800010</v>
@@ -22819,7 +22819,7 @@
         <v>37.3</v>
       </c>
       <c r="AX41" t="n">
-        <v>38.4999999999998</v>
+        <v>32.69999999999959</v>
       </c>
       <c r="AY41" t="n">
         <v>1903.9</v>
@@ -22828,7 +22828,7 @@
         <v>17.7</v>
       </c>
       <c r="BA41" t="n">
-        <v>96.5</v>
+        <v>68.30000000000018</v>
       </c>
       <c r="BB41" t="n">
         <v>5884.6</v>
@@ -22837,7 +22837,7 @@
         <v>15.5</v>
       </c>
       <c r="BD41" t="n">
-        <v>181</v>
+        <v>67.80000000000111</v>
       </c>
       <c r="BE41" t="n">
         <v>18218.5</v>
@@ -22846,7 +22846,7 @@
         <v>19.3</v>
       </c>
       <c r="BG41" t="n">
-        <v>308.1999999999998</v>
+        <v>290.7999999999997</v>
       </c>
       <c r="BH41" t="n">
         <v>2436.1</v>
@@ -22855,7 +22855,7 @@
         <v>16.8</v>
       </c>
       <c r="BJ41" t="n">
-        <v>420.3999999999942</v>
+        <v>393.8999999999942</v>
       </c>
       <c r="BK41" t="n">
         <v>55227.8</v>
@@ -22873,7 +22873,7 @@
         <v>7.2</v>
       </c>
       <c r="BP41" t="n">
-        <v>1788.9</v>
+        <v>1556.800000000002</v>
       </c>
       <c r="BQ41" t="n">
         <v>17857.5</v>
@@ -22882,7 +22882,7 @@
         <v>39.3</v>
       </c>
       <c r="BS41" t="n">
-        <v>54.29999999999927</v>
+        <v>3.999999999998181</v>
       </c>
       <c r="BT41" t="n">
         <v>7132.8</v>
@@ -22891,7 +22891,7 @@
         <v>27</v>
       </c>
       <c r="BV41" t="n">
-        <v>7253.900000000001</v>
+        <v>6722.100000000004</v>
       </c>
       <c r="BW41" t="n">
         <v>59793.8</v>
@@ -22900,7 +22900,7 @@
         <v>16.5</v>
       </c>
       <c r="BY41" t="n">
-        <v>6233.300000000003</v>
+        <v>5769.400000000002</v>
       </c>
       <c r="BZ41" t="n">
         <v>50224.9</v>
@@ -22909,7 +22909,7 @@
         <v>15.1</v>
       </c>
       <c r="CB41" t="n">
-        <v>1122.900000000009</v>
+        <v>1018.000000000018</v>
       </c>
       <c r="CC41" t="n">
         <v>51611.1</v>
@@ -22927,7 +22927,7 @@
         <v>9.9</v>
       </c>
       <c r="CH41" t="n">
-        <v>160.3999999999978</v>
+        <v>46.59999999999579</v>
       </c>
       <c r="CI41" t="n">
         <v>35221.1</v>
@@ -22963,7 +22963,7 @@
         <v>9.6</v>
       </c>
       <c r="CT41" t="n">
-        <v>1408.400000000009</v>
+        <v>1125.600000000028</v>
       </c>
       <c r="CU41" t="n">
         <v>85404.2</v>
@@ -22981,7 +22981,7 @@
         <v>22.5</v>
       </c>
       <c r="CZ41" t="n">
-        <v>138.3000000000011</v>
+        <v>77.70000000000118</v>
       </c>
       <c r="DA41" t="n">
         <v>9527.200000000001</v>
@@ -22990,7 +22990,7 @@
         <v>20.5</v>
       </c>
       <c r="DC41" t="n">
-        <v>1001.300000000001</v>
+        <v>997.7000000000011</v>
       </c>
       <c r="DD41" t="n">
         <v>10825.9</v>
@@ -23026,7 +23026,7 @@
         <v>30</v>
       </c>
       <c r="DO41" t="n">
-        <v>302.2</v>
+        <v>254.2</v>
       </c>
       <c r="DP41" t="n">
         <v>7727.2</v>
@@ -23035,7 +23035,7 @@
         <v>16.5</v>
       </c>
       <c r="DR41" t="n">
-        <v>481.6000000000022</v>
+        <v>396.2000000000007</v>
       </c>
       <c r="DS41" t="n">
         <v>40767.5</v>
@@ -23053,7 +23053,7 @@
         <v>13.2</v>
       </c>
       <c r="DX41" t="n">
-        <v>253.0000000000009</v>
+        <v>114.0000000000018</v>
       </c>
       <c r="DY41" t="n">
         <v>13227.1</v>
@@ -23062,7 +23062,7 @@
         <v>10.8</v>
       </c>
       <c r="EA41" t="n">
-        <v>198.4999999999936</v>
+        <v>110.5999999999931</v>
       </c>
       <c r="EB41" t="n">
         <v>64046.5</v>
@@ -23222,7 +23222,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2636.799999999999</v>
+        <v>2176.399999999998</v>
       </c>
       <c r="C42" t="n">
         <v>26247.5</v>
@@ -23231,7 +23231,7 @@
         <v>17.4</v>
       </c>
       <c r="E42" t="n">
-        <v>671</v>
+        <v>561.1000000000004</v>
       </c>
       <c r="F42" t="n">
         <v>6241.9</v>
@@ -23240,7 +23240,7 @@
         <v>18.9</v>
       </c>
       <c r="H42" t="n">
-        <v>164.4000000000001</v>
+        <v>149.6000000000002</v>
       </c>
       <c r="I42" t="n">
         <v>1413.5</v>
@@ -23249,7 +23249,7 @@
         <v>17.6</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2999999999999998</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="L42" t="n">
         <v>8.800000000000001</v>
@@ -23267,7 +23267,7 @@
         <v>14</v>
       </c>
       <c r="Q42" t="n">
-        <v>87702.20000000007</v>
+        <v>79193.70000000007</v>
       </c>
       <c r="R42" t="n">
         <v>805478</v>
@@ -23276,7 +23276,7 @@
         <v>22.1</v>
       </c>
       <c r="T42" t="n">
-        <v>5784.900000000001</v>
+        <v>5277</v>
       </c>
       <c r="U42" t="n">
         <v>59229.8</v>
@@ -23294,7 +23294,7 @@
         <v>33.3</v>
       </c>
       <c r="Z42" t="n">
-        <v>2058.300000000003</v>
+        <v>1792.800000000004</v>
       </c>
       <c r="AA42" t="n">
         <v>21291</v>
@@ -23303,7 +23303,7 @@
         <v>24.4</v>
       </c>
       <c r="AC42" t="n">
-        <v>637.8000000000002</v>
+        <v>568.3000000000002</v>
       </c>
       <c r="AD42" t="n">
         <v>5199.7</v>
@@ -23321,7 +23321,7 @@
         <v>18</v>
       </c>
       <c r="AI42" t="n">
-        <v>98050.30000000005</v>
+        <v>89730.30000000019</v>
       </c>
       <c r="AJ42" t="n">
         <v>911623.9</v>
@@ -23330,7 +23330,7 @@
         <v>22.2</v>
       </c>
       <c r="AL42" t="n">
-        <v>38.40000000000009</v>
+        <v>23.30000000000018</v>
       </c>
       <c r="AM42" t="n">
         <v>6279.5</v>
@@ -23339,7 +23339,7 @@
         <v>61.1</v>
       </c>
       <c r="AO42" t="n">
-        <v>157.6999999999998</v>
+        <v>120.5999999999997</v>
       </c>
       <c r="AP42" t="n">
         <v>1340.6</v>
@@ -23348,7 +23348,7 @@
         <v>0.8</v>
       </c>
       <c r="AR42" t="n">
-        <v>1158.699999999999</v>
+        <v>1062.299999999998</v>
       </c>
       <c r="AS42" t="n">
         <v>10145.9</v>
@@ -23357,7 +23357,7 @@
         <v>17.8</v>
       </c>
       <c r="AU42" t="n">
-        <v>4887.199999999997</v>
+        <v>4154.799999999997</v>
       </c>
       <c r="AV42" t="n">
         <v>50476.1</v>
@@ -23366,7 +23366,7 @@
         <v>35.8</v>
       </c>
       <c r="AX42" t="n">
-        <v>228.8</v>
+        <v>190.3000000000002</v>
       </c>
       <c r="AY42" t="n">
         <v>2172.9</v>
@@ -23411,7 +23411,7 @@
         <v>11.3</v>
       </c>
       <c r="BM42" t="n">
-        <v>791</v>
+        <v>723.8999999999987</v>
       </c>
       <c r="BN42" t="n">
         <v>9970.9</v>
@@ -23429,7 +23429,7 @@
         <v>44.6</v>
       </c>
       <c r="BS42" t="n">
-        <v>702.2999999999993</v>
+        <v>648</v>
       </c>
       <c r="BT42" t="n">
         <v>8044.5</v>
@@ -23456,7 +23456,7 @@
         <v>14.2</v>
       </c>
       <c r="CB42" t="n">
-        <v>6409.400000000001</v>
+        <v>5286.499999999992</v>
       </c>
       <c r="CC42" t="n">
         <v>59284.3</v>
@@ -23465,7 +23465,7 @@
         <v>27.5</v>
       </c>
       <c r="CE42" t="n">
-        <v>941.0999999999995</v>
+        <v>822.0999999999985</v>
       </c>
       <c r="CF42" t="n">
         <v>7865.1</v>
@@ -23474,7 +23474,7 @@
         <v>8.5</v>
       </c>
       <c r="CH42" t="n">
-        <v>3611.5</v>
+        <v>3451.100000000002</v>
       </c>
       <c r="CI42" t="n">
         <v>39965.6</v>
@@ -23501,7 +23501,7 @@
         <v>12.8</v>
       </c>
       <c r="CQ42" t="n">
-        <v>1329</v>
+        <v>1238.5</v>
       </c>
       <c r="CR42" t="n">
         <v>10457.2</v>
@@ -23510,7 +23510,7 @@
         <v>9</v>
       </c>
       <c r="CT42" t="n">
-        <v>11388.89999999999</v>
+        <v>9980.499999999982</v>
       </c>
       <c r="CU42" t="n">
         <v>98579</v>
@@ -23519,7 +23519,7 @@
         <v>16.3</v>
       </c>
       <c r="CW42" t="n">
-        <v>3747.5</v>
+        <v>3373.899999999998</v>
       </c>
       <c r="CX42" t="n">
         <v>33737.4</v>
@@ -23528,7 +23528,7 @@
         <v>20.3</v>
       </c>
       <c r="CZ42" t="n">
-        <v>1247</v>
+        <v>1108.699999999999</v>
       </c>
       <c r="DA42" t="n">
         <v>10819</v>
@@ -23546,7 +23546,7 @@
         <v>13.4</v>
       </c>
       <c r="DF42" t="n">
-        <v>154.1000000000022</v>
+        <v>83.40000000000558</v>
       </c>
       <c r="DG42" t="n">
         <v>38391.9</v>
@@ -23555,7 +23555,7 @@
         <v>36</v>
       </c>
       <c r="DI42" t="n">
-        <v>130.5</v>
+        <v>94.99999999999986</v>
       </c>
       <c r="DJ42" t="n">
         <v>984.6</v>
@@ -23564,7 +23564,7 @@
         <v>1.8</v>
       </c>
       <c r="DL42" t="n">
-        <v>3429.200000000001</v>
+        <v>3145.399999999998</v>
       </c>
       <c r="DM42" t="n">
         <v>33628.4</v>
@@ -23573,7 +23573,7 @@
         <v>27.7</v>
       </c>
       <c r="DO42" t="n">
-        <v>978.1999999999998</v>
+        <v>675.9999999999998</v>
       </c>
       <c r="DP42" t="n">
         <v>8996.799999999999</v>
@@ -23591,7 +23591,7 @@
         <v>16.8</v>
       </c>
       <c r="DU42" t="n">
-        <v>369</v>
+        <v>314.1000000000001</v>
       </c>
       <c r="DV42" t="n">
         <v>2829.5</v>
@@ -23600,7 +23600,7 @@
         <v>11.3</v>
       </c>
       <c r="DX42" t="n">
-        <v>1682</v>
+        <v>1428.999999999999</v>
       </c>
       <c r="DY42" t="n">
         <v>15149.2</v>
@@ -23609,7 +23609,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="EA42" t="n">
-        <v>257.9000000000087</v>
+        <v>59.40000000001507</v>
       </c>
       <c r="EB42" t="n">
         <v>72407.10000000001</v>
@@ -23618,7 +23618,7 @@
         <v>40.7</v>
       </c>
       <c r="ED42" t="n">
-        <v>60.30000000000018</v>
+        <v>38.70000000000027</v>
       </c>
       <c r="EE42" t="n">
         <v>4418.1</v>
@@ -23796,7 +23796,7 @@
         <v>16.5</v>
       </c>
       <c r="K43" t="n">
-        <v>0.6999999999999993</v>
+        <v>0.3999999999999995</v>
       </c>
       <c r="L43" t="n">
         <v>9.9</v>
@@ -23859,7 +23859,7 @@
         <v>11.4</v>
       </c>
       <c r="AF43" t="n">
-        <v>42.60000000000036</v>
+        <v>24.00000000000045</v>
       </c>
       <c r="AG43" t="n">
         <v>6319.5</v>
@@ -23877,7 +23877,7 @@
         <v>21.1</v>
       </c>
       <c r="AL43" t="n">
-        <v>60.70000000000027</v>
+        <v>22.30000000000018</v>
       </c>
       <c r="AM43" t="n">
         <v>7127.7</v>
@@ -23931,7 +23931,7 @@
         <v>11.2</v>
       </c>
       <c r="BD43" t="n">
-        <v>191.6999999999998</v>
+        <v>155.1000000000008</v>
       </c>
       <c r="BE43" t="n">
         <v>23202.8</v>
@@ -23940,7 +23940,7 @@
         <v>15</v>
       </c>
       <c r="BG43" t="n">
-        <v>21.5</v>
+        <v>5.69999999999982</v>
       </c>
       <c r="BH43" t="n">
         <v>3130.8</v>
@@ -23949,7 +23949,7 @@
         <v>15.2</v>
       </c>
       <c r="BJ43" t="n">
-        <v>720</v>
+        <v>359.0999999999913</v>
       </c>
       <c r="BK43" t="n">
         <v>68938</v>
@@ -24030,7 +24030,7 @@
         <v>33.6</v>
       </c>
       <c r="CK43" t="n">
-        <v>9.100000000000364</v>
+        <v>8.300000000001091</v>
       </c>
       <c r="CL43" t="n">
         <v>7352.7</v>
@@ -24084,7 +24084,7 @@
         <v>16.8</v>
       </c>
       <c r="DC43" t="n">
-        <v>1131.700000000001</v>
+        <v>966.7000000000029</v>
       </c>
       <c r="DD43" t="n">
         <v>13039.8</v>
@@ -24129,7 +24129,7 @@
         <v>13.3</v>
       </c>
       <c r="DR43" t="n">
-        <v>360.3000000000011</v>
+        <v>277.0000000000045</v>
       </c>
       <c r="DS43" t="n">
         <v>52565.7</v>
@@ -24156,7 +24156,7 @@
         <v>9.5</v>
       </c>
       <c r="EA43" t="n">
-        <v>6869.699999999997</v>
+        <v>6611.799999999988</v>
       </c>
       <c r="EB43" t="n">
         <v>80706.7</v>
@@ -24165,7 +24165,7 @@
         <v>38</v>
       </c>
       <c r="ED43" t="n">
-        <v>416.0999999999999</v>
+        <v>355.7999999999997</v>
       </c>
       <c r="EE43" t="n">
         <v>4965.1</v>
@@ -24316,7 +24316,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1090.400000000005</v>
+        <v>558.3000000000061</v>
       </c>
       <c r="C44" t="n">
         <v>32087.1</v>
@@ -24325,7 +24325,7 @@
         <v>14</v>
       </c>
       <c r="E44" t="n">
-        <v>255.599999999999</v>
+        <v>87.599999999999</v>
       </c>
       <c r="F44" t="n">
         <v>7900.4</v>
@@ -24352,7 +24352,7 @@
         <v>31.7</v>
       </c>
       <c r="N44" t="n">
-        <v>974.7999999999956</v>
+        <v>965.2999999999884</v>
       </c>
       <c r="O44" t="n">
         <v>48331.4</v>
@@ -24361,7 +24361,7 @@
         <v>13.4</v>
       </c>
       <c r="Q44" t="n">
-        <v>12609.20000000004</v>
+        <v>5350.700000000157</v>
       </c>
       <c r="R44" t="n">
         <v>1008476.2</v>
@@ -24370,7 +24370,7 @@
         <v>19.7</v>
       </c>
       <c r="T44" t="n">
-        <v>693.3999999999942</v>
+        <v>366.2999999999947</v>
       </c>
       <c r="U44" t="n">
         <v>74470.89999999999</v>
@@ -24379,7 +24379,7 @@
         <v>31.8</v>
       </c>
       <c r="W44" t="n">
-        <v>116.1000000000004</v>
+        <v>108.3000000000011</v>
       </c>
       <c r="X44" t="n">
         <v>9258.799999999999</v>
@@ -24388,7 +24388,7 @@
         <v>29.8</v>
       </c>
       <c r="Z44" t="n">
-        <v>392.1000000000022</v>
+        <v>42.00000000000728</v>
       </c>
       <c r="AA44" t="n">
         <v>26094.6</v>
@@ -24397,7 +24397,7 @@
         <v>20.9</v>
       </c>
       <c r="AC44" t="n">
-        <v>73.80000000000109</v>
+        <v>0.8000000000020009</v>
       </c>
       <c r="AD44" t="n">
         <v>6580.7</v>
@@ -24406,7 +24406,7 @@
         <v>10.4</v>
       </c>
       <c r="AF44" t="n">
-        <v>50.89999999999964</v>
+        <v>8.299999999999287</v>
       </c>
       <c r="AG44" t="n">
         <v>7122.6</v>
@@ -24415,7 +24415,7 @@
         <v>14.1</v>
       </c>
       <c r="AI44" t="n">
-        <v>15164.8</v>
+        <v>7193.700000000052</v>
       </c>
       <c r="AJ44" t="n">
         <v>1143083.8</v>
@@ -24424,7 +24424,7 @@
         <v>20.3</v>
       </c>
       <c r="AL44" t="n">
-        <v>69.5</v>
+        <v>8.799999999999727</v>
       </c>
       <c r="AM44" t="n">
         <v>8080.7</v>
@@ -24433,7 +24433,7 @@
         <v>55.2</v>
       </c>
       <c r="AO44" t="n">
-        <v>161</v>
+        <v>146.1999999999998</v>
       </c>
       <c r="AP44" t="n">
         <v>1700.4</v>
@@ -24442,7 +24442,7 @@
         <v>2.4</v>
       </c>
       <c r="AR44" t="n">
-        <v>197.1999999999991</v>
+        <v>127.6999999999971</v>
       </c>
       <c r="AS44" t="n">
         <v>12749.5</v>
@@ -24451,7 +24451,7 @@
         <v>15.9</v>
       </c>
       <c r="AU44" t="n">
-        <v>924.3000000000038</v>
+        <v>692.1000000000004</v>
       </c>
       <c r="AV44" t="n">
         <v>63158.1</v>
@@ -24487,7 +24487,7 @@
         <v>13.7</v>
       </c>
       <c r="BG44" t="n">
-        <v>128.9000000000001</v>
+        <v>107.4000000000001</v>
       </c>
       <c r="BH44" t="n">
         <v>3499.7</v>
@@ -24505,7 +24505,7 @@
         <v>7.1</v>
       </c>
       <c r="BM44" t="n">
-        <v>471.3999999999996</v>
+        <v>454.6000000000003</v>
       </c>
       <c r="BN44" t="n">
         <v>11653</v>
@@ -24514,7 +24514,7 @@
         <v>6.8</v>
       </c>
       <c r="BP44" t="n">
-        <v>364.899999999998</v>
+        <v>358.4999999999949</v>
       </c>
       <c r="BQ44" t="n">
         <v>28985.9</v>
@@ -24523,7 +24523,7 @@
         <v>56.8</v>
       </c>
       <c r="BS44" t="n">
-        <v>508.5000000000005</v>
+        <v>291.8999999999992</v>
       </c>
       <c r="BT44" t="n">
         <v>10177.4</v>
@@ -24532,7 +24532,7 @@
         <v>28</v>
       </c>
       <c r="BV44" t="n">
-        <v>1756.899999999994</v>
+        <v>1069.999999999992</v>
       </c>
       <c r="BW44" t="n">
         <v>83964.39999999999</v>
@@ -24541,7 +24541,7 @@
         <v>15.7</v>
       </c>
       <c r="BY44" t="n">
-        <v>1119.399999999994</v>
+        <v>670.399999999994</v>
       </c>
       <c r="BZ44" t="n">
         <v>70287.3</v>
@@ -24550,7 +24550,7 @@
         <v>14.2</v>
       </c>
       <c r="CB44" t="n">
-        <v>1181.30000000001</v>
+        <v>135.4000000000149</v>
       </c>
       <c r="CC44" t="n">
         <v>75497.89999999999</v>
@@ -24559,7 +24559,7 @@
         <v>25.1</v>
       </c>
       <c r="CE44" t="n">
-        <v>87.40000000000009</v>
+        <v>58.29999999999973</v>
       </c>
       <c r="CF44" t="n">
         <v>9921.299999999999</v>
@@ -24568,7 +24568,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="CH44" t="n">
-        <v>358.9999999999995</v>
+        <v>93.09999999999849</v>
       </c>
       <c r="CI44" t="n">
         <v>50244.5</v>
@@ -24577,7 +24577,7 @@
         <v>33.5</v>
       </c>
       <c r="CK44" t="n">
-        <v>149.4000000000005</v>
+        <v>140.3000000000001</v>
       </c>
       <c r="CL44" t="n">
         <v>8211.799999999999</v>
@@ -24586,7 +24586,7 @@
         <v>37.1</v>
       </c>
       <c r="CN44" t="n">
-        <v>266.8000000000034</v>
+        <v>196.8000000000066</v>
       </c>
       <c r="CO44" t="n">
         <v>22868.1</v>
@@ -24595,7 +24595,7 @@
         <v>10.2</v>
       </c>
       <c r="CQ44" t="n">
-        <v>144.0999999999981</v>
+        <v>47.89999999999714</v>
       </c>
       <c r="CR44" t="n">
         <v>13303.1</v>
@@ -24604,7 +24604,7 @@
         <v>7.7</v>
       </c>
       <c r="CT44" t="n">
-        <v>1454.100000000009</v>
+        <v>84</v>
       </c>
       <c r="CU44" t="n">
         <v>124937.4</v>
@@ -24613,7 +24613,7 @@
         <v>14.7</v>
       </c>
       <c r="CW44" t="n">
-        <v>781.5</v>
+        <v>395.5</v>
       </c>
       <c r="CX44" t="n">
         <v>41932</v>
@@ -24622,7 +24622,7 @@
         <v>16.7</v>
       </c>
       <c r="CZ44" t="n">
-        <v>81.5</v>
+        <v>36.70000000000095</v>
       </c>
       <c r="DA44" t="n">
         <v>13502.5</v>
@@ -24640,7 +24640,7 @@
         <v>12.8</v>
       </c>
       <c r="DF44" t="n">
-        <v>798.8000000000097</v>
+        <v>773.4000000000146</v>
       </c>
       <c r="DG44" t="n">
         <v>50643.2</v>
@@ -24667,7 +24667,7 @@
         <v>23.8</v>
       </c>
       <c r="DO44" t="n">
-        <v>492.100000000001</v>
+        <v>258.2000000000009</v>
       </c>
       <c r="DP44" t="n">
         <v>11376.2</v>
@@ -24676,7 +24676,7 @@
         <v>12.8</v>
       </c>
       <c r="DR44" t="n">
-        <v>583.3999999999951</v>
+        <v>223.099999999994</v>
       </c>
       <c r="DS44" t="n">
         <v>59085.2</v>
@@ -24685,7 +24685,7 @@
         <v>14.5</v>
       </c>
       <c r="DU44" t="n">
-        <v>29.69999999999982</v>
+        <v>26.89999999999964</v>
       </c>
       <c r="DV44" t="n">
         <v>3590.4</v>
@@ -24694,7 +24694,7 @@
         <v>9.4</v>
       </c>
       <c r="DX44" t="n">
-        <v>202.899999999996</v>
+        <v>64.89999999999401</v>
       </c>
       <c r="DY44" t="n">
         <v>18976.6</v>
